--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -58455,10 +58455,10 @@
         <v>3.15</v>
       </c>
       <c r="AU276">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV276">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW276">
         <v>3</v>
@@ -58467,10 +58467,10 @@
         <v>2</v>
       </c>
       <c r="AY276">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ276">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA276">
         <v>3</v>
@@ -58661,22 +58661,22 @@
         <v>2.52</v>
       </c>
       <c r="AU277">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV277">
         <v>5</v>
       </c>
       <c r="AW277">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY277">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ277">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA277">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="435">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,15 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['19', '26', '67', '78']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['60', '86']</t>
   </si>
   <si>
@@ -1303,7 +1312,13 @@
     <t>['44', '50']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['8', '29']</t>
+  </si>
+  <si>
+    <t>['7', '45', '67', '80', '82']</t>
+  </si>
+  <si>
+    <t>['25', '59', '70', '77']</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1924,7 +1939,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -2002,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2208,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -2336,7 +2351,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q4">
         <v>2.25</v>
@@ -2417,7 +2432,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ4">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2542,7 +2557,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q5">
         <v>1.5</v>
@@ -2748,7 +2763,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2829,7 +2844,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2954,7 +2969,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -3366,7 +3381,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q9">
         <v>1.83</v>
@@ -3572,7 +3587,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3856,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ11">
         <v>1.27</v>
@@ -3984,7 +3999,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4065,7 +4080,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ12">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4190,7 +4205,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4396,7 +4411,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4808,7 +4823,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4886,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5014,7 +5029,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -5220,7 +5235,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q18">
         <v>1.83</v>
@@ -5426,7 +5441,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5713,7 +5728,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20">
         <v>1.35</v>
@@ -5838,7 +5853,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -6456,7 +6471,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6537,7 +6552,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ24">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>2.11</v>
@@ -6662,7 +6677,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6868,7 +6883,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -7074,7 +7089,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7280,7 +7295,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q28">
         <v>6.5</v>
@@ -7564,7 +7579,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ29">
         <v>0.63</v>
@@ -7692,7 +7707,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7770,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ30">
         <v>2.44</v>
@@ -7979,7 +7994,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>2.23</v>
@@ -8104,7 +8119,7 @@
         <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8182,7 +8197,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ32">
         <v>1.53</v>
@@ -8310,7 +8325,7 @@
         <v>94</v>
       </c>
       <c r="P33" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8722,7 +8737,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8803,7 +8818,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ35">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35">
         <v>0.84</v>
@@ -9006,7 +9021,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ36">
         <v>1.27</v>
@@ -9134,7 +9149,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9340,7 +9355,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9418,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -9546,7 +9561,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9752,7 +9767,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -9833,7 +9848,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -10245,7 +10260,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -10576,7 +10591,7 @@
         <v>122</v>
       </c>
       <c r="P44" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10654,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ44">
         <v>0.6899999999999999</v>
@@ -10988,7 +11003,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -11194,7 +11209,7 @@
         <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -11481,7 +11496,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR48">
         <v>1.62</v>
@@ -11812,7 +11827,7 @@
         <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q50">
         <v>4.75</v>
@@ -12018,7 +12033,7 @@
         <v>94</v>
       </c>
       <c r="P51" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12302,7 +12317,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ52">
         <v>1.13</v>
@@ -12511,7 +12526,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR53">
         <v>1.77</v>
@@ -12842,7 +12857,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q55">
         <v>1.53</v>
@@ -13048,7 +13063,7 @@
         <v>94</v>
       </c>
       <c r="P56" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -13126,7 +13141,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13332,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ57">
         <v>0.5</v>
@@ -13666,7 +13681,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13747,7 +13762,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR59">
         <v>1.54</v>
@@ -13872,7 +13887,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13953,7 +13968,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ60">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
         <v>1.25</v>
@@ -14156,7 +14171,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -14568,7 +14583,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -14696,7 +14711,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14983,7 +14998,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -15520,7 +15535,7 @@
         <v>94</v>
       </c>
       <c r="P68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -15726,7 +15741,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15932,7 +15947,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16138,7 +16153,7 @@
         <v>94</v>
       </c>
       <c r="P71" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16344,7 +16359,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q72">
         <v>1.44</v>
@@ -16422,7 +16437,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -16756,7 +16771,7 @@
         <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17249,7 +17264,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ76">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR76">
         <v>2.61</v>
@@ -17374,7 +17389,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17452,10 +17467,10 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ77">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.19</v>
@@ -17580,7 +17595,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17658,7 +17673,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ78">
         <v>1.53</v>
@@ -17786,7 +17801,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -18073,7 +18088,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>2.03</v>
@@ -18897,7 +18912,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -19228,7 +19243,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19434,7 +19449,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19512,7 +19527,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ87">
         <v>0.63</v>
@@ -19640,7 +19655,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19718,10 +19733,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ88">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>2.63</v>
@@ -20052,7 +20067,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q90">
         <v>7.5</v>
@@ -20130,7 +20145,7 @@
         <v>3</v>
       </c>
       <c r="AP90">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ90">
         <v>2.56</v>
@@ -20464,7 +20479,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q92">
         <v>9</v>
@@ -20751,7 +20766,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR93">
         <v>1.99</v>
@@ -20876,7 +20891,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -20954,7 +20969,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ94">
         <v>1.53</v>
@@ -21082,7 +21097,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21494,7 +21509,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q97">
         <v>2.3</v>
@@ -22112,7 +22127,7 @@
         <v>94</v>
       </c>
       <c r="P100" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22318,7 +22333,7 @@
         <v>163</v>
       </c>
       <c r="P101" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q101">
         <v>1.8</v>
@@ -22524,7 +22539,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22808,7 +22823,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ103">
         <v>1.13</v>
@@ -22936,7 +22951,7 @@
         <v>128</v>
       </c>
       <c r="P104" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q104">
         <v>3.6</v>
@@ -23014,10 +23029,10 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ104">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR104">
         <v>1.6</v>
@@ -23142,7 +23157,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23223,7 +23238,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR105">
         <v>1.3</v>
@@ -23554,7 +23569,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q107">
         <v>2.38</v>
@@ -23632,7 +23647,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ107">
         <v>0.63</v>
@@ -23760,7 +23775,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -24172,7 +24187,7 @@
         <v>94</v>
       </c>
       <c r="P110" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24378,7 +24393,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q111">
         <v>2.3</v>
@@ -24459,7 +24474,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ111">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24665,7 +24680,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ112">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR112">
         <v>1.93</v>
@@ -24790,7 +24805,7 @@
         <v>94</v>
       </c>
       <c r="P113" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -25408,7 +25423,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25820,7 +25835,7 @@
         <v>94</v>
       </c>
       <c r="P118" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25898,7 +25913,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ118">
         <v>1.13</v>
@@ -26107,7 +26122,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ119">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR119">
         <v>1.68</v>
@@ -26232,7 +26247,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26516,10 +26531,10 @@
         <v>1.67</v>
       </c>
       <c r="AP121">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ121">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26644,7 +26659,7 @@
         <v>110</v>
       </c>
       <c r="P122" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26850,7 +26865,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26931,7 +26946,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -27056,7 +27071,7 @@
         <v>109</v>
       </c>
       <c r="P124" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27262,7 +27277,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27340,7 +27355,7 @@
         <v>2.17</v>
       </c>
       <c r="AP125">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ125">
         <v>1.63</v>
@@ -27468,7 +27483,7 @@
         <v>136</v>
       </c>
       <c r="P126" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27674,7 +27689,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27755,7 +27770,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ127">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR127">
         <v>1.22</v>
@@ -27958,7 +27973,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -28086,7 +28101,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q129">
         <v>1.33</v>
@@ -28292,7 +28307,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28579,7 +28594,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ131">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>2.03</v>
@@ -28704,7 +28719,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28910,7 +28925,7 @@
         <v>186</v>
       </c>
       <c r="P133" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>1.62</v>
@@ -29116,7 +29131,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29403,7 +29418,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR135">
         <v>1.76</v>
@@ -30018,10 +30033,10 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ138">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -30352,7 +30367,7 @@
         <v>131</v>
       </c>
       <c r="P140" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30639,7 +30654,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR141">
         <v>1.38</v>
@@ -30764,7 +30779,7 @@
         <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30970,7 +30985,7 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q143">
         <v>8.5</v>
@@ -31048,7 +31063,7 @@
         <v>2.29</v>
       </c>
       <c r="AP143">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ143">
         <v>2.44</v>
@@ -31176,7 +31191,7 @@
         <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31382,7 +31397,7 @@
         <v>94</v>
       </c>
       <c r="P145" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31588,7 +31603,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31794,7 +31809,7 @@
         <v>94</v>
       </c>
       <c r="P147" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -31875,7 +31890,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ147">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR147">
         <v>1.7</v>
@@ -32206,7 +32221,7 @@
         <v>197</v>
       </c>
       <c r="P149" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32490,7 +32505,7 @@
         <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ150">
         <v>0.63</v>
@@ -32618,7 +32633,7 @@
         <v>94</v>
       </c>
       <c r="P151" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32696,7 +32711,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ151">
         <v>1.13</v>
@@ -32824,7 +32839,7 @@
         <v>199</v>
       </c>
       <c r="P152" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -32905,7 +32920,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ152">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR152">
         <v>2.12</v>
@@ -33236,7 +33251,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q154">
         <v>1.5</v>
@@ -33854,7 +33869,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q157">
         <v>2.2</v>
@@ -33932,7 +33947,7 @@
         <v>0.44</v>
       </c>
       <c r="AP157">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ157">
         <v>0.5</v>
@@ -34060,7 +34075,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q158">
         <v>1.8</v>
@@ -34266,7 +34281,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q159">
         <v>6.5</v>
@@ -34344,7 +34359,7 @@
         <v>3</v>
       </c>
       <c r="AP159">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ159">
         <v>2.56</v>
@@ -34472,7 +34487,7 @@
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -34678,7 +34693,7 @@
         <v>94</v>
       </c>
       <c r="P161" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34884,7 +34899,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q162">
         <v>1.67</v>
@@ -34965,7 +34980,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ162">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR162">
         <v>1.97</v>
@@ -35377,7 +35392,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ164">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR164">
         <v>1.49</v>
@@ -35583,7 +35598,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ165">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
         <v>1.3</v>
@@ -35786,7 +35801,7 @@
         <v>1.22</v>
       </c>
       <c r="AP166">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ166">
         <v>1.13</v>
@@ -35914,7 +35929,7 @@
         <v>131</v>
       </c>
       <c r="P167" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -36120,7 +36135,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q168">
         <v>5.5</v>
@@ -36198,10 +36213,10 @@
         <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ168">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR168">
         <v>1.32</v>
@@ -36326,7 +36341,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q169">
         <v>3.75</v>
@@ -36738,7 +36753,7 @@
         <v>210</v>
       </c>
       <c r="P171" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -37022,7 +37037,7 @@
         <v>0.33</v>
       </c>
       <c r="AP172">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ172">
         <v>0.63</v>
@@ -37437,7 +37452,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ174">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR174">
         <v>1.79</v>
@@ -37562,7 +37577,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37768,7 +37783,7 @@
         <v>99</v>
       </c>
       <c r="P176" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q176">
         <v>3.5</v>
@@ -38180,7 +38195,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38592,7 +38607,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q180">
         <v>1.83</v>
@@ -38670,7 +38685,7 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ180">
         <v>0.5</v>
@@ -38798,7 +38813,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -39210,7 +39225,7 @@
         <v>94</v>
       </c>
       <c r="P183" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39622,7 +39637,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39700,10 +39715,10 @@
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ185">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR185">
         <v>1.34</v>
@@ -39828,7 +39843,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q186">
         <v>2.3</v>
@@ -40112,7 +40127,7 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ187">
         <v>0.63</v>
@@ -40240,7 +40255,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q188">
         <v>4.33</v>
@@ -40321,7 +40336,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ188">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR188">
         <v>1.78</v>
@@ -40446,7 +40461,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q189">
         <v>15</v>
@@ -40524,7 +40539,7 @@
         <v>2.6</v>
       </c>
       <c r="AP189">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ189">
         <v>2.56</v>
@@ -40733,7 +40748,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ190">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR190">
         <v>2.32</v>
@@ -40936,7 +40951,7 @@
         <v>0.8</v>
       </c>
       <c r="AP191">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ191">
         <v>0.6899999999999999</v>
@@ -41064,7 +41079,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q192">
         <v>2.38</v>
@@ -41270,7 +41285,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41476,7 +41491,7 @@
         <v>94</v>
       </c>
       <c r="P194" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q194">
         <v>2.6</v>
@@ -42094,7 +42109,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q197">
         <v>1.83</v>
@@ -42587,7 +42602,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ199">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR199">
         <v>2.31</v>
@@ -42790,7 +42805,7 @@
         <v>0.73</v>
       </c>
       <c r="AP200">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ200">
         <v>0.6899999999999999</v>
@@ -43124,7 +43139,7 @@
         <v>104</v>
       </c>
       <c r="P202" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q202">
         <v>7.5</v>
@@ -43411,7 +43426,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ203">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR203">
         <v>1.65</v>
@@ -43536,7 +43551,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q204">
         <v>2.75</v>
@@ -43617,7 +43632,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ204">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR204">
         <v>1.43</v>
@@ -43948,7 +43963,7 @@
         <v>94</v>
       </c>
       <c r="P206" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -44235,7 +44250,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ207">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR207">
         <v>1.71</v>
@@ -44360,7 +44375,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44438,7 +44453,7 @@
         <v>0.73</v>
       </c>
       <c r="AP208">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44566,7 +44581,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44644,7 +44659,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ209">
         <v>1.27</v>
@@ -44853,7 +44868,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ210">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR210">
         <v>2.05</v>
@@ -44978,7 +44993,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q211">
         <v>6.13</v>
@@ -45802,7 +45817,7 @@
         <v>238</v>
       </c>
       <c r="P215" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45880,7 +45895,7 @@
         <v>2.55</v>
       </c>
       <c r="AP215">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ215">
         <v>2.44</v>
@@ -46008,7 +46023,7 @@
         <v>239</v>
       </c>
       <c r="P216" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46214,7 +46229,7 @@
         <v>240</v>
       </c>
       <c r="P217" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q217">
         <v>3.1</v>
@@ -46292,7 +46307,7 @@
         <v>1.27</v>
       </c>
       <c r="AP217">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ217">
         <v>1.13</v>
@@ -46707,7 +46722,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ219">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR219">
         <v>1.8</v>
@@ -46832,7 +46847,7 @@
         <v>242</v>
       </c>
       <c r="P220" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q220">
         <v>4.2</v>
@@ -47038,7 +47053,7 @@
         <v>243</v>
       </c>
       <c r="P221" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q221">
         <v>2.81</v>
@@ -47119,7 +47134,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ221">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR221">
         <v>1.22</v>
@@ -47450,7 +47465,7 @@
         <v>245</v>
       </c>
       <c r="P223" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q223">
         <v>2.05</v>
@@ -47656,7 +47671,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q224">
         <v>1.95</v>
@@ -48352,7 +48367,7 @@
         <v>1.33</v>
       </c>
       <c r="AP227">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ227">
         <v>1.13</v>
@@ -48480,7 +48495,7 @@
         <v>250</v>
       </c>
       <c r="P228" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q228">
         <v>2.4</v>
@@ -48767,7 +48782,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ229">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR229">
         <v>1.44</v>
@@ -49098,7 +49113,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q231">
         <v>8.5</v>
@@ -49176,7 +49191,7 @@
         <v>1.67</v>
       </c>
       <c r="AP231">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ231">
         <v>1.63</v>
@@ -49382,7 +49397,7 @@
         <v>1.25</v>
       </c>
       <c r="AP232">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ232">
         <v>1.27</v>
@@ -49510,7 +49525,7 @@
         <v>251</v>
       </c>
       <c r="P233" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -49716,7 +49731,7 @@
         <v>252</v>
       </c>
       <c r="P234" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -49797,7 +49812,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ234">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR234">
         <v>1.68</v>
@@ -50000,7 +50015,7 @@
         <v>1.83</v>
       </c>
       <c r="AP235">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ235">
         <v>1.53</v>
@@ -50128,7 +50143,7 @@
         <v>253</v>
       </c>
       <c r="P236" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q236">
         <v>5.5</v>
@@ -51033,7 +51048,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ240">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR240">
         <v>1.71</v>
@@ -51158,7 +51173,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q241">
         <v>4.33</v>
@@ -51239,7 +51254,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ241">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR241">
         <v>1.48</v>
@@ -51364,7 +51379,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q242">
         <v>1.73</v>
@@ -51776,7 +51791,7 @@
         <v>109</v>
       </c>
       <c r="P244" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q244">
         <v>2</v>
@@ -51982,7 +51997,7 @@
         <v>259</v>
       </c>
       <c r="P245" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52063,7 +52078,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ245">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR245">
         <v>1.49</v>
@@ -52188,7 +52203,7 @@
         <v>94</v>
       </c>
       <c r="P246" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q246">
         <v>12</v>
@@ -52394,7 +52409,7 @@
         <v>185</v>
       </c>
       <c r="P247" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52678,7 +52693,7 @@
         <v>1.77</v>
       </c>
       <c r="AP248">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ248">
         <v>1.63</v>
@@ -52806,7 +52821,7 @@
         <v>261</v>
       </c>
       <c r="P249" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52884,7 +52899,7 @@
         <v>1.23</v>
       </c>
       <c r="AP249">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ249">
         <v>1.13</v>
@@ -53012,7 +53027,7 @@
         <v>262</v>
       </c>
       <c r="P250" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -53296,7 +53311,7 @@
         <v>2.46</v>
       </c>
       <c r="AP251">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ251">
         <v>2.44</v>
@@ -53836,7 +53851,7 @@
         <v>263</v>
       </c>
       <c r="P254" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q254">
         <v>2.3</v>
@@ -54042,7 +54057,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q255">
         <v>1.83</v>
@@ -54120,7 +54135,7 @@
         <v>1.64</v>
       </c>
       <c r="AP255">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ255">
         <v>1.63</v>
@@ -54248,7 +54263,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q256">
         <v>2.75</v>
@@ -54660,7 +54675,7 @@
         <v>94</v>
       </c>
       <c r="P258" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -55153,7 +55168,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ260">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR260">
         <v>2.4</v>
@@ -55278,7 +55293,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55356,10 +55371,10 @@
         <v>0.62</v>
       </c>
       <c r="AP261">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ261">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR261">
         <v>1.27</v>
@@ -55484,7 +55499,7 @@
         <v>270</v>
       </c>
       <c r="P262" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q262">
         <v>2.7</v>
@@ -55974,10 +55989,10 @@
         <v>0.64</v>
       </c>
       <c r="AP264">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AQ264">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR264">
         <v>2.58</v>
@@ -56102,7 +56117,7 @@
         <v>273</v>
       </c>
       <c r="P265" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q265">
         <v>1.74</v>
@@ -56183,7 +56198,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ265">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR265">
         <v>1.7</v>
@@ -56308,7 +56323,7 @@
         <v>274</v>
       </c>
       <c r="P266" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q266">
         <v>3.1</v>
@@ -56389,7 +56404,7 @@
         <v>1</v>
       </c>
       <c r="AQ266">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR266">
         <v>1.34</v>
@@ -56514,7 +56529,7 @@
         <v>94</v>
       </c>
       <c r="P267" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q267">
         <v>3.25</v>
@@ -56592,7 +56607,7 @@
         <v>0.86</v>
       </c>
       <c r="AP267">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ267">
         <v>1</v>
@@ -57004,7 +57019,7 @@
         <v>1.21</v>
       </c>
       <c r="AP269">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ269">
         <v>1.13</v>
@@ -57132,7 +57147,7 @@
         <v>276</v>
       </c>
       <c r="P270" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q270">
         <v>3.1</v>
@@ -57338,7 +57353,7 @@
         <v>277</v>
       </c>
       <c r="P271" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q271">
         <v>2.05</v>
@@ -57750,7 +57765,7 @@
         <v>279</v>
       </c>
       <c r="P273" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q273">
         <v>1.73</v>
@@ -57956,7 +57971,7 @@
         <v>94</v>
       </c>
       <c r="P274" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q274">
         <v>6.5</v>
@@ -58162,7 +58177,7 @@
         <v>280</v>
       </c>
       <c r="P275" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58368,7 +58383,7 @@
         <v>94</v>
       </c>
       <c r="P276" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q276">
         <v>3.75</v>
@@ -58574,7 +58589,7 @@
         <v>281</v>
       </c>
       <c r="P277" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -58986,7 +59001,7 @@
         <v>282</v>
       </c>
       <c r="P279" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q279">
         <v>3.5</v>
@@ -59192,7 +59207,7 @@
         <v>283</v>
       </c>
       <c r="P280" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q280">
         <v>4</v>
@@ -59604,7 +59619,7 @@
         <v>284</v>
       </c>
       <c r="P282" t="s">
-        <v>429</v>
+        <v>287</v>
       </c>
       <c r="Q282">
         <v>3.34</v>
@@ -59761,6 +59776,830 @@
       </c>
       <c r="BP282">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6680969</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45417.30208333334</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>71</v>
+      </c>
+      <c r="H283" t="s">
+        <v>85</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>2</v>
+      </c>
+      <c r="K283">
+        <v>4</v>
+      </c>
+      <c r="L283">
+        <v>4</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>6</v>
+      </c>
+      <c r="O283" t="s">
+        <v>285</v>
+      </c>
+      <c r="P283" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q283">
+        <v>1.44</v>
+      </c>
+      <c r="R283">
+        <v>3.4</v>
+      </c>
+      <c r="S283">
+        <v>12</v>
+      </c>
+      <c r="T283">
+        <v>1.18</v>
+      </c>
+      <c r="U283">
+        <v>4.5</v>
+      </c>
+      <c r="V283">
+        <v>1.83</v>
+      </c>
+      <c r="W283">
+        <v>1.83</v>
+      </c>
+      <c r="X283">
+        <v>3.75</v>
+      </c>
+      <c r="Y283">
+        <v>1.25</v>
+      </c>
+      <c r="Z283">
+        <v>1.12</v>
+      </c>
+      <c r="AA283">
+        <v>9.5</v>
+      </c>
+      <c r="AB283">
+        <v>14.95</v>
+      </c>
+      <c r="AC283">
+        <v>1.01</v>
+      </c>
+      <c r="AD283">
+        <v>35.5</v>
+      </c>
+      <c r="AE283">
+        <v>1.08</v>
+      </c>
+      <c r="AF283">
+        <v>6.5</v>
+      </c>
+      <c r="AG283">
+        <v>1.31</v>
+      </c>
+      <c r="AH283">
+        <v>3.27</v>
+      </c>
+      <c r="AI283">
+        <v>2</v>
+      </c>
+      <c r="AJ283">
+        <v>1.75</v>
+      </c>
+      <c r="AK283">
+        <v>1.01</v>
+      </c>
+      <c r="AL283">
+        <v>1.06</v>
+      </c>
+      <c r="AM283">
+        <v>6</v>
+      </c>
+      <c r="AN283">
+        <v>2.87</v>
+      </c>
+      <c r="AO283">
+        <v>1.53</v>
+      </c>
+      <c r="AP283">
+        <v>2.88</v>
+      </c>
+      <c r="AQ283">
+        <v>1.44</v>
+      </c>
+      <c r="AR283">
+        <v>2.6</v>
+      </c>
+      <c r="AS283">
+        <v>1.31</v>
+      </c>
+      <c r="AT283">
+        <v>3.91</v>
+      </c>
+      <c r="AU283">
+        <v>4</v>
+      </c>
+      <c r="AV283">
+        <v>2</v>
+      </c>
+      <c r="AW283">
+        <v>3</v>
+      </c>
+      <c r="AX283">
+        <v>2</v>
+      </c>
+      <c r="AY283">
+        <v>7</v>
+      </c>
+      <c r="AZ283">
+        <v>4</v>
+      </c>
+      <c r="BA283">
+        <v>3</v>
+      </c>
+      <c r="BB283">
+        <v>4</v>
+      </c>
+      <c r="BC283">
+        <v>7</v>
+      </c>
+      <c r="BD283">
+        <v>1.08</v>
+      </c>
+      <c r="BE283">
+        <v>16</v>
+      </c>
+      <c r="BF283">
+        <v>10.2</v>
+      </c>
+      <c r="BG283">
+        <v>1.16</v>
+      </c>
+      <c r="BH283">
+        <v>4.3</v>
+      </c>
+      <c r="BI283">
+        <v>1.33</v>
+      </c>
+      <c r="BJ283">
+        <v>2.93</v>
+      </c>
+      <c r="BK283">
+        <v>1.6</v>
+      </c>
+      <c r="BL283">
+        <v>2.19</v>
+      </c>
+      <c r="BM283">
+        <v>2.01</v>
+      </c>
+      <c r="BN283">
+        <v>1.75</v>
+      </c>
+      <c r="BO283">
+        <v>2.58</v>
+      </c>
+      <c r="BP283">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6680971</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45417.30208333334</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>79</v>
+      </c>
+      <c r="H284" t="s">
+        <v>87</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284">
+        <v>2</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>5</v>
+      </c>
+      <c r="N284">
+        <v>5</v>
+      </c>
+      <c r="O284" t="s">
+        <v>94</v>
+      </c>
+      <c r="P284" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q284">
+        <v>2.75</v>
+      </c>
+      <c r="R284">
+        <v>2.38</v>
+      </c>
+      <c r="S284">
+        <v>3.25</v>
+      </c>
+      <c r="T284">
+        <v>1.29</v>
+      </c>
+      <c r="U284">
+        <v>3.5</v>
+      </c>
+      <c r="V284">
+        <v>2.38</v>
+      </c>
+      <c r="W284">
+        <v>1.53</v>
+      </c>
+      <c r="X284">
+        <v>5.5</v>
+      </c>
+      <c r="Y284">
+        <v>1.14</v>
+      </c>
+      <c r="Z284">
+        <v>2.27</v>
+      </c>
+      <c r="AA284">
+        <v>3.6</v>
+      </c>
+      <c r="AB284">
+        <v>2.88</v>
+      </c>
+      <c r="AC284">
+        <v>1.01</v>
+      </c>
+      <c r="AD284">
+        <v>12</v>
+      </c>
+      <c r="AE284">
+        <v>1.18</v>
+      </c>
+      <c r="AF284">
+        <v>4.33</v>
+      </c>
+      <c r="AG284">
+        <v>1.6</v>
+      </c>
+      <c r="AH284">
+        <v>2.25</v>
+      </c>
+      <c r="AI284">
+        <v>1.5</v>
+      </c>
+      <c r="AJ284">
+        <v>2.5</v>
+      </c>
+      <c r="AK284">
+        <v>1.35</v>
+      </c>
+      <c r="AL284">
+        <v>1.27</v>
+      </c>
+      <c r="AM284">
+        <v>1.62</v>
+      </c>
+      <c r="AN284">
+        <v>1.4</v>
+      </c>
+      <c r="AO284">
+        <v>0.53</v>
+      </c>
+      <c r="AP284">
+        <v>1.31</v>
+      </c>
+      <c r="AQ284">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR284">
+        <v>1.45</v>
+      </c>
+      <c r="AS284">
+        <v>1.35</v>
+      </c>
+      <c r="AT284">
+        <v>2.8</v>
+      </c>
+      <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
+        <v>6</v>
+      </c>
+      <c r="AW284">
+        <v>8</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>14</v>
+      </c>
+      <c r="AZ284">
+        <v>10</v>
+      </c>
+      <c r="BA284">
+        <v>4</v>
+      </c>
+      <c r="BB284">
+        <v>9</v>
+      </c>
+      <c r="BC284">
+        <v>13</v>
+      </c>
+      <c r="BD284">
+        <v>1.64</v>
+      </c>
+      <c r="BE284">
+        <v>8.5</v>
+      </c>
+      <c r="BF284">
+        <v>2.66</v>
+      </c>
+      <c r="BG284">
+        <v>1.12</v>
+      </c>
+      <c r="BH284">
+        <v>5</v>
+      </c>
+      <c r="BI284">
+        <v>1.26</v>
+      </c>
+      <c r="BJ284">
+        <v>3.34</v>
+      </c>
+      <c r="BK284">
+        <v>1.56</v>
+      </c>
+      <c r="BL284">
+        <v>2.38</v>
+      </c>
+      <c r="BM284">
+        <v>1.9</v>
+      </c>
+      <c r="BN284">
+        <v>1.9</v>
+      </c>
+      <c r="BO284">
+        <v>2.23</v>
+      </c>
+      <c r="BP284">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6680970</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45417.39583333334</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>84</v>
+      </c>
+      <c r="H285" t="s">
+        <v>81</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
+        <v>286</v>
+      </c>
+      <c r="P285" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q285">
+        <v>1.88</v>
+      </c>
+      <c r="R285">
+        <v>2.67</v>
+      </c>
+      <c r="S285">
+        <v>7.05</v>
+      </c>
+      <c r="T285">
+        <v>1.28</v>
+      </c>
+      <c r="U285">
+        <v>3.44</v>
+      </c>
+      <c r="V285">
+        <v>2.44</v>
+      </c>
+      <c r="W285">
+        <v>1.58</v>
+      </c>
+      <c r="X285">
+        <v>5.35</v>
+      </c>
+      <c r="Y285">
+        <v>1.13</v>
+      </c>
+      <c r="Z285">
+        <v>1.33</v>
+      </c>
+      <c r="AA285">
+        <v>5.25</v>
+      </c>
+      <c r="AB285">
+        <v>8.15</v>
+      </c>
+      <c r="AC285">
+        <v>1.03</v>
+      </c>
+      <c r="AD285">
+        <v>11</v>
+      </c>
+      <c r="AE285">
+        <v>1.16</v>
+      </c>
+      <c r="AF285">
+        <v>4.4</v>
+      </c>
+      <c r="AG285">
+        <v>1.45</v>
+      </c>
+      <c r="AH285">
+        <v>2.63</v>
+      </c>
+      <c r="AI285">
+        <v>1.82</v>
+      </c>
+      <c r="AJ285">
+        <v>1.92</v>
+      </c>
+      <c r="AK285">
+        <v>1.09</v>
+      </c>
+      <c r="AL285">
+        <v>1.18</v>
+      </c>
+      <c r="AM285">
+        <v>2.95</v>
+      </c>
+      <c r="AN285">
+        <v>1.73</v>
+      </c>
+      <c r="AO285">
+        <v>0.6</v>
+      </c>
+      <c r="AP285">
+        <v>1.81</v>
+      </c>
+      <c r="AQ285">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR285">
+        <v>1.61</v>
+      </c>
+      <c r="AS285">
+        <v>1.15</v>
+      </c>
+      <c r="AT285">
+        <v>2.76</v>
+      </c>
+      <c r="AU285">
+        <v>5</v>
+      </c>
+      <c r="AV285">
+        <v>6</v>
+      </c>
+      <c r="AW285">
+        <v>6</v>
+      </c>
+      <c r="AX285">
+        <v>5</v>
+      </c>
+      <c r="AY285">
+        <v>11</v>
+      </c>
+      <c r="AZ285">
+        <v>11</v>
+      </c>
+      <c r="BA285">
+        <v>4</v>
+      </c>
+      <c r="BB285">
+        <v>7</v>
+      </c>
+      <c r="BC285">
+        <v>11</v>
+      </c>
+      <c r="BD285">
+        <v>1.3</v>
+      </c>
+      <c r="BE285">
+        <v>10</v>
+      </c>
+      <c r="BF285">
+        <v>4.42</v>
+      </c>
+      <c r="BG285">
+        <v>1.2</v>
+      </c>
+      <c r="BH285">
+        <v>4.2</v>
+      </c>
+      <c r="BI285">
+        <v>1.32</v>
+      </c>
+      <c r="BJ285">
+        <v>2.9</v>
+      </c>
+      <c r="BK285">
+        <v>1.58</v>
+      </c>
+      <c r="BL285">
+        <v>2.36</v>
+      </c>
+      <c r="BM285">
+        <v>1.92</v>
+      </c>
+      <c r="BN285">
+        <v>1.88</v>
+      </c>
+      <c r="BO285">
+        <v>2.43</v>
+      </c>
+      <c r="BP285">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6680972</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45417.39583333334</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>70</v>
+      </c>
+      <c r="H286" t="s">
+        <v>73</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>4</v>
+      </c>
+      <c r="N286">
+        <v>5</v>
+      </c>
+      <c r="O286" t="s">
+        <v>287</v>
+      </c>
+      <c r="P286" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q286">
+        <v>6</v>
+      </c>
+      <c r="R286">
+        <v>3</v>
+      </c>
+      <c r="S286">
+        <v>1.73</v>
+      </c>
+      <c r="T286">
+        <v>1.17</v>
+      </c>
+      <c r="U286">
+        <v>5</v>
+      </c>
+      <c r="V286">
+        <v>1.8</v>
+      </c>
+      <c r="W286">
+        <v>1.91</v>
+      </c>
+      <c r="X286">
+        <v>3.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.29</v>
+      </c>
+      <c r="Z286">
+        <v>6.46</v>
+      </c>
+      <c r="AA286">
+        <v>6.1</v>
+      </c>
+      <c r="AB286">
+        <v>1.34</v>
+      </c>
+      <c r="AC286">
+        <v>1.01</v>
+      </c>
+      <c r="AD286">
+        <v>41.5</v>
+      </c>
+      <c r="AE286">
+        <v>1.04</v>
+      </c>
+      <c r="AF286">
+        <v>7.5</v>
+      </c>
+      <c r="AG286">
+        <v>1.29</v>
+      </c>
+      <c r="AH286">
+        <v>3.4</v>
+      </c>
+      <c r="AI286">
+        <v>1.5</v>
+      </c>
+      <c r="AJ286">
+        <v>2.5</v>
+      </c>
+      <c r="AK286">
+        <v>3.38</v>
+      </c>
+      <c r="AL286">
+        <v>1.13</v>
+      </c>
+      <c r="AM286">
+        <v>1.08</v>
+      </c>
+      <c r="AN286">
+        <v>0.73</v>
+      </c>
+      <c r="AO286">
+        <v>1.27</v>
+      </c>
+      <c r="AP286">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ286">
+        <v>1.38</v>
+      </c>
+      <c r="AR286">
+        <v>1.31</v>
+      </c>
+      <c r="AS286">
+        <v>1.65</v>
+      </c>
+      <c r="AT286">
+        <v>2.96</v>
+      </c>
+      <c r="AU286">
+        <v>3</v>
+      </c>
+      <c r="AV286">
+        <v>9</v>
+      </c>
+      <c r="AW286">
+        <v>2</v>
+      </c>
+      <c r="AX286">
+        <v>4</v>
+      </c>
+      <c r="AY286">
+        <v>5</v>
+      </c>
+      <c r="AZ286">
+        <v>13</v>
+      </c>
+      <c r="BA286">
+        <v>1</v>
+      </c>
+      <c r="BB286">
+        <v>3</v>
+      </c>
+      <c r="BC286">
+        <v>4</v>
+      </c>
+      <c r="BD286">
+        <v>4.42</v>
+      </c>
+      <c r="BE286">
+        <v>10</v>
+      </c>
+      <c r="BF286">
+        <v>1.3</v>
+      </c>
+      <c r="BG286">
+        <v>1.25</v>
+      </c>
+      <c r="BH286">
+        <v>3.6</v>
+      </c>
+      <c r="BI286">
+        <v>1.33</v>
+      </c>
+      <c r="BJ286">
+        <v>2.85</v>
+      </c>
+      <c r="BK286">
+        <v>1.61</v>
+      </c>
+      <c r="BL286">
+        <v>2.31</v>
+      </c>
+      <c r="BM286">
+        <v>2</v>
+      </c>
+      <c r="BN286">
+        <v>1.73</v>
+      </c>
+      <c r="BO286">
+        <v>2.39</v>
+      </c>
+      <c r="BP286">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="438">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,12 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['46', '66']</t>
+  </si>
+  <si>
+    <t>['33', '41', '67', '80', '82']</t>
+  </si>
+  <si>
     <t>['60', '86']</t>
   </si>
   <si>
@@ -1320,6 +1326,9 @@
   <si>
     <t>['25', '59', '70', '77']</t>
   </si>
+  <si>
+    <t>['5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1680,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1939,7 +1948,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -2351,7 +2360,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q4">
         <v>2.25</v>
@@ -2557,7 +2566,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q5">
         <v>1.5</v>
@@ -2763,7 +2772,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2969,7 +2978,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -3253,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ8">
         <v>0.63</v>
@@ -3381,7 +3390,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q9">
         <v>1.83</v>
@@ -3459,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3587,7 +3596,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3668,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3999,7 +4008,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4205,7 +4214,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4411,7 +4420,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4823,7 +4832,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -5029,7 +5038,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -5235,7 +5244,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q18">
         <v>1.83</v>
@@ -5316,7 +5325,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5441,7 +5450,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5853,7 +5862,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -6343,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ23">
         <v>1.13</v>
@@ -6471,7 +6480,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6677,7 +6686,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6883,7 +6892,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -6964,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -7089,7 +7098,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7295,7 +7304,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q28">
         <v>6.5</v>
@@ -7707,7 +7716,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -8119,7 +8128,7 @@
         <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8200,7 +8209,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -8325,7 +8334,7 @@
         <v>94</v>
       </c>
       <c r="P33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8609,7 +8618,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8737,7 +8746,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -9149,7 +9158,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9355,7 +9364,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9561,7 +9570,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9767,7 +9776,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -10257,7 +10266,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ42">
         <v>1.44</v>
@@ -10591,7 +10600,7 @@
         <v>122</v>
       </c>
       <c r="P44" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -11003,7 +11012,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -11209,7 +11218,7 @@
         <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -11702,7 +11711,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ49">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>0.99</v>
@@ -11827,7 +11836,7 @@
         <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q50">
         <v>4.75</v>
@@ -12033,7 +12042,7 @@
         <v>94</v>
       </c>
       <c r="P51" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12729,7 +12738,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ54">
         <v>0.6899999999999999</v>
@@ -12857,7 +12866,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q55">
         <v>1.53</v>
@@ -12935,7 +12944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -13063,7 +13072,7 @@
         <v>94</v>
       </c>
       <c r="P56" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -13681,7 +13690,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13887,7 +13896,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -14174,7 +14183,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR61">
         <v>1.55</v>
@@ -14377,7 +14386,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ62">
         <v>0.63</v>
@@ -14711,7 +14720,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -15535,7 +15544,7 @@
         <v>94</v>
       </c>
       <c r="P68" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -15741,7 +15750,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15822,7 +15831,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>2.08</v>
@@ -15947,7 +15956,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16153,7 +16162,7 @@
         <v>94</v>
       </c>
       <c r="P71" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16359,7 +16368,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q72">
         <v>1.44</v>
@@ -16771,7 +16780,7 @@
         <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17055,7 +17064,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17261,7 +17270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ76">
         <v>0.5600000000000001</v>
@@ -17389,7 +17398,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17595,7 +17604,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17676,7 +17685,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ78">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR78">
         <v>1.56</v>
@@ -17801,7 +17810,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17882,7 +17891,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -18294,7 +18303,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR81">
         <v>1.28</v>
@@ -19243,7 +19252,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19449,7 +19458,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19655,7 +19664,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -20067,7 +20076,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q90">
         <v>7.5</v>
@@ -20479,7 +20488,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q92">
         <v>9</v>
@@ -20891,7 +20900,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -20972,7 +20981,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ94">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21097,7 +21106,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21509,7 +21518,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q97">
         <v>2.3</v>
@@ -22127,7 +22136,7 @@
         <v>94</v>
       </c>
       <c r="P100" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22333,7 +22342,7 @@
         <v>163</v>
       </c>
       <c r="P101" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q101">
         <v>1.8</v>
@@ -22539,7 +22548,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22826,7 +22835,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
         <v>2.63</v>
@@ -22951,7 +22960,7 @@
         <v>128</v>
       </c>
       <c r="P104" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q104">
         <v>3.6</v>
@@ -23157,7 +23166,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23441,7 +23450,7 @@
         <v>2.6</v>
       </c>
       <c r="AP106">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ106">
         <v>1.63</v>
@@ -23569,7 +23578,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q107">
         <v>2.38</v>
@@ -23775,7 +23784,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -24187,7 +24196,7 @@
         <v>94</v>
       </c>
       <c r="P110" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24393,7 +24402,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q111">
         <v>2.3</v>
@@ -24805,7 +24814,7 @@
         <v>94</v>
       </c>
       <c r="P113" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -25089,7 +25098,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ114">
         <v>0.5</v>
@@ -25423,7 +25432,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25835,7 +25844,7 @@
         <v>94</v>
       </c>
       <c r="P118" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25916,7 +25925,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR118">
         <v>1.59</v>
@@ -26247,7 +26256,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26659,7 +26668,7 @@
         <v>110</v>
       </c>
       <c r="P122" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26737,7 +26746,7 @@
         <v>3</v>
       </c>
       <c r="AP122">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ122">
         <v>2.56</v>
@@ -26865,7 +26874,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -27071,7 +27080,7 @@
         <v>109</v>
       </c>
       <c r="P124" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27152,7 +27161,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ124">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR124">
         <v>2.09</v>
@@ -27277,7 +27286,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27483,7 +27492,7 @@
         <v>136</v>
       </c>
       <c r="P126" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27561,7 +27570,7 @@
         <v>0.6</v>
       </c>
       <c r="AP126">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ126">
         <v>1.27</v>
@@ -27689,7 +27698,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -28101,7 +28110,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q129">
         <v>1.33</v>
@@ -28179,7 +28188,7 @@
         <v>0.14</v>
       </c>
       <c r="AP129">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ129">
         <v>0.5</v>
@@ -28307,7 +28316,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28719,7 +28728,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28925,7 +28934,7 @@
         <v>186</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>1.62</v>
@@ -29003,7 +29012,7 @@
         <v>1.14</v>
       </c>
       <c r="AP133">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ133">
         <v>1.13</v>
@@ -29131,7 +29140,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -30367,7 +30376,7 @@
         <v>131</v>
       </c>
       <c r="P140" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30779,7 +30788,7 @@
         <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30860,7 +30869,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ142">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -30985,7 +30994,7 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q143">
         <v>8.5</v>
@@ -31191,7 +31200,7 @@
         <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31272,7 +31281,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ144">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR144">
         <v>2.02</v>
@@ -31397,7 +31406,7 @@
         <v>94</v>
       </c>
       <c r="P145" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31475,7 +31484,7 @@
         <v>3</v>
       </c>
       <c r="AP145">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ145">
         <v>2.56</v>
@@ -31603,7 +31612,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31809,7 +31818,7 @@
         <v>94</v>
       </c>
       <c r="P147" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -32221,7 +32230,7 @@
         <v>197</v>
       </c>
       <c r="P149" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32633,7 +32642,7 @@
         <v>94</v>
       </c>
       <c r="P151" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32839,7 +32848,7 @@
         <v>199</v>
       </c>
       <c r="P152" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -33251,7 +33260,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q154">
         <v>1.5</v>
@@ -33329,7 +33338,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ154">
         <v>1.27</v>
@@ -33744,7 +33753,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ156">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR156">
         <v>1.45</v>
@@ -33869,7 +33878,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q157">
         <v>2.2</v>
@@ -34075,7 +34084,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q158">
         <v>1.8</v>
@@ -34153,10 +34162,10 @@
         <v>1.38</v>
       </c>
       <c r="AP158">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ158">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -34281,7 +34290,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q159">
         <v>6.5</v>
@@ -34487,7 +34496,7 @@
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -34693,7 +34702,7 @@
         <v>94</v>
       </c>
       <c r="P161" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34899,7 +34908,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q162">
         <v>1.67</v>
@@ -35929,7 +35938,7 @@
         <v>131</v>
       </c>
       <c r="P167" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -36135,7 +36144,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q168">
         <v>5.5</v>
@@ -36341,7 +36350,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q169">
         <v>3.75</v>
@@ -36625,10 +36634,10 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ170">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR170">
         <v>2.34</v>
@@ -36753,7 +36762,7 @@
         <v>210</v>
       </c>
       <c r="P171" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -37577,7 +37586,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37783,7 +37792,7 @@
         <v>99</v>
       </c>
       <c r="P176" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q176">
         <v>3.5</v>
@@ -38195,7 +38204,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38479,7 +38488,7 @@
         <v>2.44</v>
       </c>
       <c r="AP179">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ179">
         <v>2.44</v>
@@ -38607,7 +38616,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q180">
         <v>1.83</v>
@@ -38813,7 +38822,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38894,7 +38903,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ181">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
         <v>1.59</v>
@@ -39225,7 +39234,7 @@
         <v>94</v>
       </c>
       <c r="P183" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39306,7 +39315,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ183">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR183">
         <v>1.44</v>
@@ -39637,7 +39646,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39843,7 +39852,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q186">
         <v>2.3</v>
@@ -39924,7 +39933,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ186">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR186">
         <v>2.12</v>
@@ -40255,7 +40264,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q188">
         <v>4.33</v>
@@ -40461,7 +40470,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q189">
         <v>15</v>
@@ -40745,7 +40754,7 @@
         <v>1.7</v>
       </c>
       <c r="AP190">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ190">
         <v>1.44</v>
@@ -41079,7 +41088,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q192">
         <v>2.38</v>
@@ -41285,7 +41294,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41491,7 +41500,7 @@
         <v>94</v>
       </c>
       <c r="P194" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q194">
         <v>2.6</v>
@@ -42109,7 +42118,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q197">
         <v>1.83</v>
@@ -42599,7 +42608,7 @@
         <v>0.7</v>
       </c>
       <c r="AP199">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ199">
         <v>0.6899999999999999</v>
@@ -43139,7 +43148,7 @@
         <v>104</v>
       </c>
       <c r="P202" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q202">
         <v>7.5</v>
@@ -43551,7 +43560,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q204">
         <v>2.75</v>
@@ -43963,7 +43972,7 @@
         <v>94</v>
       </c>
       <c r="P206" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -44247,7 +44256,7 @@
         <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ207">
         <v>1.38</v>
@@ -44375,7 +44384,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44581,7 +44590,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44993,7 +45002,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q211">
         <v>6.13</v>
@@ -45074,7 +45083,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ211">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR211">
         <v>1.48</v>
@@ -45692,7 +45701,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ214">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR214">
         <v>1.74</v>
@@ -45817,7 +45826,7 @@
         <v>238</v>
       </c>
       <c r="P215" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -46023,7 +46032,7 @@
         <v>239</v>
       </c>
       <c r="P216" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46229,7 +46238,7 @@
         <v>240</v>
       </c>
       <c r="P217" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q217">
         <v>3.1</v>
@@ -46847,7 +46856,7 @@
         <v>242</v>
       </c>
       <c r="P220" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q220">
         <v>4.2</v>
@@ -47053,7 +47062,7 @@
         <v>243</v>
       </c>
       <c r="P221" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q221">
         <v>2.81</v>
@@ -47337,7 +47346,7 @@
         <v>0.75</v>
       </c>
       <c r="AP222">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ222">
         <v>0.63</v>
@@ -47465,7 +47474,7 @@
         <v>245</v>
       </c>
       <c r="P223" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q223">
         <v>2.05</v>
@@ -47671,7 +47680,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q224">
         <v>1.95</v>
@@ -48161,7 +48170,7 @@
         <v>0.67</v>
       </c>
       <c r="AP226">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ226">
         <v>0.6899999999999999</v>
@@ -48495,7 +48504,7 @@
         <v>250</v>
       </c>
       <c r="P228" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q228">
         <v>2.4</v>
@@ -48576,7 +48585,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ228">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR228">
         <v>1.73</v>
@@ -49113,7 +49122,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q231">
         <v>8.5</v>
@@ -49525,7 +49534,7 @@
         <v>251</v>
       </c>
       <c r="P233" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -49731,7 +49740,7 @@
         <v>252</v>
       </c>
       <c r="P234" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -50018,7 +50027,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ235">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR235">
         <v>2.66</v>
@@ -50143,7 +50152,7 @@
         <v>253</v>
       </c>
       <c r="P236" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q236">
         <v>5.5</v>
@@ -51045,7 +51054,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP240">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ240">
         <v>0.5600000000000001</v>
@@ -51173,7 +51182,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q241">
         <v>4.33</v>
@@ -51379,7 +51388,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q242">
         <v>1.73</v>
@@ -51457,7 +51466,7 @@
         <v>1.23</v>
       </c>
       <c r="AP242">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ242">
         <v>1.25</v>
@@ -51791,7 +51800,7 @@
         <v>109</v>
       </c>
       <c r="P244" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q244">
         <v>2</v>
@@ -51997,7 +52006,7 @@
         <v>259</v>
       </c>
       <c r="P245" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52203,7 +52212,7 @@
         <v>94</v>
       </c>
       <c r="P246" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q246">
         <v>12</v>
@@ -52409,7 +52418,7 @@
         <v>185</v>
       </c>
       <c r="P247" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52821,7 +52830,7 @@
         <v>261</v>
       </c>
       <c r="P249" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52902,7 +52911,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ249">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR249">
         <v>1.59</v>
@@ -53027,7 +53036,7 @@
         <v>262</v>
       </c>
       <c r="P250" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -53108,7 +53117,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ250">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR250">
         <v>1.68</v>
@@ -53851,7 +53860,7 @@
         <v>263</v>
       </c>
       <c r="P254" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q254">
         <v>2.3</v>
@@ -54057,7 +54066,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q255">
         <v>1.83</v>
@@ -54263,7 +54272,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q256">
         <v>2.75</v>
@@ -54675,7 +54684,7 @@
         <v>94</v>
       </c>
       <c r="P258" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -55165,7 +55174,7 @@
         <v>1.36</v>
       </c>
       <c r="AP260">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ260">
         <v>1.38</v>
@@ -55293,7 +55302,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55499,7 +55508,7 @@
         <v>270</v>
       </c>
       <c r="P262" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q262">
         <v>2.7</v>
@@ -56117,7 +56126,7 @@
         <v>273</v>
       </c>
       <c r="P265" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q265">
         <v>1.74</v>
@@ -56195,7 +56204,7 @@
         <v>0.57</v>
       </c>
       <c r="AP265">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ265">
         <v>0.6899999999999999</v>
@@ -56323,7 +56332,7 @@
         <v>274</v>
       </c>
       <c r="P266" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q266">
         <v>3.1</v>
@@ -56529,7 +56538,7 @@
         <v>94</v>
       </c>
       <c r="P267" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q267">
         <v>3.25</v>
@@ -57147,7 +57156,7 @@
         <v>276</v>
       </c>
       <c r="P270" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q270">
         <v>3.1</v>
@@ -57228,7 +57237,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ270">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR270">
         <v>1.87</v>
@@ -57353,7 +57362,7 @@
         <v>277</v>
       </c>
       <c r="P271" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q271">
         <v>2.05</v>
@@ -57434,7 +57443,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ271">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR271">
         <v>1.62</v>
@@ -57765,7 +57774,7 @@
         <v>279</v>
       </c>
       <c r="P273" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q273">
         <v>1.73</v>
@@ -57971,7 +57980,7 @@
         <v>94</v>
       </c>
       <c r="P274" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q274">
         <v>6.5</v>
@@ -58177,7 +58186,7 @@
         <v>280</v>
       </c>
       <c r="P275" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58383,7 +58392,7 @@
         <v>94</v>
       </c>
       <c r="P276" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q276">
         <v>3.75</v>
@@ -58589,7 +58598,7 @@
         <v>281</v>
       </c>
       <c r="P277" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -59001,7 +59010,7 @@
         <v>282</v>
       </c>
       <c r="P279" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q279">
         <v>3.5</v>
@@ -59207,7 +59216,7 @@
         <v>283</v>
       </c>
       <c r="P280" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q280">
         <v>4</v>
@@ -59825,7 +59834,7 @@
         <v>285</v>
       </c>
       <c r="P283" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q283">
         <v>1.44</v>
@@ -59918,22 +59927,22 @@
         <v>3.91</v>
       </c>
       <c r="AU283">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV283">
         <v>2</v>
       </c>
       <c r="AW283">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY283">
+        <v>13</v>
+      </c>
+      <c r="AZ283">
         <v>7</v>
-      </c>
-      <c r="AZ283">
-        <v>4</v>
       </c>
       <c r="BA283">
         <v>3</v>
@@ -60031,7 +60040,7 @@
         <v>94</v>
       </c>
       <c r="P284" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q284">
         <v>2.75</v>
@@ -60127,19 +60136,19 @@
         <v>6</v>
       </c>
       <c r="AV284">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW284">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX284">
         <v>4</v>
       </c>
       <c r="AY284">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ284">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA284">
         <v>4</v>
@@ -60330,7 +60339,7 @@
         <v>2.76</v>
       </c>
       <c r="AU285">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV285">
         <v>6</v>
@@ -60342,7 +60351,7 @@
         <v>5</v>
       </c>
       <c r="AY285">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ285">
         <v>11</v>
@@ -60443,7 +60452,7 @@
         <v>287</v>
       </c>
       <c r="P286" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q286">
         <v>6</v>
@@ -60539,19 +60548,19 @@
         <v>3</v>
       </c>
       <c r="AV286">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX286">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY286">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ286">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA286">
         <v>1</v>
@@ -60600,6 +60609,418 @@
       </c>
       <c r="BP286">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6680968</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45417.48958333334</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>77</v>
+      </c>
+      <c r="H287" t="s">
+        <v>86</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>288</v>
+      </c>
+      <c r="P287" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q287">
+        <v>3</v>
+      </c>
+      <c r="R287">
+        <v>2.2</v>
+      </c>
+      <c r="S287">
+        <v>3.6</v>
+      </c>
+      <c r="T287">
+        <v>1.4</v>
+      </c>
+      <c r="U287">
+        <v>2.75</v>
+      </c>
+      <c r="V287">
+        <v>2.75</v>
+      </c>
+      <c r="W287">
+        <v>1.4</v>
+      </c>
+      <c r="X287">
+        <v>8</v>
+      </c>
+      <c r="Y287">
+        <v>1.08</v>
+      </c>
+      <c r="Z287">
+        <v>2.2</v>
+      </c>
+      <c r="AA287">
+        <v>3.4</v>
+      </c>
+      <c r="AB287">
+        <v>3.16</v>
+      </c>
+      <c r="AC287">
+        <v>1.01</v>
+      </c>
+      <c r="AD287">
+        <v>9.4</v>
+      </c>
+      <c r="AE287">
+        <v>1.25</v>
+      </c>
+      <c r="AF287">
+        <v>3.42</v>
+      </c>
+      <c r="AG287">
+        <v>1.85</v>
+      </c>
+      <c r="AH287">
+        <v>1.89</v>
+      </c>
+      <c r="AI287">
+        <v>1.7</v>
+      </c>
+      <c r="AJ287">
+        <v>2.05</v>
+      </c>
+      <c r="AK287">
+        <v>1.39</v>
+      </c>
+      <c r="AL287">
+        <v>1.31</v>
+      </c>
+      <c r="AM287">
+        <v>1.62</v>
+      </c>
+      <c r="AN287">
+        <v>2.13</v>
+      </c>
+      <c r="AO287">
+        <v>1.53</v>
+      </c>
+      <c r="AP287">
+        <v>2.19</v>
+      </c>
+      <c r="AQ287">
+        <v>1.44</v>
+      </c>
+      <c r="AR287">
+        <v>1.73</v>
+      </c>
+      <c r="AS287">
+        <v>1.39</v>
+      </c>
+      <c r="AT287">
+        <v>3.12</v>
+      </c>
+      <c r="AU287">
+        <v>5</v>
+      </c>
+      <c r="AV287">
+        <v>5</v>
+      </c>
+      <c r="AW287">
+        <v>5</v>
+      </c>
+      <c r="AX287">
+        <v>6</v>
+      </c>
+      <c r="AY287">
+        <v>10</v>
+      </c>
+      <c r="AZ287">
+        <v>11</v>
+      </c>
+      <c r="BA287">
+        <v>4</v>
+      </c>
+      <c r="BB287">
+        <v>11</v>
+      </c>
+      <c r="BC287">
+        <v>15</v>
+      </c>
+      <c r="BD287">
+        <v>1.82</v>
+      </c>
+      <c r="BE287">
+        <v>8</v>
+      </c>
+      <c r="BF287">
+        <v>2.33</v>
+      </c>
+      <c r="BG287">
+        <v>1.3</v>
+      </c>
+      <c r="BH287">
+        <v>3.35</v>
+      </c>
+      <c r="BI287">
+        <v>1.59</v>
+      </c>
+      <c r="BJ287">
+        <v>2.31</v>
+      </c>
+      <c r="BK287">
+        <v>1.85</v>
+      </c>
+      <c r="BL287">
+        <v>1.95</v>
+      </c>
+      <c r="BM287">
+        <v>2.46</v>
+      </c>
+      <c r="BN287">
+        <v>1.53</v>
+      </c>
+      <c r="BO287">
+        <v>2.95</v>
+      </c>
+      <c r="BP287">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6680974</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45417.625</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>76</v>
+      </c>
+      <c r="H288" t="s">
+        <v>74</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>5</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>5</v>
+      </c>
+      <c r="O288" t="s">
+        <v>289</v>
+      </c>
+      <c r="P288" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q288">
+        <v>1.4</v>
+      </c>
+      <c r="R288">
+        <v>3.4</v>
+      </c>
+      <c r="S288">
+        <v>15</v>
+      </c>
+      <c r="T288">
+        <v>1.18</v>
+      </c>
+      <c r="U288">
+        <v>4.5</v>
+      </c>
+      <c r="V288">
+        <v>1.83</v>
+      </c>
+      <c r="W288">
+        <v>1.83</v>
+      </c>
+      <c r="X288">
+        <v>4</v>
+      </c>
+      <c r="Y288">
+        <v>1.22</v>
+      </c>
+      <c r="Z288">
+        <v>1.08</v>
+      </c>
+      <c r="AA288">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB288">
+        <v>20</v>
+      </c>
+      <c r="AC288">
+        <v>1.01</v>
+      </c>
+      <c r="AD288">
+        <v>35</v>
+      </c>
+      <c r="AE288">
+        <v>1.09</v>
+      </c>
+      <c r="AF288">
+        <v>6</v>
+      </c>
+      <c r="AG288">
+        <v>1.36</v>
+      </c>
+      <c r="AH288">
+        <v>2.9</v>
+      </c>
+      <c r="AI288">
+        <v>2.25</v>
+      </c>
+      <c r="AJ288">
+        <v>1.57</v>
+      </c>
+      <c r="AK288">
+        <v>1.02</v>
+      </c>
+      <c r="AL288">
+        <v>1.04</v>
+      </c>
+      <c r="AM288">
+        <v>7.4</v>
+      </c>
+      <c r="AN288">
+        <v>2.4</v>
+      </c>
+      <c r="AO288">
+        <v>1.13</v>
+      </c>
+      <c r="AP288">
+        <v>2.44</v>
+      </c>
+      <c r="AQ288">
+        <v>1.06</v>
+      </c>
+      <c r="AR288">
+        <v>2.46</v>
+      </c>
+      <c r="AS288">
+        <v>1.2</v>
+      </c>
+      <c r="AT288">
+        <v>3.66</v>
+      </c>
+      <c r="AU288">
+        <v>11</v>
+      </c>
+      <c r="AV288">
+        <v>0</v>
+      </c>
+      <c r="AW288">
+        <v>5</v>
+      </c>
+      <c r="AX288">
+        <v>3</v>
+      </c>
+      <c r="AY288">
+        <v>16</v>
+      </c>
+      <c r="AZ288">
+        <v>3</v>
+      </c>
+      <c r="BA288">
+        <v>11</v>
+      </c>
+      <c r="BB288">
+        <v>0</v>
+      </c>
+      <c r="BC288">
+        <v>11</v>
+      </c>
+      <c r="BD288">
+        <v>1.05</v>
+      </c>
+      <c r="BE288">
+        <v>15</v>
+      </c>
+      <c r="BF288">
+        <v>12.4</v>
+      </c>
+      <c r="BG288">
+        <v>1.1</v>
+      </c>
+      <c r="BH288">
+        <v>5.3</v>
+      </c>
+      <c r="BI288">
+        <v>1.23</v>
+      </c>
+      <c r="BJ288">
+        <v>3.56</v>
+      </c>
+      <c r="BK288">
+        <v>1.44</v>
+      </c>
+      <c r="BL288">
+        <v>2.58</v>
+      </c>
+      <c r="BM288">
+        <v>1.73</v>
+      </c>
+      <c r="BN288">
+        <v>2</v>
+      </c>
+      <c r="BO288">
+        <v>2.23</v>
+      </c>
+      <c r="BP288">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="439">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1329,6 +1329,9 @@
   <si>
     <t>['5']</t>
   </si>
+  <si>
+    <t>['60', '64', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1689,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3883,7 +3886,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ11">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4086,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -5940,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.63</v>
@@ -6767,7 +6770,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -9033,7 +9036,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ36">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>2.15</v>
@@ -10060,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -13974,7 +13977,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.44</v>
@@ -14801,7 +14804,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.8</v>
@@ -17888,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -20360,7 +20363,7 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.63</v>
@@ -22423,7 +22426,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ101">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR101">
         <v>1.61</v>
@@ -23862,7 +23865,7 @@
         <v>2.17</v>
       </c>
       <c r="AP108">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>2.44</v>
@@ -27573,7 +27576,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ126">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR126">
         <v>1.81</v>
@@ -28809,7 +28812,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR132">
         <v>1.5</v>
@@ -30248,7 +30251,7 @@
         <v>0.86</v>
       </c>
       <c r="AP139">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -33341,7 +33344,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ154">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR154">
         <v>2.33</v>
@@ -33544,7 +33547,7 @@
         <v>0.78</v>
       </c>
       <c r="AP155">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
         <v>1</v>
@@ -36016,7 +36019,7 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
         <v>1.25</v>
@@ -36843,7 +36846,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ171">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR171">
         <v>2.16</v>
@@ -39109,7 +39112,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ182">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR182">
         <v>1.27</v>
@@ -39312,7 +39315,7 @@
         <v>1.6</v>
       </c>
       <c r="AP183">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ183">
         <v>1.44</v>
@@ -42199,7 +42202,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ197">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR197">
         <v>1.91</v>
@@ -43638,7 +43641,7 @@
         <v>0.55</v>
       </c>
       <c r="AP204">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ204">
         <v>0.5600000000000001</v>
@@ -44671,7 +44674,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ209">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR209">
         <v>1.33</v>
@@ -48788,7 +48791,7 @@
         <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ229">
         <v>0.6899999999999999</v>
@@ -49409,7 +49412,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ232">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR232">
         <v>1.61</v>
@@ -52290,7 +52293,7 @@
         <v>2.5</v>
       </c>
       <c r="AP246">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ246">
         <v>2.56</v>
@@ -52499,7 +52502,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ247">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR247">
         <v>1.8</v>
@@ -54765,7 +54768,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ258">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR258">
         <v>1.51</v>
@@ -55792,7 +55795,7 @@
         <v>0.57</v>
       </c>
       <c r="AP263">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ263">
         <v>0.5</v>
@@ -60957,7 +60960,7 @@
         <v>3.66</v>
       </c>
       <c r="AU288">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AV288">
         <v>0</v>
@@ -60966,13 +60969,13 @@
         <v>5</v>
       </c>
       <c r="AX288">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY288">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ288">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA288">
         <v>11</v>
@@ -61021,6 +61024,212 @@
       </c>
       <c r="BP288">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6680973</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45418.625</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>80</v>
+      </c>
+      <c r="H289" t="s">
+        <v>75</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289" t="s">
+        <v>94</v>
+      </c>
+      <c r="P289" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q289">
+        <v>3.25</v>
+      </c>
+      <c r="R289">
+        <v>2.4</v>
+      </c>
+      <c r="S289">
+        <v>2.75</v>
+      </c>
+      <c r="T289">
+        <v>1.29</v>
+      </c>
+      <c r="U289">
+        <v>3.5</v>
+      </c>
+      <c r="V289">
+        <v>2.25</v>
+      </c>
+      <c r="W289">
+        <v>1.57</v>
+      </c>
+      <c r="X289">
+        <v>5.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.14</v>
+      </c>
+      <c r="Z289">
+        <v>2.98</v>
+      </c>
+      <c r="AA289">
+        <v>3.7</v>
+      </c>
+      <c r="AB289">
+        <v>2.22</v>
+      </c>
+      <c r="AC289">
+        <v>1.02</v>
+      </c>
+      <c r="AD289">
+        <v>21</v>
+      </c>
+      <c r="AE289">
+        <v>1.15</v>
+      </c>
+      <c r="AF289">
+        <v>4.75</v>
+      </c>
+      <c r="AG289">
+        <v>1.4</v>
+      </c>
+      <c r="AH289">
+        <v>2.75</v>
+      </c>
+      <c r="AI289">
+        <v>1.44</v>
+      </c>
+      <c r="AJ289">
+        <v>2.63</v>
+      </c>
+      <c r="AK289">
+        <v>1.7</v>
+      </c>
+      <c r="AL289">
+        <v>1.25</v>
+      </c>
+      <c r="AM289">
+        <v>1.4</v>
+      </c>
+      <c r="AN289">
+        <v>1.07</v>
+      </c>
+      <c r="AO289">
+        <v>1.27</v>
+      </c>
+      <c r="AP289">
+        <v>1</v>
+      </c>
+      <c r="AQ289">
+        <v>1.38</v>
+      </c>
+      <c r="AR289">
+        <v>1.51</v>
+      </c>
+      <c r="AS289">
+        <v>1.35</v>
+      </c>
+      <c r="AT289">
+        <v>2.86</v>
+      </c>
+      <c r="AU289">
+        <v>2</v>
+      </c>
+      <c r="AV289">
+        <v>9</v>
+      </c>
+      <c r="AW289">
+        <v>5</v>
+      </c>
+      <c r="AX289">
+        <v>3</v>
+      </c>
+      <c r="AY289">
+        <v>7</v>
+      </c>
+      <c r="AZ289">
+        <v>12</v>
+      </c>
+      <c r="BA289">
+        <v>3</v>
+      </c>
+      <c r="BB289">
+        <v>6</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>2.11</v>
+      </c>
+      <c r="BE289">
+        <v>9.4</v>
+      </c>
+      <c r="BF289">
+        <v>1.95</v>
+      </c>
+      <c r="BG289">
+        <v>1.13</v>
+      </c>
+      <c r="BH289">
+        <v>4.75</v>
+      </c>
+      <c r="BI289">
+        <v>1.28</v>
+      </c>
+      <c r="BJ289">
+        <v>3.2</v>
+      </c>
+      <c r="BK289">
+        <v>1.52</v>
+      </c>
+      <c r="BL289">
+        <v>2.36</v>
+      </c>
+      <c r="BM289">
+        <v>1.89</v>
+      </c>
+      <c r="BN289">
+        <v>1.85</v>
+      </c>
+      <c r="BO289">
+        <v>2.41</v>
+      </c>
+      <c r="BP289">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="450">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -886,6 +886,27 @@
     <t>['33', '41', '67', '80', '82']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['29', '34', '38']</t>
+  </si>
+  <si>
+    <t>['45+3', '66', '67', '90+5']</t>
+  </si>
+  <si>
+    <t>['9', '23', '37', '40', '43', '69', '73']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['47', '80']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['60', '86']</t>
   </si>
   <si>
@@ -1138,9 +1159,6 @@
     <t>['45+1', '53']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['57', '86']</t>
   </si>
   <si>
@@ -1331,6 +1349,21 @@
   </si>
   <si>
     <t>['60', '64', '90']</t>
+  </si>
+  <si>
+    <t>['23', '58', '90+2']</t>
+  </si>
+  <si>
+    <t>['4', '21']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['39', '45+3', '77']</t>
+  </si>
+  <si>
+    <t>['45', '57', '87']</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1951,7 +1984,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -2032,7 +2065,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2363,7 +2396,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q4">
         <v>2.25</v>
@@ -2441,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ4">
         <v>0.6899999999999999</v>
@@ -2569,7 +2602,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q5">
         <v>1.5</v>
@@ -2647,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ5">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2775,7 +2808,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2856,7 +2889,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2981,7 +3014,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -3059,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ7">
         <v>0.63</v>
@@ -3393,7 +3426,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q9">
         <v>1.83</v>
@@ -3599,7 +3632,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4011,7 +4044,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4089,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -4217,7 +4250,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4298,7 +4331,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ13">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4423,7 +4456,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4501,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4707,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4835,7 +4868,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4913,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5041,7 +5074,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -5122,7 +5155,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5247,7 +5280,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q18">
         <v>1.83</v>
@@ -5325,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5453,7 +5486,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5534,7 +5567,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ19">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5737,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ20">
         <v>0.6899999999999999</v>
@@ -5865,7 +5898,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5943,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ21">
         <v>0.63</v>
@@ -6358,7 +6391,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>1.94</v>
@@ -6483,7 +6516,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6561,10 +6594,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR24">
         <v>2.11</v>
@@ -6689,7 +6722,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6895,7 +6928,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -7101,7 +7134,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7179,7 +7212,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7307,7 +7340,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q28">
         <v>6.5</v>
@@ -7388,7 +7421,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR28">
         <v>1.02</v>
@@ -7719,7 +7752,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7797,10 +7830,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -8003,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -8131,7 +8164,7 @@
         <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8337,7 +8370,7 @@
         <v>94</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8418,7 +8451,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ33">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR33">
         <v>1.1</v>
@@ -8749,7 +8782,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -9161,7 +9194,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9239,10 +9272,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR37">
         <v>1.7</v>
@@ -9367,7 +9400,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9573,7 +9606,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9779,7 +9812,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -9857,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ40">
         <v>1.38</v>
@@ -10063,10 +10096,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>1.3</v>
@@ -10272,7 +10305,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -10475,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
         <v>0.63</v>
@@ -10603,7 +10636,7 @@
         <v>122</v>
       </c>
       <c r="P44" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10684,7 +10717,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ44">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR44">
         <v>0.9399999999999999</v>
@@ -10887,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -11015,7 +11048,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -11096,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR46">
         <v>1.39</v>
@@ -11221,7 +11254,7 @@
         <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -11299,7 +11332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ47">
         <v>0.63</v>
@@ -11508,7 +11541,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>1.62</v>
@@ -11839,7 +11872,7 @@
         <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q50">
         <v>4.75</v>
@@ -11920,7 +11953,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ50">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>1.92</v>
@@ -12045,7 +12078,7 @@
         <v>94</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12123,10 +12156,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR51">
         <v>3.11</v>
@@ -12535,10 +12568,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ53">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR53">
         <v>1.77</v>
@@ -12744,7 +12777,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ54">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR54">
         <v>1.85</v>
@@ -12869,7 +12902,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q55">
         <v>1.53</v>
@@ -13075,7 +13108,7 @@
         <v>94</v>
       </c>
       <c r="P56" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -13153,10 +13186,10 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR56">
         <v>1.12</v>
@@ -13362,7 +13395,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR57">
         <v>2.41</v>
@@ -13565,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13693,7 +13726,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13771,10 +13804,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ59">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.54</v>
@@ -13899,7 +13932,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13977,10 +14010,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR60">
         <v>1.25</v>
@@ -14723,7 +14756,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14801,7 +14834,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ64">
         <v>1.38</v>
@@ -15213,10 +15246,10 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR66">
         <v>1.87</v>
@@ -15547,7 +15580,7 @@
         <v>94</v>
       </c>
       <c r="P68" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -15628,7 +15661,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ68">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -15753,7 +15786,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15831,7 +15864,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ69">
         <v>1.44</v>
@@ -15959,7 +15992,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16037,10 +16070,10 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ70">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
         <v>1.96</v>
@@ -16165,7 +16198,7 @@
         <v>94</v>
       </c>
       <c r="P71" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16246,7 +16279,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -16371,7 +16404,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q72">
         <v>1.44</v>
@@ -16658,7 +16691,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR73">
         <v>1.04</v>
@@ -16783,7 +16816,7 @@
         <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16861,10 +16894,10 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR74">
         <v>1.5</v>
@@ -17276,7 +17309,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ76">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR76">
         <v>2.61</v>
@@ -17401,7 +17434,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17479,7 +17512,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77">
         <v>1.38</v>
@@ -17607,7 +17640,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17813,7 +17846,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17891,7 +17924,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -18097,10 +18130,10 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR80">
         <v>2.03</v>
@@ -18509,10 +18542,10 @@
         <v>0.5</v>
       </c>
       <c r="AP82">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ82">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR82">
         <v>1.85</v>
@@ -19127,7 +19160,7 @@
         <v>0.6</v>
       </c>
       <c r="AP85">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ85">
         <v>1.25</v>
@@ -19255,7 +19288,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19333,10 +19366,10 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ86">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR86">
         <v>1.68</v>
@@ -19461,7 +19494,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19667,7 +19700,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19951,10 +19984,10 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR89">
         <v>1.57</v>
@@ -20079,7 +20112,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q90">
         <v>7.5</v>
@@ -20160,7 +20193,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ90">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -20363,10 +20396,10 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ91">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -20491,7 +20524,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q92">
         <v>9</v>
@@ -20572,7 +20605,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ92">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR92">
         <v>1.07</v>
@@ -20775,10 +20808,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>1.99</v>
@@ -20903,7 +20936,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -20981,7 +21014,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
         <v>1.44</v>
@@ -21109,7 +21142,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21187,10 +21220,10 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR95">
         <v>1.47</v>
@@ -21521,7 +21554,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q97">
         <v>2.3</v>
@@ -21602,7 +21635,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ97">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR97">
         <v>1.42</v>
@@ -21805,7 +21838,7 @@
         <v>0.6</v>
       </c>
       <c r="AP98">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -22011,10 +22044,10 @@
         <v>0.4</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ99">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -22139,7 +22172,7 @@
         <v>94</v>
       </c>
       <c r="P100" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22345,7 +22378,7 @@
         <v>163</v>
       </c>
       <c r="P101" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q101">
         <v>1.8</v>
@@ -22423,7 +22456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ101">
         <v>1.38</v>
@@ -22551,7 +22584,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22963,7 +22996,7 @@
         <v>128</v>
       </c>
       <c r="P104" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q104">
         <v>3.6</v>
@@ -23044,7 +23077,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ104">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR104">
         <v>1.6</v>
@@ -23169,7 +23202,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23456,7 +23489,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR106">
         <v>2.55</v>
@@ -23581,7 +23614,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q107">
         <v>2.38</v>
@@ -23659,7 +23692,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ107">
         <v>0.63</v>
@@ -23787,7 +23820,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -23865,10 +23898,10 @@
         <v>2.17</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ108">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -24071,7 +24104,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ109">
         <v>0.63</v>
@@ -24199,7 +24232,7 @@
         <v>94</v>
       </c>
       <c r="P110" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24277,10 +24310,10 @@
         <v>3</v>
       </c>
       <c r="AP110">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ110">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR110">
         <v>1.75</v>
@@ -24405,7 +24438,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q111">
         <v>2.3</v>
@@ -24689,10 +24722,10 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ112">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR112">
         <v>1.93</v>
@@ -24817,7 +24850,7 @@
         <v>94</v>
       </c>
       <c r="P113" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24898,7 +24931,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -25104,7 +25137,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ114">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR114">
         <v>1.71</v>
@@ -25307,7 +25340,7 @@
         <v>0.83</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -25435,7 +25468,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25719,10 +25752,10 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ117">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR117">
         <v>1.81</v>
@@ -25847,7 +25880,7 @@
         <v>94</v>
       </c>
       <c r="P118" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26131,10 +26164,10 @@
         <v>0.86</v>
       </c>
       <c r="AP119">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ119">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR119">
         <v>1.68</v>
@@ -26259,7 +26292,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26546,7 +26579,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26671,7 +26704,7 @@
         <v>110</v>
       </c>
       <c r="P122" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26752,7 +26785,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ122">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR122">
         <v>2.34</v>
@@ -26877,7 +26910,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26955,7 +26988,7 @@
         <v>0.5</v>
       </c>
       <c r="AP123">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ123">
         <v>1.38</v>
@@ -27083,7 +27116,7 @@
         <v>109</v>
       </c>
       <c r="P124" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27161,7 +27194,7 @@
         <v>1.83</v>
       </c>
       <c r="AP124">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ124">
         <v>1.44</v>
@@ -27289,7 +27322,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27367,10 +27400,10 @@
         <v>2.17</v>
       </c>
       <c r="AP125">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ125">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR125">
         <v>1.45</v>
@@ -27495,7 +27528,7 @@
         <v>136</v>
       </c>
       <c r="P126" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27701,7 +27734,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -28113,7 +28146,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q129">
         <v>1.33</v>
@@ -28194,7 +28227,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ129">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR129">
         <v>2.21</v>
@@ -28319,7 +28352,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28397,7 +28430,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ130">
         <v>0.63</v>
@@ -28603,10 +28636,10 @@
         <v>1.86</v>
       </c>
       <c r="AP131">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR131">
         <v>2.03</v>
@@ -28731,7 +28764,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28937,7 +28970,7 @@
         <v>186</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>1.62</v>
@@ -29018,7 +29051,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ133">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR133">
         <v>1.88</v>
@@ -29143,7 +29176,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29221,7 +29254,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
         <v>1.25</v>
@@ -29427,7 +29460,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ135">
         <v>0.6899999999999999</v>
@@ -29636,7 +29669,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ136">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR136">
         <v>1.54</v>
@@ -29839,7 +29872,7 @@
         <v>0.29</v>
       </c>
       <c r="AP137">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ137">
         <v>0.63</v>
@@ -30045,7 +30078,7 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ138">
         <v>0.6899999999999999</v>
@@ -30251,7 +30284,7 @@
         <v>0.86</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -30379,7 +30412,7 @@
         <v>131</v>
       </c>
       <c r="P140" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30457,10 +30490,10 @@
         <v>0.13</v>
       </c>
       <c r="AP140">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ140">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR140">
         <v>1.82</v>
@@ -30666,7 +30699,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR141">
         <v>1.38</v>
@@ -30791,7 +30824,7 @@
         <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30997,7 +31030,7 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q143">
         <v>8.5</v>
@@ -31078,7 +31111,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ143">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR143">
         <v>1.33</v>
@@ -31203,7 +31236,7 @@
         <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31281,7 +31314,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
@@ -31409,7 +31442,7 @@
         <v>94</v>
       </c>
       <c r="P145" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31490,7 +31523,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ145">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR145">
         <v>1.86</v>
@@ -31615,7 +31648,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31696,7 +31729,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ146">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR146">
         <v>1.2</v>
@@ -31821,7 +31854,7 @@
         <v>94</v>
       </c>
       <c r="P147" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -31899,10 +31932,10 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ147">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR147">
         <v>1.7</v>
@@ -32105,10 +32138,10 @@
         <v>2</v>
       </c>
       <c r="AP148">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ148">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR148">
         <v>1.77</v>
@@ -32233,7 +32266,7 @@
         <v>197</v>
       </c>
       <c r="P149" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32645,7 +32678,7 @@
         <v>94</v>
       </c>
       <c r="P151" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32726,7 +32759,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR151">
         <v>1.53</v>
@@ -32851,7 +32884,7 @@
         <v>199</v>
       </c>
       <c r="P152" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -32929,7 +32962,7 @@
         <v>1.13</v>
       </c>
       <c r="AP152">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ152">
         <v>1.38</v>
@@ -33263,7 +33296,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q154">
         <v>1.5</v>
@@ -33547,7 +33580,7 @@
         <v>0.78</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ155">
         <v>1</v>
@@ -33753,7 +33786,7 @@
         <v>1.88</v>
       </c>
       <c r="AP156">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ156">
         <v>1.44</v>
@@ -33881,7 +33914,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>2.2</v>
@@ -33962,7 +33995,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ157">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -34087,7 +34120,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q158">
         <v>1.8</v>
@@ -34293,7 +34326,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q159">
         <v>6.5</v>
@@ -34371,10 +34404,10 @@
         <v>3</v>
       </c>
       <c r="AP159">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ159">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR159">
         <v>1.49</v>
@@ -34499,7 +34532,7 @@
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -34580,7 +34613,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ160">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR160">
         <v>1.47</v>
@@ -34705,7 +34738,7 @@
         <v>94</v>
       </c>
       <c r="P161" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34911,7 +34944,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q162">
         <v>1.67</v>
@@ -34989,7 +35022,7 @@
         <v>0.88</v>
       </c>
       <c r="AP162">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
         <v>0.6899999999999999</v>
@@ -35404,7 +35437,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ164">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR164">
         <v>1.49</v>
@@ -35610,7 +35643,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ165">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR165">
         <v>1.3</v>
@@ -35816,7 +35849,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ166">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR166">
         <v>2.67</v>
@@ -35941,7 +35974,7 @@
         <v>131</v>
       </c>
       <c r="P167" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -36019,7 +36052,7 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ167">
         <v>1.25</v>
@@ -36147,7 +36180,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q168">
         <v>5.5</v>
@@ -36353,7 +36386,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q169">
         <v>3.75</v>
@@ -36431,10 +36464,10 @@
         <v>1.75</v>
       </c>
       <c r="AP169">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR169">
         <v>1.85</v>
@@ -36765,7 +36798,7 @@
         <v>210</v>
       </c>
       <c r="P171" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36843,7 +36876,7 @@
         <v>1.25</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ171">
         <v>1.38</v>
@@ -37461,7 +37494,7 @@
         <v>0.78</v>
       </c>
       <c r="AP174">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ174">
         <v>0.6899999999999999</v>
@@ -37589,7 +37622,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37667,7 +37700,7 @@
         <v>0.7</v>
       </c>
       <c r="AP175">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37795,7 +37828,7 @@
         <v>99</v>
       </c>
       <c r="P176" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q176">
         <v>3.5</v>
@@ -37873,10 +37906,10 @@
         <v>2.78</v>
       </c>
       <c r="AP176">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ176">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR176">
         <v>1.97</v>
@@ -38079,10 +38112,10 @@
         <v>0.89</v>
       </c>
       <c r="AP177">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR177">
         <v>1.53</v>
@@ -38207,7 +38240,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38494,7 +38527,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ179">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR179">
         <v>1.75</v>
@@ -38619,7 +38652,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q180">
         <v>1.83</v>
@@ -38697,10 +38730,10 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ180">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR180">
         <v>1.51</v>
@@ -38825,7 +38858,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -39237,7 +39270,7 @@
         <v>94</v>
       </c>
       <c r="P183" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39315,7 +39348,7 @@
         <v>1.6</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ183">
         <v>1.44</v>
@@ -39524,7 +39557,7 @@
         <v>1</v>
       </c>
       <c r="AQ184">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR184">
         <v>1.35</v>
@@ -39649,7 +39682,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39730,7 +39763,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ185">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR185">
         <v>1.34</v>
@@ -39855,7 +39888,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q186">
         <v>2.3</v>
@@ -39933,7 +39966,7 @@
         <v>1.5</v>
       </c>
       <c r="AP186">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ186">
         <v>1.06</v>
@@ -40139,7 +40172,7 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ187">
         <v>0.63</v>
@@ -40267,7 +40300,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q188">
         <v>4.33</v>
@@ -40345,7 +40378,7 @@
         <v>1.5</v>
       </c>
       <c r="AP188">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ188">
         <v>1.38</v>
@@ -40473,7 +40506,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q189">
         <v>15</v>
@@ -40554,7 +40587,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ189">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR189">
         <v>1.39</v>
@@ -40760,7 +40793,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ190">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR190">
         <v>2.32</v>
@@ -40966,7 +40999,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ191">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR191">
         <v>2.59</v>
@@ -41091,7 +41124,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q192">
         <v>2.38</v>
@@ -41297,7 +41330,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41375,10 +41408,10 @@
         <v>1.6</v>
       </c>
       <c r="AP193">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ193">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR193">
         <v>1.77</v>
@@ -41503,7 +41536,7 @@
         <v>94</v>
       </c>
       <c r="P194" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q194">
         <v>2.6</v>
@@ -41581,7 +41614,7 @@
         <v>1.3</v>
       </c>
       <c r="AP194">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ194">
         <v>1.13</v>
@@ -41790,7 +41823,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ195">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR195">
         <v>1.51</v>
@@ -41993,7 +42026,7 @@
         <v>1.2</v>
       </c>
       <c r="AP196">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ196">
         <v>1.25</v>
@@ -42121,7 +42154,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q197">
         <v>1.83</v>
@@ -42199,7 +42232,7 @@
         <v>1.1</v>
       </c>
       <c r="AP197">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ197">
         <v>1.38</v>
@@ -42408,7 +42441,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ198">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR198">
         <v>1.39</v>
@@ -42817,10 +42850,10 @@
         <v>0.73</v>
       </c>
       <c r="AP200">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ200">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR200">
         <v>1.62</v>
@@ -43151,7 +43184,7 @@
         <v>104</v>
       </c>
       <c r="P202" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q202">
         <v>7.5</v>
@@ -43232,7 +43265,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ202">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR202">
         <v>1.48</v>
@@ -43435,10 +43468,10 @@
         <v>1.55</v>
       </c>
       <c r="AP203">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ203">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR203">
         <v>1.65</v>
@@ -43563,7 +43596,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q204">
         <v>2.75</v>
@@ -43641,10 +43674,10 @@
         <v>0.55</v>
       </c>
       <c r="AP204">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ204">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR204">
         <v>1.43</v>
@@ -43847,7 +43880,7 @@
         <v>1.45</v>
       </c>
       <c r="AP205">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ205">
         <v>1.13</v>
@@ -43975,7 +44008,7 @@
         <v>94</v>
       </c>
       <c r="P206" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -44056,7 +44089,7 @@
         <v>1</v>
       </c>
       <c r="AQ206">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR206">
         <v>1.3</v>
@@ -44387,7 +44420,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44593,7 +44626,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44877,7 +44910,7 @@
         <v>0.64</v>
       </c>
       <c r="AP210">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210">
         <v>0.6899999999999999</v>
@@ -45005,7 +45038,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q211">
         <v>6.13</v>
@@ -45292,7 +45325,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ212">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR212">
         <v>1.68</v>
@@ -45495,7 +45528,7 @@
         <v>1.36</v>
       </c>
       <c r="AP213">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ213">
         <v>1.25</v>
@@ -45701,7 +45734,7 @@
         <v>1.45</v>
       </c>
       <c r="AP214">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ214">
         <v>1.06</v>
@@ -45829,7 +45862,7 @@
         <v>238</v>
       </c>
       <c r="P215" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -45910,7 +45943,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ215">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR215">
         <v>2.73</v>
@@ -46035,7 +46068,7 @@
         <v>239</v>
       </c>
       <c r="P216" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46113,7 +46146,7 @@
         <v>0.82</v>
       </c>
       <c r="AP216">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ216">
         <v>0.63</v>
@@ -46241,7 +46274,7 @@
         <v>240</v>
       </c>
       <c r="P217" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q217">
         <v>3.1</v>
@@ -46322,7 +46355,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ217">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR217">
         <v>1.4</v>
@@ -46525,10 +46558,10 @@
         <v>2.67</v>
       </c>
       <c r="AP218">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ218">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR218">
         <v>2.05</v>
@@ -46731,10 +46764,10 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ219">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR219">
         <v>1.8</v>
@@ -46859,7 +46892,7 @@
         <v>242</v>
       </c>
       <c r="P220" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q220">
         <v>4.2</v>
@@ -47065,7 +47098,7 @@
         <v>243</v>
       </c>
       <c r="P221" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q221">
         <v>2.81</v>
@@ -47146,7 +47179,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ221">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR221">
         <v>1.22</v>
@@ -47477,7 +47510,7 @@
         <v>245</v>
       </c>
       <c r="P223" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q223">
         <v>2.05</v>
@@ -47558,7 +47591,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ223">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR223">
         <v>1.4</v>
@@ -47683,7 +47716,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q224">
         <v>1.95</v>
@@ -47761,7 +47794,7 @@
         <v>0.75</v>
       </c>
       <c r="AP224">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ224">
         <v>0.63</v>
@@ -47967,7 +48000,7 @@
         <v>0.92</v>
       </c>
       <c r="AP225">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ225">
         <v>1</v>
@@ -48176,7 +48209,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ226">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR226">
         <v>2.41</v>
@@ -48507,7 +48540,7 @@
         <v>250</v>
       </c>
       <c r="P228" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q228">
         <v>2.4</v>
@@ -48585,7 +48618,7 @@
         <v>1.33</v>
       </c>
       <c r="AP228">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ228">
         <v>1.06</v>
@@ -48791,7 +48824,7 @@
         <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ229">
         <v>0.6899999999999999</v>
@@ -49000,7 +49033,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ230">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR230">
         <v>1.44</v>
@@ -49125,7 +49158,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q231">
         <v>8.5</v>
@@ -49206,7 +49239,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ231">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR231">
         <v>1.35</v>
@@ -49409,7 +49442,7 @@
         <v>1.25</v>
       </c>
       <c r="AP232">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ232">
         <v>1.38</v>
@@ -49537,7 +49570,7 @@
         <v>251</v>
       </c>
       <c r="P233" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -49615,10 +49648,10 @@
         <v>2.42</v>
       </c>
       <c r="AP233">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ233">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR233">
         <v>1.74</v>
@@ -49743,7 +49776,7 @@
         <v>252</v>
       </c>
       <c r="P234" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -50155,7 +50188,7 @@
         <v>253</v>
       </c>
       <c r="P236" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q236">
         <v>5.5</v>
@@ -50233,10 +50266,10 @@
         <v>2.69</v>
       </c>
       <c r="AP236">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ236">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR236">
         <v>1.67</v>
@@ -50645,7 +50678,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP238">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ238">
         <v>0.63</v>
@@ -51060,7 +51093,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ240">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR240">
         <v>1.71</v>
@@ -51185,7 +51218,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q241">
         <v>4.33</v>
@@ -51391,7 +51424,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q242">
         <v>1.73</v>
@@ -51675,10 +51708,10 @@
         <v>0.62</v>
       </c>
       <c r="AP243">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ243">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR243">
         <v>1.81</v>
@@ -51803,7 +51836,7 @@
         <v>109</v>
       </c>
       <c r="P244" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q244">
         <v>2</v>
@@ -51884,7 +51917,7 @@
         <v>1</v>
       </c>
       <c r="AQ244">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR244">
         <v>1.31</v>
@@ -52009,7 +52042,7 @@
         <v>259</v>
       </c>
       <c r="P245" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52090,7 +52123,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ245">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR245">
         <v>1.49</v>
@@ -52215,7 +52248,7 @@
         <v>94</v>
       </c>
       <c r="P246" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q246">
         <v>12</v>
@@ -52293,10 +52326,10 @@
         <v>2.5</v>
       </c>
       <c r="AP246">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ246">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR246">
         <v>1.45</v>
@@ -52421,7 +52454,7 @@
         <v>185</v>
       </c>
       <c r="P247" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52499,7 +52532,7 @@
         <v>1.15</v>
       </c>
       <c r="AP247">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ247">
         <v>1.38</v>
@@ -52708,7 +52741,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ248">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR248">
         <v>1.42</v>
@@ -52833,7 +52866,7 @@
         <v>261</v>
       </c>
       <c r="P249" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52911,7 +52944,7 @@
         <v>1.23</v>
       </c>
       <c r="AP249">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
@@ -53039,7 +53072,7 @@
         <v>262</v>
       </c>
       <c r="P250" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -53117,7 +53150,7 @@
         <v>1.69</v>
       </c>
       <c r="AP250">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ250">
         <v>1.44</v>
@@ -53326,7 +53359,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ251">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR251">
         <v>1.32</v>
@@ -53532,7 +53565,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ252">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR252">
         <v>1.23</v>
@@ -53735,7 +53768,7 @@
         <v>1.23</v>
       </c>
       <c r="AP253">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ253">
         <v>1.13</v>
@@ -53863,7 +53896,7 @@
         <v>263</v>
       </c>
       <c r="P254" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q254">
         <v>2.3</v>
@@ -53944,7 +53977,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ254">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR254">
         <v>1.65</v>
@@ -54069,7 +54102,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q255">
         <v>1.83</v>
@@ -54150,7 +54183,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ255">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR255">
         <v>2.61</v>
@@ -54275,7 +54308,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q256">
         <v>2.75</v>
@@ -54559,7 +54592,7 @@
         <v>0.71</v>
       </c>
       <c r="AP257">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ257">
         <v>0.63</v>
@@ -54687,7 +54720,7 @@
         <v>94</v>
       </c>
       <c r="P258" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54971,10 +55004,10 @@
         <v>1.21</v>
       </c>
       <c r="AP259">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ259">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR259">
         <v>1.98</v>
@@ -55305,7 +55338,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55511,7 +55544,7 @@
         <v>270</v>
       </c>
       <c r="P262" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q262">
         <v>2.7</v>
@@ -55589,7 +55622,7 @@
         <v>1.14</v>
       </c>
       <c r="AP262">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ262">
         <v>1.25</v>
@@ -55795,10 +55828,10 @@
         <v>0.57</v>
       </c>
       <c r="AP263">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ263">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR263">
         <v>1.38</v>
@@ -56004,7 +56037,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ264">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR264">
         <v>2.58</v>
@@ -56129,7 +56162,7 @@
         <v>273</v>
       </c>
       <c r="P265" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q265">
         <v>1.74</v>
@@ -56335,7 +56368,7 @@
         <v>274</v>
       </c>
       <c r="P266" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q266">
         <v>3.1</v>
@@ -56416,7 +56449,7 @@
         <v>1</v>
       </c>
       <c r="AQ266">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR266">
         <v>1.34</v>
@@ -56541,7 +56574,7 @@
         <v>94</v>
       </c>
       <c r="P267" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q267">
         <v>3.25</v>
@@ -56825,10 +56858,10 @@
         <v>2.36</v>
       </c>
       <c r="AP268">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ268">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR268">
         <v>1.86</v>
@@ -57031,7 +57064,7 @@
         <v>1.21</v>
       </c>
       <c r="AP269">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ269">
         <v>1.13</v>
@@ -57159,7 +57192,7 @@
         <v>276</v>
       </c>
       <c r="P270" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q270">
         <v>3.1</v>
@@ -57237,7 +57270,7 @@
         <v>1.64</v>
       </c>
       <c r="AP270">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ270">
         <v>1.44</v>
@@ -57365,7 +57398,7 @@
         <v>277</v>
       </c>
       <c r="P271" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q271">
         <v>2.05</v>
@@ -57443,7 +57476,7 @@
         <v>1.14</v>
       </c>
       <c r="AP271">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ271">
         <v>1.06</v>
@@ -57649,10 +57682,10 @@
         <v>1.2</v>
       </c>
       <c r="AP272">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ272">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR272">
         <v>1.82</v>
@@ -57777,7 +57810,7 @@
         <v>279</v>
       </c>
       <c r="P273" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q273">
         <v>1.73</v>
@@ -57855,7 +57888,7 @@
         <v>0.6</v>
       </c>
       <c r="AP273">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ273">
         <v>0.63</v>
@@ -57983,7 +58016,7 @@
         <v>94</v>
       </c>
       <c r="P274" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q274">
         <v>6.5</v>
@@ -58061,10 +58094,10 @@
         <v>2.53</v>
       </c>
       <c r="AP274">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ274">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AR274">
         <v>1.62</v>
@@ -58189,7 +58222,7 @@
         <v>280</v>
       </c>
       <c r="P275" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58267,10 +58300,10 @@
         <v>2.4</v>
       </c>
       <c r="AP275">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ275">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR275">
         <v>1.93</v>
@@ -58395,7 +58428,7 @@
         <v>94</v>
       </c>
       <c r="P276" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q276">
         <v>3.75</v>
@@ -58473,10 +58506,10 @@
         <v>1.53</v>
       </c>
       <c r="AP276">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ276">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR276">
         <v>1.65</v>
@@ -58601,7 +58634,7 @@
         <v>281</v>
       </c>
       <c r="P277" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -58682,7 +58715,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ277">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR277">
         <v>1.53</v>
@@ -58888,7 +58921,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ278">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR278">
         <v>1.65</v>
@@ -59013,7 +59046,7 @@
         <v>282</v>
       </c>
       <c r="P279" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q279">
         <v>3.5</v>
@@ -59219,7 +59252,7 @@
         <v>283</v>
       </c>
       <c r="P280" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q280">
         <v>4</v>
@@ -59503,7 +59536,7 @@
         <v>1.13</v>
       </c>
       <c r="AP281">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ281">
         <v>1.13</v>
@@ -59837,7 +59870,7 @@
         <v>285</v>
       </c>
       <c r="P283" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q283">
         <v>1.44</v>
@@ -59918,7 +59951,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ283">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR283">
         <v>2.6</v>
@@ -60043,7 +60076,7 @@
         <v>94</v>
       </c>
       <c r="P284" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q284">
         <v>2.75</v>
@@ -60327,10 +60360,10 @@
         <v>0.6</v>
       </c>
       <c r="AP285">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ285">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR285">
         <v>1.61</v>
@@ -60455,7 +60488,7 @@
         <v>287</v>
       </c>
       <c r="P286" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q286">
         <v>6</v>
@@ -60661,7 +60694,7 @@
         <v>288</v>
       </c>
       <c r="P287" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q287">
         <v>3</v>
@@ -61073,7 +61106,7 @@
         <v>94</v>
       </c>
       <c r="P289" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q289">
         <v>3.25</v>
@@ -61151,7 +61184,7 @@
         <v>1.27</v>
       </c>
       <c r="AP289">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ289">
         <v>1.38</v>
@@ -61230,6 +61263,1860 @@
       </c>
       <c r="BP289">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6680983</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>72</v>
+      </c>
+      <c r="H290" t="s">
+        <v>81</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>3</v>
+      </c>
+      <c r="N290">
+        <v>4</v>
+      </c>
+      <c r="O290" t="s">
+        <v>290</v>
+      </c>
+      <c r="P290" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q290">
+        <v>2.05</v>
+      </c>
+      <c r="R290">
+        <v>2.5</v>
+      </c>
+      <c r="S290">
+        <v>5</v>
+      </c>
+      <c r="T290">
+        <v>1.25</v>
+      </c>
+      <c r="U290">
+        <v>3.75</v>
+      </c>
+      <c r="V290">
+        <v>2.2</v>
+      </c>
+      <c r="W290">
+        <v>1.62</v>
+      </c>
+      <c r="X290">
+        <v>5</v>
+      </c>
+      <c r="Y290">
+        <v>1.17</v>
+      </c>
+      <c r="Z290">
+        <v>1.5</v>
+      </c>
+      <c r="AA290">
+        <v>4.4</v>
+      </c>
+      <c r="AB290">
+        <v>5.25</v>
+      </c>
+      <c r="AC290">
+        <v>1.02</v>
+      </c>
+      <c r="AD290">
+        <v>11</v>
+      </c>
+      <c r="AE290">
+        <v>1.15</v>
+      </c>
+      <c r="AF290">
+        <v>4.75</v>
+      </c>
+      <c r="AG290">
+        <v>1.45</v>
+      </c>
+      <c r="AH290">
+        <v>2.55</v>
+      </c>
+      <c r="AI290">
+        <v>1.62</v>
+      </c>
+      <c r="AJ290">
+        <v>2.2</v>
+      </c>
+      <c r="AK290">
+        <v>1.17</v>
+      </c>
+      <c r="AL290">
+        <v>1.2</v>
+      </c>
+      <c r="AM290">
+        <v>2.4</v>
+      </c>
+      <c r="AN290">
+        <v>1.31</v>
+      </c>
+      <c r="AO290">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP290">
+        <v>1.24</v>
+      </c>
+      <c r="AQ290">
+        <v>0.71</v>
+      </c>
+      <c r="AR290">
+        <v>1.57</v>
+      </c>
+      <c r="AS290">
+        <v>1.17</v>
+      </c>
+      <c r="AT290">
+        <v>2.74</v>
+      </c>
+      <c r="AU290">
+        <v>6</v>
+      </c>
+      <c r="AV290">
+        <v>8</v>
+      </c>
+      <c r="AW290">
+        <v>11</v>
+      </c>
+      <c r="AX290">
+        <v>2</v>
+      </c>
+      <c r="AY290">
+        <v>17</v>
+      </c>
+      <c r="AZ290">
+        <v>10</v>
+      </c>
+      <c r="BA290">
+        <v>7</v>
+      </c>
+      <c r="BB290">
+        <v>2</v>
+      </c>
+      <c r="BC290">
+        <v>9</v>
+      </c>
+      <c r="BD290">
+        <v>1.41</v>
+      </c>
+      <c r="BE290">
+        <v>9</v>
+      </c>
+      <c r="BF290">
+        <v>3.55</v>
+      </c>
+      <c r="BG290">
+        <v>1.15</v>
+      </c>
+      <c r="BH290">
+        <v>4.75</v>
+      </c>
+      <c r="BI290">
+        <v>1.29</v>
+      </c>
+      <c r="BJ290">
+        <v>3.3</v>
+      </c>
+      <c r="BK290">
+        <v>1.5</v>
+      </c>
+      <c r="BL290">
+        <v>2.4</v>
+      </c>
+      <c r="BM290">
+        <v>1.95</v>
+      </c>
+      <c r="BN290">
+        <v>1.85</v>
+      </c>
+      <c r="BO290">
+        <v>2.2</v>
+      </c>
+      <c r="BP290">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6680975</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>73</v>
+      </c>
+      <c r="H291" t="s">
+        <v>78</v>
+      </c>
+      <c r="I291">
+        <v>3</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>3</v>
+      </c>
+      <c r="L291">
+        <v>3</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>291</v>
+      </c>
+      <c r="P291" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q291">
+        <v>1.73</v>
+      </c>
+      <c r="R291">
+        <v>2.75</v>
+      </c>
+      <c r="S291">
+        <v>7.5</v>
+      </c>
+      <c r="T291">
+        <v>1.22</v>
+      </c>
+      <c r="U291">
+        <v>4</v>
+      </c>
+      <c r="V291">
+        <v>2.1</v>
+      </c>
+      <c r="W291">
+        <v>1.67</v>
+      </c>
+      <c r="X291">
+        <v>4.5</v>
+      </c>
+      <c r="Y291">
+        <v>1.18</v>
+      </c>
+      <c r="Z291">
+        <v>1.28</v>
+      </c>
+      <c r="AA291">
+        <v>5.5</v>
+      </c>
+      <c r="AB291">
+        <v>8</v>
+      </c>
+      <c r="AC291">
+        <v>1.02</v>
+      </c>
+      <c r="AD291">
+        <v>26</v>
+      </c>
+      <c r="AE291">
+        <v>1.11</v>
+      </c>
+      <c r="AF291">
+        <v>5.5</v>
+      </c>
+      <c r="AG291">
+        <v>1.45</v>
+      </c>
+      <c r="AH291">
+        <v>2.55</v>
+      </c>
+      <c r="AI291">
+        <v>1.75</v>
+      </c>
+      <c r="AJ291">
+        <v>2</v>
+      </c>
+      <c r="AK291">
+        <v>1.06</v>
+      </c>
+      <c r="AL291">
+        <v>1.14</v>
+      </c>
+      <c r="AM291">
+        <v>3.6</v>
+      </c>
+      <c r="AN291">
+        <v>1.88</v>
+      </c>
+      <c r="AO291">
+        <v>1.13</v>
+      </c>
+      <c r="AP291">
+        <v>1.94</v>
+      </c>
+      <c r="AQ291">
+        <v>1.06</v>
+      </c>
+      <c r="AR291">
+        <v>1.8</v>
+      </c>
+      <c r="AS291">
+        <v>1.22</v>
+      </c>
+      <c r="AT291">
+        <v>3.02</v>
+      </c>
+      <c r="AU291">
+        <v>5</v>
+      </c>
+      <c r="AV291">
+        <v>0</v>
+      </c>
+      <c r="AW291">
+        <v>5</v>
+      </c>
+      <c r="AX291">
+        <v>3</v>
+      </c>
+      <c r="AY291">
+        <v>10</v>
+      </c>
+      <c r="AZ291">
+        <v>3</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>1</v>
+      </c>
+      <c r="BC291">
+        <v>5</v>
+      </c>
+      <c r="BD291">
+        <v>1.24</v>
+      </c>
+      <c r="BE291">
+        <v>12.75</v>
+      </c>
+      <c r="BF291">
+        <v>5.3</v>
+      </c>
+      <c r="BG291">
+        <v>1.2</v>
+      </c>
+      <c r="BH291">
+        <v>3.9</v>
+      </c>
+      <c r="BI291">
+        <v>1.4</v>
+      </c>
+      <c r="BJ291">
+        <v>2.72</v>
+      </c>
+      <c r="BK291">
+        <v>1.73</v>
+      </c>
+      <c r="BL291">
+        <v>2.11</v>
+      </c>
+      <c r="BM291">
+        <v>2.16</v>
+      </c>
+      <c r="BN291">
+        <v>1.7</v>
+      </c>
+      <c r="BO291">
+        <v>2.79</v>
+      </c>
+      <c r="BP291">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6680976</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>80</v>
+      </c>
+      <c r="H292" t="s">
+        <v>79</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>4</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>4</v>
+      </c>
+      <c r="O292" t="s">
+        <v>292</v>
+      </c>
+      <c r="P292" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q292">
+        <v>2.4</v>
+      </c>
+      <c r="R292">
+        <v>2.5</v>
+      </c>
+      <c r="S292">
+        <v>3.75</v>
+      </c>
+      <c r="T292">
+        <v>1.25</v>
+      </c>
+      <c r="U292">
+        <v>3.75</v>
+      </c>
+      <c r="V292">
+        <v>2.2</v>
+      </c>
+      <c r="W292">
+        <v>1.62</v>
+      </c>
+      <c r="X292">
+        <v>5</v>
+      </c>
+      <c r="Y292">
+        <v>1.17</v>
+      </c>
+      <c r="Z292">
+        <v>1.83</v>
+      </c>
+      <c r="AA292">
+        <v>3.9</v>
+      </c>
+      <c r="AB292">
+        <v>3.5</v>
+      </c>
+      <c r="AC292">
+        <v>1.02</v>
+      </c>
+      <c r="AD292">
+        <v>13</v>
+      </c>
+      <c r="AE292">
+        <v>1.17</v>
+      </c>
+      <c r="AF292">
+        <v>5</v>
+      </c>
+      <c r="AG292">
+        <v>1.48</v>
+      </c>
+      <c r="AH292">
+        <v>2.42</v>
+      </c>
+      <c r="AI292">
+        <v>1.44</v>
+      </c>
+      <c r="AJ292">
+        <v>2.63</v>
+      </c>
+      <c r="AK292">
+        <v>1.25</v>
+      </c>
+      <c r="AL292">
+        <v>1.22</v>
+      </c>
+      <c r="AM292">
+        <v>1.85</v>
+      </c>
+      <c r="AN292">
+        <v>1</v>
+      </c>
+      <c r="AO292">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP292">
+        <v>1.12</v>
+      </c>
+      <c r="AQ292">
+        <v>0.65</v>
+      </c>
+      <c r="AR292">
+        <v>1.48</v>
+      </c>
+      <c r="AS292">
+        <v>1</v>
+      </c>
+      <c r="AT292">
+        <v>2.48</v>
+      </c>
+      <c r="AU292">
+        <v>10</v>
+      </c>
+      <c r="AV292">
+        <v>0</v>
+      </c>
+      <c r="AW292">
+        <v>5</v>
+      </c>
+      <c r="AX292">
+        <v>4</v>
+      </c>
+      <c r="AY292">
+        <v>15</v>
+      </c>
+      <c r="AZ292">
+        <v>4</v>
+      </c>
+      <c r="BA292">
+        <v>7</v>
+      </c>
+      <c r="BB292">
+        <v>4</v>
+      </c>
+      <c r="BC292">
+        <v>11</v>
+      </c>
+      <c r="BD292">
+        <v>1.61</v>
+      </c>
+      <c r="BE292">
+        <v>8</v>
+      </c>
+      <c r="BF292">
+        <v>2.7</v>
+      </c>
+      <c r="BG292">
+        <v>1.13</v>
+      </c>
+      <c r="BH292">
+        <v>4.9</v>
+      </c>
+      <c r="BI292">
+        <v>1.24</v>
+      </c>
+      <c r="BJ292">
+        <v>3.25</v>
+      </c>
+      <c r="BK292">
+        <v>1.5</v>
+      </c>
+      <c r="BL292">
+        <v>2.52</v>
+      </c>
+      <c r="BM292">
+        <v>1.82</v>
+      </c>
+      <c r="BN292">
+        <v>1.98</v>
+      </c>
+      <c r="BO292">
+        <v>2.22</v>
+      </c>
+      <c r="BP292">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6680977</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>86</v>
+      </c>
+      <c r="H293" t="s">
+        <v>70</v>
+      </c>
+      <c r="I293">
+        <v>5</v>
+      </c>
+      <c r="J293">
+        <v>2</v>
+      </c>
+      <c r="K293">
+        <v>7</v>
+      </c>
+      <c r="L293">
+        <v>7</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+      <c r="N293">
+        <v>9</v>
+      </c>
+      <c r="O293" t="s">
+        <v>293</v>
+      </c>
+      <c r="P293" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q293">
+        <v>1.3</v>
+      </c>
+      <c r="R293">
+        <v>4</v>
+      </c>
+      <c r="S293">
+        <v>12</v>
+      </c>
+      <c r="T293">
+        <v>1.13</v>
+      </c>
+      <c r="U293">
+        <v>5</v>
+      </c>
+      <c r="V293">
+        <v>1.73</v>
+      </c>
+      <c r="W293">
+        <v>2</v>
+      </c>
+      <c r="X293">
+        <v>3.2</v>
+      </c>
+      <c r="Y293">
+        <v>1.3</v>
+      </c>
+      <c r="Z293">
+        <v>1.06</v>
+      </c>
+      <c r="AA293">
+        <v>12</v>
+      </c>
+      <c r="AB293">
+        <v>21</v>
+      </c>
+      <c r="AC293">
+        <v>1.01</v>
+      </c>
+      <c r="AD293">
+        <v>48.5</v>
+      </c>
+      <c r="AE293">
+        <v>1.05</v>
+      </c>
+      <c r="AF293">
+        <v>8</v>
+      </c>
+      <c r="AG293">
+        <v>1.2</v>
+      </c>
+      <c r="AH293">
+        <v>3.91</v>
+      </c>
+      <c r="AI293">
+        <v>2.25</v>
+      </c>
+      <c r="AJ293">
+        <v>1.57</v>
+      </c>
+      <c r="AK293">
+        <v>1.02</v>
+      </c>
+      <c r="AL293">
+        <v>1.03</v>
+      </c>
+      <c r="AM293">
+        <v>10</v>
+      </c>
+      <c r="AN293">
+        <v>2.5</v>
+      </c>
+      <c r="AO293">
+        <v>0.5</v>
+      </c>
+      <c r="AP293">
+        <v>2.53</v>
+      </c>
+      <c r="AQ293">
+        <v>0.47</v>
+      </c>
+      <c r="AR293">
+        <v>1.81</v>
+      </c>
+      <c r="AS293">
+        <v>1.09</v>
+      </c>
+      <c r="AT293">
+        <v>2.9</v>
+      </c>
+      <c r="AU293">
+        <v>11</v>
+      </c>
+      <c r="AV293">
+        <v>3</v>
+      </c>
+      <c r="AW293">
+        <v>4</v>
+      </c>
+      <c r="AX293">
+        <v>4</v>
+      </c>
+      <c r="AY293">
+        <v>15</v>
+      </c>
+      <c r="AZ293">
+        <v>7</v>
+      </c>
+      <c r="BA293">
+        <v>13</v>
+      </c>
+      <c r="BB293">
+        <v>2</v>
+      </c>
+      <c r="BC293">
+        <v>15</v>
+      </c>
+      <c r="BD293">
+        <v>1.06</v>
+      </c>
+      <c r="BE293">
+        <v>21</v>
+      </c>
+      <c r="BF293">
+        <v>16</v>
+      </c>
+      <c r="BG293">
+        <v>1.1</v>
+      </c>
+      <c r="BH293">
+        <v>5.75</v>
+      </c>
+      <c r="BI293">
+        <v>1.19</v>
+      </c>
+      <c r="BJ293">
+        <v>3.98</v>
+      </c>
+      <c r="BK293">
+        <v>1.36</v>
+      </c>
+      <c r="BL293">
+        <v>2.79</v>
+      </c>
+      <c r="BM293">
+        <v>1.85</v>
+      </c>
+      <c r="BN293">
+        <v>1.95</v>
+      </c>
+      <c r="BO293">
+        <v>2.06</v>
+      </c>
+      <c r="BP293">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6680978</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>84</v>
+      </c>
+      <c r="H294" t="s">
+        <v>85</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>1</v>
+      </c>
+      <c r="O294" t="s">
+        <v>94</v>
+      </c>
+      <c r="P294" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q294">
+        <v>2.3</v>
+      </c>
+      <c r="R294">
+        <v>2.3</v>
+      </c>
+      <c r="S294">
+        <v>4.5</v>
+      </c>
+      <c r="T294">
+        <v>1.33</v>
+      </c>
+      <c r="U294">
+        <v>3.25</v>
+      </c>
+      <c r="V294">
+        <v>2.5</v>
+      </c>
+      <c r="W294">
+        <v>1.5</v>
+      </c>
+      <c r="X294">
+        <v>6.5</v>
+      </c>
+      <c r="Y294">
+        <v>1.11</v>
+      </c>
+      <c r="Z294">
+        <v>1.7</v>
+      </c>
+      <c r="AA294">
+        <v>4</v>
+      </c>
+      <c r="AB294">
+        <v>4</v>
+      </c>
+      <c r="AC294">
+        <v>1.01</v>
+      </c>
+      <c r="AD294">
+        <v>10.5</v>
+      </c>
+      <c r="AE294">
+        <v>1.2</v>
+      </c>
+      <c r="AF294">
+        <v>3.88</v>
+      </c>
+      <c r="AG294">
+        <v>1.7</v>
+      </c>
+      <c r="AH294">
+        <v>2.05</v>
+      </c>
+      <c r="AI294">
+        <v>1.7</v>
+      </c>
+      <c r="AJ294">
+        <v>2.05</v>
+      </c>
+      <c r="AK294">
+        <v>1.22</v>
+      </c>
+      <c r="AL294">
+        <v>1.26</v>
+      </c>
+      <c r="AM294">
+        <v>2.06</v>
+      </c>
+      <c r="AN294">
+        <v>1.81</v>
+      </c>
+      <c r="AO294">
+        <v>1.44</v>
+      </c>
+      <c r="AP294">
+        <v>1.71</v>
+      </c>
+      <c r="AQ294">
+        <v>1.53</v>
+      </c>
+      <c r="AR294">
+        <v>1.61</v>
+      </c>
+      <c r="AS294">
+        <v>1.28</v>
+      </c>
+      <c r="AT294">
+        <v>2.89</v>
+      </c>
+      <c r="AU294">
+        <v>6</v>
+      </c>
+      <c r="AV294">
+        <v>5</v>
+      </c>
+      <c r="AW294">
+        <v>8</v>
+      </c>
+      <c r="AX294">
+        <v>3</v>
+      </c>
+      <c r="AY294">
+        <v>14</v>
+      </c>
+      <c r="AZ294">
+        <v>8</v>
+      </c>
+      <c r="BA294">
+        <v>12</v>
+      </c>
+      <c r="BB294">
+        <v>4</v>
+      </c>
+      <c r="BC294">
+        <v>16</v>
+      </c>
+      <c r="BD294">
+        <v>1.42</v>
+      </c>
+      <c r="BE294">
+        <v>8</v>
+      </c>
+      <c r="BF294">
+        <v>3.6</v>
+      </c>
+      <c r="BG294">
+        <v>1.2</v>
+      </c>
+      <c r="BH294">
+        <v>4</v>
+      </c>
+      <c r="BI294">
+        <v>1.36</v>
+      </c>
+      <c r="BJ294">
+        <v>2.9</v>
+      </c>
+      <c r="BK294">
+        <v>1.6</v>
+      </c>
+      <c r="BL294">
+        <v>2.3</v>
+      </c>
+      <c r="BM294">
+        <v>2</v>
+      </c>
+      <c r="BN294">
+        <v>1.8</v>
+      </c>
+      <c r="BO294">
+        <v>2.44</v>
+      </c>
+      <c r="BP294">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6680979</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>82</v>
+      </c>
+      <c r="H295" t="s">
+        <v>71</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>294</v>
+      </c>
+      <c r="P295" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q295">
+        <v>7.5</v>
+      </c>
+      <c r="R295">
+        <v>2.88</v>
+      </c>
+      <c r="S295">
+        <v>1.67</v>
+      </c>
+      <c r="T295">
+        <v>1.22</v>
+      </c>
+      <c r="U295">
+        <v>4</v>
+      </c>
+      <c r="V295">
+        <v>2</v>
+      </c>
+      <c r="W295">
+        <v>1.73</v>
+      </c>
+      <c r="X295">
+        <v>4.33</v>
+      </c>
+      <c r="Y295">
+        <v>1.2</v>
+      </c>
+      <c r="Z295">
+        <v>8</v>
+      </c>
+      <c r="AA295">
+        <v>5.75</v>
+      </c>
+      <c r="AB295">
+        <v>1.28</v>
+      </c>
+      <c r="AC295">
+        <v>1.01</v>
+      </c>
+      <c r="AD295">
+        <v>30</v>
+      </c>
+      <c r="AE295">
+        <v>1.09</v>
+      </c>
+      <c r="AF295">
+        <v>6.2</v>
+      </c>
+      <c r="AG295">
+        <v>1.4</v>
+      </c>
+      <c r="AH295">
+        <v>2.75</v>
+      </c>
+      <c r="AI295">
+        <v>1.75</v>
+      </c>
+      <c r="AJ295">
+        <v>2</v>
+      </c>
+      <c r="AK295">
+        <v>3.6</v>
+      </c>
+      <c r="AL295">
+        <v>1.14</v>
+      </c>
+      <c r="AM295">
+        <v>1.01</v>
+      </c>
+      <c r="AN295">
+        <v>1.63</v>
+      </c>
+      <c r="AO295">
+        <v>2.56</v>
+      </c>
+      <c r="AP295">
+        <v>1.59</v>
+      </c>
+      <c r="AQ295">
+        <v>2.47</v>
+      </c>
+      <c r="AR295">
+        <v>1.85</v>
+      </c>
+      <c r="AS295">
+        <v>2.34</v>
+      </c>
+      <c r="AT295">
+        <v>4.19</v>
+      </c>
+      <c r="AU295">
+        <v>7</v>
+      </c>
+      <c r="AV295">
+        <v>6</v>
+      </c>
+      <c r="AW295">
+        <v>4</v>
+      </c>
+      <c r="AX295">
+        <v>2</v>
+      </c>
+      <c r="AY295">
+        <v>11</v>
+      </c>
+      <c r="AZ295">
+        <v>8</v>
+      </c>
+      <c r="BA295">
+        <v>4</v>
+      </c>
+      <c r="BB295">
+        <v>9</v>
+      </c>
+      <c r="BC295">
+        <v>13</v>
+      </c>
+      <c r="BD295">
+        <v>4.25</v>
+      </c>
+      <c r="BE295">
+        <v>10</v>
+      </c>
+      <c r="BF295">
+        <v>1.28</v>
+      </c>
+      <c r="BG295">
+        <v>1.22</v>
+      </c>
+      <c r="BH295">
+        <v>3.6</v>
+      </c>
+      <c r="BI295">
+        <v>1.38</v>
+      </c>
+      <c r="BJ295">
+        <v>2.63</v>
+      </c>
+      <c r="BK295">
+        <v>1.71</v>
+      </c>
+      <c r="BL295">
+        <v>2.14</v>
+      </c>
+      <c r="BM295">
+        <v>2.08</v>
+      </c>
+      <c r="BN295">
+        <v>1.75</v>
+      </c>
+      <c r="BO295">
+        <v>2.65</v>
+      </c>
+      <c r="BP295">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6680980</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>83</v>
+      </c>
+      <c r="H296" t="s">
+        <v>77</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>3</v>
+      </c>
+      <c r="N296">
+        <v>3</v>
+      </c>
+      <c r="O296" t="s">
+        <v>94</v>
+      </c>
+      <c r="P296" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q296">
+        <v>4.68</v>
+      </c>
+      <c r="R296">
+        <v>2.44</v>
+      </c>
+      <c r="S296">
+        <v>2.37</v>
+      </c>
+      <c r="T296">
+        <v>1.34</v>
+      </c>
+      <c r="U296">
+        <v>3.36</v>
+      </c>
+      <c r="V296">
+        <v>2.59</v>
+      </c>
+      <c r="W296">
+        <v>1.52</v>
+      </c>
+      <c r="X296">
+        <v>5.9</v>
+      </c>
+      <c r="Y296">
+        <v>1.11</v>
+      </c>
+      <c r="Z296">
+        <v>3.9</v>
+      </c>
+      <c r="AA296">
+        <v>3.8</v>
+      </c>
+      <c r="AB296">
+        <v>1.75</v>
+      </c>
+      <c r="AC296">
+        <v>1.01</v>
+      </c>
+      <c r="AD296">
+        <v>10.5</v>
+      </c>
+      <c r="AE296">
+        <v>1.19</v>
+      </c>
+      <c r="AF296">
+        <v>3.98</v>
+      </c>
+      <c r="AG296">
+        <v>1.65</v>
+      </c>
+      <c r="AH296">
+        <v>2.15</v>
+      </c>
+      <c r="AI296">
+        <v>1.65</v>
+      </c>
+      <c r="AJ296">
+        <v>2.16</v>
+      </c>
+      <c r="AK296">
+        <v>2.02</v>
+      </c>
+      <c r="AL296">
+        <v>1.26</v>
+      </c>
+      <c r="AM296">
+        <v>1.23</v>
+      </c>
+      <c r="AN296">
+        <v>1.56</v>
+      </c>
+      <c r="AO296">
+        <v>1.63</v>
+      </c>
+      <c r="AP296">
+        <v>1.47</v>
+      </c>
+      <c r="AQ296">
+        <v>1.71</v>
+      </c>
+      <c r="AR296">
+        <v>1.92</v>
+      </c>
+      <c r="AS296">
+        <v>1.49</v>
+      </c>
+      <c r="AT296">
+        <v>3.41</v>
+      </c>
+      <c r="AU296">
+        <v>5</v>
+      </c>
+      <c r="AV296">
+        <v>5</v>
+      </c>
+      <c r="AW296">
+        <v>6</v>
+      </c>
+      <c r="AX296">
+        <v>8</v>
+      </c>
+      <c r="AY296">
+        <v>11</v>
+      </c>
+      <c r="AZ296">
+        <v>13</v>
+      </c>
+      <c r="BA296">
+        <v>3</v>
+      </c>
+      <c r="BB296">
+        <v>3</v>
+      </c>
+      <c r="BC296">
+        <v>6</v>
+      </c>
+      <c r="BD296">
+        <v>2.75</v>
+      </c>
+      <c r="BE296">
+        <v>8</v>
+      </c>
+      <c r="BF296">
+        <v>1.61</v>
+      </c>
+      <c r="BG296">
+        <v>1.25</v>
+      </c>
+      <c r="BH296">
+        <v>3.35</v>
+      </c>
+      <c r="BI296">
+        <v>1.46</v>
+      </c>
+      <c r="BJ296">
+        <v>2.43</v>
+      </c>
+      <c r="BK296">
+        <v>1.78</v>
+      </c>
+      <c r="BL296">
+        <v>2.04</v>
+      </c>
+      <c r="BM296">
+        <v>2.2</v>
+      </c>
+      <c r="BN296">
+        <v>1.68</v>
+      </c>
+      <c r="BO296">
+        <v>2.95</v>
+      </c>
+      <c r="BP296">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6680981</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>75</v>
+      </c>
+      <c r="H297" t="s">
+        <v>76</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>3</v>
+      </c>
+      <c r="N297">
+        <v>5</v>
+      </c>
+      <c r="O297" t="s">
+        <v>295</v>
+      </c>
+      <c r="P297" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q297">
+        <v>5</v>
+      </c>
+      <c r="R297">
+        <v>2.63</v>
+      </c>
+      <c r="S297">
+        <v>2</v>
+      </c>
+      <c r="T297">
+        <v>1.22</v>
+      </c>
+      <c r="U297">
+        <v>4</v>
+      </c>
+      <c r="V297">
+        <v>2.1</v>
+      </c>
+      <c r="W297">
+        <v>1.67</v>
+      </c>
+      <c r="X297">
+        <v>4.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.18</v>
+      </c>
+      <c r="Z297">
+        <v>5.25</v>
+      </c>
+      <c r="AA297">
+        <v>4.75</v>
+      </c>
+      <c r="AB297">
+        <v>1.47</v>
+      </c>
+      <c r="AC297">
+        <v>1.02</v>
+      </c>
+      <c r="AD297">
+        <v>22.5</v>
+      </c>
+      <c r="AE297">
+        <v>1.15</v>
+      </c>
+      <c r="AF297">
+        <v>5.25</v>
+      </c>
+      <c r="AG297">
+        <v>1.41</v>
+      </c>
+      <c r="AH297">
+        <v>2.63</v>
+      </c>
+      <c r="AI297">
+        <v>1.53</v>
+      </c>
+      <c r="AJ297">
+        <v>2.38</v>
+      </c>
+      <c r="AK297">
+        <v>2.53</v>
+      </c>
+      <c r="AL297">
+        <v>1.19</v>
+      </c>
+      <c r="AM297">
+        <v>1.15</v>
+      </c>
+      <c r="AN297">
+        <v>1.75</v>
+      </c>
+      <c r="AO297">
+        <v>2.44</v>
+      </c>
+      <c r="AP297">
+        <v>1.65</v>
+      </c>
+      <c r="AQ297">
+        <v>2.47</v>
+      </c>
+      <c r="AR297">
+        <v>1.63</v>
+      </c>
+      <c r="AS297">
+        <v>1.85</v>
+      </c>
+      <c r="AT297">
+        <v>3.48</v>
+      </c>
+      <c r="AU297">
+        <v>7</v>
+      </c>
+      <c r="AV297">
+        <v>7</v>
+      </c>
+      <c r="AW297">
+        <v>4</v>
+      </c>
+      <c r="AX297">
+        <v>9</v>
+      </c>
+      <c r="AY297">
+        <v>11</v>
+      </c>
+      <c r="AZ297">
+        <v>16</v>
+      </c>
+      <c r="BA297">
+        <v>7</v>
+      </c>
+      <c r="BB297">
+        <v>9</v>
+      </c>
+      <c r="BC297">
+        <v>16</v>
+      </c>
+      <c r="BD297">
+        <v>3.9</v>
+      </c>
+      <c r="BE297">
+        <v>9.5</v>
+      </c>
+      <c r="BF297">
+        <v>1.35</v>
+      </c>
+      <c r="BG297">
+        <v>1.18</v>
+      </c>
+      <c r="BH297">
+        <v>4.5</v>
+      </c>
+      <c r="BI297">
+        <v>1.27</v>
+      </c>
+      <c r="BJ297">
+        <v>3.15</v>
+      </c>
+      <c r="BK297">
+        <v>1.6</v>
+      </c>
+      <c r="BL297">
+        <v>2.32</v>
+      </c>
+      <c r="BM297">
+        <v>1.95</v>
+      </c>
+      <c r="BN297">
+        <v>1.85</v>
+      </c>
+      <c r="BO297">
+        <v>2.37</v>
+      </c>
+      <c r="BP297">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6680982</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45424.39583333334</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>87</v>
+      </c>
+      <c r="H298" t="s">
+        <v>74</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298" t="s">
+        <v>296</v>
+      </c>
+      <c r="P298" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q298">
+        <v>2.2</v>
+      </c>
+      <c r="R298">
+        <v>2.5</v>
+      </c>
+      <c r="S298">
+        <v>4.33</v>
+      </c>
+      <c r="T298">
+        <v>1.25</v>
+      </c>
+      <c r="U298">
+        <v>3.75</v>
+      </c>
+      <c r="V298">
+        <v>2.2</v>
+      </c>
+      <c r="W298">
+        <v>1.62</v>
+      </c>
+      <c r="X298">
+        <v>5</v>
+      </c>
+      <c r="Y298">
+        <v>1.17</v>
+      </c>
+      <c r="Z298">
+        <v>1.7</v>
+      </c>
+      <c r="AA298">
+        <v>4</v>
+      </c>
+      <c r="AB298">
+        <v>4</v>
+      </c>
+      <c r="AC298">
+        <v>1.03</v>
+      </c>
+      <c r="AD298">
+        <v>13</v>
+      </c>
+      <c r="AE298">
+        <v>1.15</v>
+      </c>
+      <c r="AF298">
+        <v>4.75</v>
+      </c>
+      <c r="AG298">
+        <v>1.55</v>
+      </c>
+      <c r="AH298">
+        <v>2.3</v>
+      </c>
+      <c r="AI298">
+        <v>1.53</v>
+      </c>
+      <c r="AJ298">
+        <v>2.38</v>
+      </c>
+      <c r="AK298">
+        <v>1.22</v>
+      </c>
+      <c r="AL298">
+        <v>1.23</v>
+      </c>
+      <c r="AM298">
+        <v>2.11</v>
+      </c>
+      <c r="AN298">
+        <v>1.06</v>
+      </c>
+      <c r="AO298">
+        <v>1.06</v>
+      </c>
+      <c r="AP298">
+        <v>1.06</v>
+      </c>
+      <c r="AQ298">
+        <v>1.06</v>
+      </c>
+      <c r="AR298">
+        <v>1.25</v>
+      </c>
+      <c r="AS298">
+        <v>1.15</v>
+      </c>
+      <c r="AT298">
+        <v>2.4</v>
+      </c>
+      <c r="AU298">
+        <v>6</v>
+      </c>
+      <c r="AV298">
+        <v>12</v>
+      </c>
+      <c r="AW298">
+        <v>16</v>
+      </c>
+      <c r="AX298">
+        <v>4</v>
+      </c>
+      <c r="AY298">
+        <v>22</v>
+      </c>
+      <c r="AZ298">
+        <v>16</v>
+      </c>
+      <c r="BA298">
+        <v>10</v>
+      </c>
+      <c r="BB298">
+        <v>5</v>
+      </c>
+      <c r="BC298">
+        <v>15</v>
+      </c>
+      <c r="BD298">
+        <v>1.54</v>
+      </c>
+      <c r="BE298">
+        <v>7</v>
+      </c>
+      <c r="BF298">
+        <v>2.95</v>
+      </c>
+      <c r="BG298">
+        <v>1.16</v>
+      </c>
+      <c r="BH298">
+        <v>4.3</v>
+      </c>
+      <c r="BI298">
+        <v>1.38</v>
+      </c>
+      <c r="BJ298">
+        <v>2.63</v>
+      </c>
+      <c r="BK298">
+        <v>1.65</v>
+      </c>
+      <c r="BL298">
+        <v>2.25</v>
+      </c>
+      <c r="BM298">
+        <v>2.02</v>
+      </c>
+      <c r="BN298">
+        <v>1.8</v>
+      </c>
+      <c r="BO298">
+        <v>2.62</v>
+      </c>
+      <c r="BP298">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="460">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -907,6 +907,24 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['44', '82', '86']</t>
+  </si>
+  <si>
+    <t>['57', '73']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['15', '16', '37']</t>
+  </si>
+  <si>
+    <t>['48', '63', '75', '86']</t>
+  </si>
+  <si>
+    <t>['15', '78']</t>
+  </si>
+  <si>
     <t>['60', '86']</t>
   </si>
   <si>
@@ -1013,9 +1031,6 @@
   </si>
   <si>
     <t>['59']</t>
-  </si>
-  <si>
-    <t>['45+2']</t>
   </si>
   <si>
     <t>['21', '54']</t>
@@ -1364,6 +1379,21 @@
   </si>
   <si>
     <t>['45', '57', '87']</t>
+  </si>
+  <si>
+    <t>['59', '80']</t>
+  </si>
+  <si>
+    <t>['16', '88']</t>
+  </si>
+  <si>
+    <t>['55', '71', '81']</t>
+  </si>
+  <si>
+    <t>['32', '45+2', '63', '80']</t>
+  </si>
+  <si>
+    <t>['42', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1984,7 +2014,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -2062,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ2">
         <v>0.71</v>
@@ -2271,7 +2301,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2396,7 +2426,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q4">
         <v>2.25</v>
@@ -2477,7 +2507,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ4">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2602,7 +2632,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q5">
         <v>1.5</v>
@@ -2808,7 +2838,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2886,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ6">
         <v>1.53</v>
@@ -3014,7 +3044,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -3095,7 +3125,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ7">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3298,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ8">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3426,7 +3456,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q9">
         <v>1.83</v>
@@ -3504,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3632,7 +3662,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3710,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3916,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4044,7 +4074,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4125,7 +4155,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4250,7 +4280,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4328,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ13">
         <v>2.47</v>
@@ -4456,7 +4486,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4868,7 +4898,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4949,7 +4979,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5074,7 +5104,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -5152,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ17">
         <v>2.47</v>
@@ -5280,7 +5310,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q18">
         <v>1.83</v>
@@ -5486,7 +5516,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5773,7 +5803,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ20">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR20">
         <v>1.35</v>
@@ -5898,7 +5928,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5979,7 +6009,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ21">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -6182,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
         <v>2.24</v>
@@ -6388,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ23">
         <v>1.06</v>
@@ -6516,7 +6546,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6722,7 +6752,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6800,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -6928,7 +6958,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -7006,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ26">
         <v>1.06</v>
@@ -7134,7 +7164,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7215,7 +7245,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -7340,7 +7370,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q28">
         <v>6.5</v>
@@ -7624,10 +7654,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR29">
         <v>1.84</v>
@@ -7752,7 +7782,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -8039,7 +8069,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ31">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR31">
         <v>2.23</v>
@@ -8164,7 +8194,7 @@
         <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8242,10 +8272,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ32">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -8370,7 +8400,7 @@
         <v>94</v>
       </c>
       <c r="P33" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8448,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ33">
         <v>1.71</v>
@@ -8654,10 +8684,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
         <v>2.72</v>
@@ -8782,7 +8812,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8860,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ35">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR35">
         <v>0.84</v>
@@ -9069,7 +9099,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR36">
         <v>2.15</v>
@@ -9194,7 +9224,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -9400,7 +9430,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9478,10 +9508,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR38">
         <v>1.71</v>
@@ -9606,7 +9636,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9684,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9812,7 +9842,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -9893,7 +9923,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -10302,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ42">
         <v>1.53</v>
@@ -10511,7 +10541,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ43">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR43">
         <v>1.76</v>
@@ -10636,7 +10666,7 @@
         <v>122</v>
       </c>
       <c r="P44" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10714,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ44">
         <v>0.65</v>
@@ -10923,7 +10953,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -11048,7 +11078,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -11126,7 +11156,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ46">
         <v>2.47</v>
@@ -11254,7 +11284,7 @@
         <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -11335,7 +11365,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR47">
         <v>2.07</v>
@@ -11538,7 +11568,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ48">
         <v>0.71</v>
@@ -11747,7 +11777,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ49">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR49">
         <v>0.99</v>
@@ -11872,7 +11902,7 @@
         <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q50">
         <v>4.75</v>
@@ -11950,7 +11980,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -12078,7 +12108,7 @@
         <v>94</v>
       </c>
       <c r="P51" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12365,7 +12395,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR52">
         <v>2.39</v>
@@ -12774,7 +12804,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ54">
         <v>0.65</v>
@@ -12902,7 +12932,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q55">
         <v>1.53</v>
@@ -12980,10 +13010,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR55">
         <v>2.63</v>
@@ -13108,7 +13138,7 @@
         <v>94</v>
       </c>
       <c r="P56" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -13601,7 +13631,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR58">
         <v>1.79</v>
@@ -13726,7 +13756,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13932,7 +13962,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -14216,7 +14246,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
         <v>1.06</v>
@@ -14422,10 +14452,10 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ62">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR62">
         <v>1.94</v>
@@ -14628,10 +14658,10 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR63">
         <v>1.19</v>
@@ -14756,7 +14786,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14837,7 +14867,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR64">
         <v>1.8</v>
@@ -15040,10 +15070,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ65">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -15452,10 +15482,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ67">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR67">
         <v>1.07</v>
@@ -15580,7 +15610,7 @@
         <v>94</v>
       </c>
       <c r="P68" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -15658,7 +15688,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ68">
         <v>2.47</v>
@@ -15786,7 +15816,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15867,7 +15897,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR69">
         <v>2.08</v>
@@ -15992,7 +16022,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16198,7 +16228,7 @@
         <v>94</v>
       </c>
       <c r="P71" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16276,7 +16306,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ71">
         <v>2.47</v>
@@ -16404,7 +16434,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q72">
         <v>1.44</v>
@@ -16485,7 +16515,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ72">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR72">
         <v>2.81</v>
@@ -16816,7 +16846,7 @@
         <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17100,10 +17130,10 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>1.82</v>
@@ -17306,7 +17336,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ76">
         <v>0.71</v>
@@ -17434,7 +17464,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17515,7 +17545,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
         <v>1.19</v>
@@ -17640,7 +17670,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17718,10 +17748,10 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR78">
         <v>1.56</v>
@@ -17846,7 +17876,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -18336,7 +18366,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ81">
         <v>1.06</v>
@@ -18748,10 +18778,10 @@
         <v>0.25</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ83">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
         <v>1.36</v>
@@ -18954,10 +18984,10 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ84">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -19163,7 +19193,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ85">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR85">
         <v>1.72</v>
@@ -19288,7 +19318,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19494,7 +19524,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q87">
         <v>3.1</v>
@@ -19572,10 +19602,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ87">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR87">
         <v>1.34</v>
@@ -19700,7 +19730,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19781,7 +19811,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ88">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR88">
         <v>2.63</v>
@@ -20112,7 +20142,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q90">
         <v>7.5</v>
@@ -20190,7 +20220,7 @@
         <v>3</v>
       </c>
       <c r="AP90">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
         <v>2.47</v>
@@ -20524,7 +20554,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q92">
         <v>9</v>
@@ -20936,7 +20966,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -21017,7 +21047,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21142,7 +21172,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21426,10 +21456,10 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ96">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR96">
         <v>1.42</v>
@@ -21554,7 +21584,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q97">
         <v>2.3</v>
@@ -21632,7 +21662,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ97">
         <v>1.06</v>
@@ -21841,7 +21871,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
         <v>1.96</v>
@@ -22172,7 +22202,7 @@
         <v>94</v>
       </c>
       <c r="P100" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22253,7 +22283,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR100">
         <v>0.95</v>
@@ -22378,7 +22408,7 @@
         <v>163</v>
       </c>
       <c r="P101" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q101">
         <v>1.8</v>
@@ -22459,7 +22489,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR101">
         <v>1.61</v>
@@ -22584,7 +22614,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22662,10 +22692,10 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22996,7 +23026,7 @@
         <v>128</v>
       </c>
       <c r="P104" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q104">
         <v>3.6</v>
@@ -23074,7 +23104,7 @@
         <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ104">
         <v>1.53</v>
@@ -23202,7 +23232,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q105">
         <v>5.5</v>
@@ -23280,10 +23310,10 @@
         <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ105">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR105">
         <v>1.3</v>
@@ -23486,7 +23516,7 @@
         <v>2.6</v>
       </c>
       <c r="AP106">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ106">
         <v>1.71</v>
@@ -23614,7 +23644,7 @@
         <v>168</v>
       </c>
       <c r="P107" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q107">
         <v>2.38</v>
@@ -23695,7 +23725,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ107">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR107">
         <v>1.39</v>
@@ -23820,7 +23850,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -24107,7 +24137,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ109">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR109">
         <v>1.89</v>
@@ -24232,7 +24262,7 @@
         <v>94</v>
       </c>
       <c r="P110" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24438,7 +24468,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q111">
         <v>2.3</v>
@@ -24516,10 +24546,10 @@
         <v>0.6</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ111">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24850,7 +24880,7 @@
         <v>94</v>
       </c>
       <c r="P113" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24928,7 +24958,7 @@
         <v>0.33</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ113">
         <v>0.65</v>
@@ -25134,7 +25164,7 @@
         <v>0.17</v>
       </c>
       <c r="AP114">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ114">
         <v>0.47</v>
@@ -25343,7 +25373,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -25468,7 +25498,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25546,10 +25576,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
         <v>1.51</v>
@@ -25880,7 +25910,7 @@
         <v>94</v>
       </c>
       <c r="P118" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25958,7 +25988,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ118">
         <v>1.06</v>
@@ -26292,7 +26322,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26373,7 +26403,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ120">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR120">
         <v>1.13</v>
@@ -26576,7 +26606,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
         <v>1.53</v>
@@ -26704,7 +26734,7 @@
         <v>110</v>
       </c>
       <c r="P122" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26782,7 +26812,7 @@
         <v>3</v>
       </c>
       <c r="AP122">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ122">
         <v>2.47</v>
@@ -26910,7 +26940,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q123">
         <v>4.33</v>
@@ -26991,7 +27021,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ123">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -27116,7 +27146,7 @@
         <v>109</v>
       </c>
       <c r="P124" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27197,7 +27227,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ124">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR124">
         <v>2.09</v>
@@ -27322,7 +27352,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27528,7 +27558,7 @@
         <v>136</v>
       </c>
       <c r="P126" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27606,10 +27636,10 @@
         <v>0.6</v>
       </c>
       <c r="AP126">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR126">
         <v>1.81</v>
@@ -27734,7 +27764,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27815,7 +27845,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ127">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR127">
         <v>1.22</v>
@@ -28021,7 +28051,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR128">
         <v>2.59</v>
@@ -28146,7 +28176,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q129">
         <v>1.33</v>
@@ -28224,7 +28254,7 @@
         <v>0.14</v>
       </c>
       <c r="AP129">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ129">
         <v>0.47</v>
@@ -28352,7 +28382,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28433,7 +28463,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ130">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR130">
         <v>1.62</v>
@@ -28764,7 +28794,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28842,10 +28872,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR132">
         <v>1.5</v>
@@ -28970,7 +29000,7 @@
         <v>186</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q133">
         <v>1.62</v>
@@ -29048,7 +29078,7 @@
         <v>1.14</v>
       </c>
       <c r="AP133">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ133">
         <v>1.06</v>
@@ -29176,7 +29206,7 @@
         <v>94</v>
       </c>
       <c r="P134" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29257,7 +29287,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR134">
         <v>2.09</v>
@@ -29463,7 +29493,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ135">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR135">
         <v>1.76</v>
@@ -29666,7 +29696,7 @@
         <v>0.71</v>
       </c>
       <c r="AP136">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ136">
         <v>0.65</v>
@@ -29875,7 +29905,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ137">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -30081,7 +30111,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ138">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -30287,7 +30317,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR139">
         <v>1.45</v>
@@ -30412,7 +30442,7 @@
         <v>131</v>
       </c>
       <c r="P140" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q140">
         <v>1.83</v>
@@ -30696,7 +30726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ141">
         <v>0.71</v>
@@ -30824,7 +30854,7 @@
         <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q142">
         <v>4.5</v>
@@ -30902,10 +30932,10 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -31030,7 +31060,7 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q143">
         <v>8.5</v>
@@ -31108,7 +31138,7 @@
         <v>2.29</v>
       </c>
       <c r="AP143">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143">
         <v>2.47</v>
@@ -31236,7 +31266,7 @@
         <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31442,7 +31472,7 @@
         <v>94</v>
       </c>
       <c r="P145" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31520,7 +31550,7 @@
         <v>3</v>
       </c>
       <c r="AP145">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ145">
         <v>2.47</v>
@@ -31648,7 +31678,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31854,7 +31884,7 @@
         <v>94</v>
       </c>
       <c r="P147" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -32266,7 +32296,7 @@
         <v>197</v>
       </c>
       <c r="P149" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q149">
         <v>3.25</v>
@@ -32344,10 +32374,10 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR149">
         <v>1.49</v>
@@ -32553,7 +32583,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ150">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR150">
         <v>2.61</v>
@@ -32678,7 +32708,7 @@
         <v>94</v>
       </c>
       <c r="P151" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q151">
         <v>3.1</v>
@@ -32756,7 +32786,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ151">
         <v>1.06</v>
@@ -32884,7 +32914,7 @@
         <v>199</v>
       </c>
       <c r="P152" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -32965,7 +32995,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ152">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR152">
         <v>2.12</v>
@@ -33168,10 +33198,10 @@
         <v>1.25</v>
       </c>
       <c r="AP153">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR153">
         <v>1.48</v>
@@ -33296,7 +33326,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q154">
         <v>1.5</v>
@@ -33374,10 +33404,10 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR154">
         <v>2.33</v>
@@ -33583,7 +33613,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1.41</v>
@@ -33789,7 +33819,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ156">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR156">
         <v>1.45</v>
@@ -33992,7 +34022,7 @@
         <v>0.44</v>
       </c>
       <c r="AP157">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157">
         <v>0.47</v>
@@ -34120,7 +34150,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q158">
         <v>1.8</v>
@@ -34198,7 +34228,7 @@
         <v>1.38</v>
       </c>
       <c r="AP158">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -34326,7 +34356,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q159">
         <v>6.5</v>
@@ -34532,7 +34562,7 @@
         <v>204</v>
       </c>
       <c r="P160" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q160">
         <v>8</v>
@@ -34610,7 +34640,7 @@
         <v>2.38</v>
       </c>
       <c r="AP160">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ160">
         <v>2.47</v>
@@ -34738,7 +34768,7 @@
         <v>94</v>
       </c>
       <c r="P161" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34816,10 +34846,10 @@
         <v>0.88</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ161">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR161">
         <v>1.59</v>
@@ -34944,7 +34974,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q162">
         <v>1.67</v>
@@ -35025,7 +35055,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR162">
         <v>1.97</v>
@@ -35228,10 +35258,10 @@
         <v>0.25</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ163">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR163">
         <v>1.41</v>
@@ -35434,7 +35464,7 @@
         <v>0.67</v>
       </c>
       <c r="AP164">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ164">
         <v>0.71</v>
@@ -35974,7 +36004,7 @@
         <v>131</v>
       </c>
       <c r="P167" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -36055,7 +36085,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ167">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR167">
         <v>1.47</v>
@@ -36180,7 +36210,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q168">
         <v>5.5</v>
@@ -36258,10 +36288,10 @@
         <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR168">
         <v>1.32</v>
@@ -36386,7 +36416,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q169">
         <v>3.75</v>
@@ -36670,10 +36700,10 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ170">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR170">
         <v>2.34</v>
@@ -36798,7 +36828,7 @@
         <v>210</v>
       </c>
       <c r="P171" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36879,7 +36909,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ171">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR171">
         <v>2.16</v>
@@ -37082,10 +37112,10 @@
         <v>0.33</v>
       </c>
       <c r="AP172">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ172">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR172">
         <v>1.42</v>
@@ -37288,10 +37318,10 @@
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ173">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR173">
         <v>1.36</v>
@@ -37497,7 +37527,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ174">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR174">
         <v>1.79</v>
@@ -37622,7 +37652,7 @@
         <v>213</v>
       </c>
       <c r="P175" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37703,7 +37733,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.81</v>
@@ -37828,7 +37858,7 @@
         <v>99</v>
       </c>
       <c r="P176" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q176">
         <v>3.5</v>
@@ -38240,7 +38270,7 @@
         <v>94</v>
       </c>
       <c r="P178" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38318,10 +38348,10 @@
         <v>1.11</v>
       </c>
       <c r="AP178">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ178">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR178">
         <v>1.38</v>
@@ -38524,7 +38554,7 @@
         <v>2.44</v>
       </c>
       <c r="AP179">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ179">
         <v>2.47</v>
@@ -38652,7 +38682,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q180">
         <v>1.83</v>
@@ -38858,7 +38888,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38936,7 +38966,7 @@
         <v>1.33</v>
       </c>
       <c r="AP181">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ181">
         <v>1.06</v>
@@ -39145,7 +39175,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ182">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR182">
         <v>1.27</v>
@@ -39270,7 +39300,7 @@
         <v>94</v>
       </c>
       <c r="P183" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q183">
         <v>5.5</v>
@@ -39351,7 +39381,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ183">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR183">
         <v>1.44</v>
@@ -39554,7 +39584,7 @@
         <v>1.67</v>
       </c>
       <c r="AP184">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ184">
         <v>1.71</v>
@@ -39682,7 +39712,7 @@
         <v>217</v>
       </c>
       <c r="P185" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q185">
         <v>2.75</v>
@@ -39760,7 +39790,7 @@
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ185">
         <v>0.71</v>
@@ -39888,7 +39918,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q186">
         <v>2.3</v>
@@ -40175,7 +40205,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ187">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR187">
         <v>1.58</v>
@@ -40300,7 +40330,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q188">
         <v>4.33</v>
@@ -40381,7 +40411,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ188">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR188">
         <v>1.78</v>
@@ -40506,7 +40536,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q189">
         <v>15</v>
@@ -40584,7 +40614,7 @@
         <v>2.6</v>
       </c>
       <c r="AP189">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ189">
         <v>2.47</v>
@@ -40790,7 +40820,7 @@
         <v>1.7</v>
       </c>
       <c r="AP190">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ190">
         <v>1.53</v>
@@ -41124,7 +41154,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q192">
         <v>2.38</v>
@@ -41202,10 +41232,10 @@
         <v>0.9</v>
       </c>
       <c r="AP192">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ192">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -41330,7 +41360,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q193">
         <v>4.33</v>
@@ -41536,7 +41566,7 @@
         <v>94</v>
       </c>
       <c r="P194" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q194">
         <v>2.6</v>
@@ -41617,7 +41647,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ194">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR194">
         <v>1.75</v>
@@ -41820,7 +41850,7 @@
         <v>1.1</v>
       </c>
       <c r="AP195">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ195">
         <v>1.06</v>
@@ -42029,7 +42059,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ196">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR196">
         <v>1.85</v>
@@ -42154,7 +42184,7 @@
         <v>226</v>
       </c>
       <c r="P197" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q197">
         <v>1.83</v>
@@ -42235,7 +42265,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ197">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR197">
         <v>1.91</v>
@@ -42438,7 +42468,7 @@
         <v>0.45</v>
       </c>
       <c r="AP198">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ198">
         <v>0.47</v>
@@ -42644,10 +42674,10 @@
         <v>0.7</v>
       </c>
       <c r="AP199">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ199">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR199">
         <v>2.31</v>
@@ -43059,7 +43089,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ201">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR201">
         <v>1.27</v>
@@ -43184,7 +43214,7 @@
         <v>104</v>
       </c>
       <c r="P202" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q202">
         <v>7.5</v>
@@ -43262,7 +43292,7 @@
         <v>2.64</v>
       </c>
       <c r="AP202">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ202">
         <v>2.47</v>
@@ -43596,7 +43626,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q204">
         <v>2.75</v>
@@ -43883,7 +43913,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ205">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR205">
         <v>1.79</v>
@@ -44008,7 +44038,7 @@
         <v>94</v>
       </c>
       <c r="P206" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q206">
         <v>8.5</v>
@@ -44086,7 +44116,7 @@
         <v>2.5</v>
       </c>
       <c r="AP206">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ206">
         <v>2.47</v>
@@ -44292,10 +44322,10 @@
         <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ207">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR207">
         <v>1.71</v>
@@ -44420,7 +44450,7 @@
         <v>94</v>
       </c>
       <c r="P208" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44498,10 +44528,10 @@
         <v>0.73</v>
       </c>
       <c r="AP208">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR208">
         <v>1.34</v>
@@ -44626,7 +44656,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44704,10 +44734,10 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ209">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR209">
         <v>1.33</v>
@@ -44913,7 +44943,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ210">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR210">
         <v>2.05</v>
@@ -45038,7 +45068,7 @@
         <v>234</v>
       </c>
       <c r="P211" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q211">
         <v>6.13</v>
@@ -45116,10 +45146,10 @@
         <v>1.73</v>
       </c>
       <c r="AP211">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ211">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR211">
         <v>1.48</v>
@@ -45322,7 +45352,7 @@
         <v>1.73</v>
       </c>
       <c r="AP212">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ212">
         <v>1.71</v>
@@ -45531,7 +45561,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ213">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR213">
         <v>1.84</v>
@@ -45862,7 +45892,7 @@
         <v>238</v>
       </c>
       <c r="P215" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q215">
         <v>2.6</v>
@@ -46068,7 +46098,7 @@
         <v>239</v>
       </c>
       <c r="P216" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q216">
         <v>2.5</v>
@@ -46149,7 +46179,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ216">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR216">
         <v>1.72</v>
@@ -46274,7 +46304,7 @@
         <v>240</v>
       </c>
       <c r="P217" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q217">
         <v>3.1</v>
@@ -46352,7 +46382,7 @@
         <v>1.27</v>
       </c>
       <c r="AP217">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ217">
         <v>1.06</v>
@@ -46892,7 +46922,7 @@
         <v>242</v>
       </c>
       <c r="P220" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q220">
         <v>4.2</v>
@@ -46970,10 +47000,10 @@
         <v>1.25</v>
       </c>
       <c r="AP220">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ220">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR220">
         <v>1.32</v>
@@ -47098,7 +47128,7 @@
         <v>243</v>
       </c>
       <c r="P221" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q221">
         <v>2.81</v>
@@ -47382,10 +47412,10 @@
         <v>0.75</v>
       </c>
       <c r="AP222">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ222">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR222">
         <v>1.67</v>
@@ -47510,7 +47540,7 @@
         <v>245</v>
       </c>
       <c r="P223" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q223">
         <v>2.05</v>
@@ -47588,7 +47618,7 @@
         <v>0.5</v>
       </c>
       <c r="AP223">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ223">
         <v>0.47</v>
@@ -47716,7 +47746,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q224">
         <v>1.95</v>
@@ -47797,7 +47827,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ224">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR224">
         <v>1.83</v>
@@ -48003,7 +48033,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ225">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR225">
         <v>1.69</v>
@@ -48206,7 +48236,7 @@
         <v>0.67</v>
       </c>
       <c r="AP226">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ226">
         <v>0.65</v>
@@ -48412,10 +48442,10 @@
         <v>1.33</v>
       </c>
       <c r="AP227">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ227">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR227">
         <v>1.44</v>
@@ -48540,7 +48570,7 @@
         <v>250</v>
       </c>
       <c r="P228" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q228">
         <v>2.4</v>
@@ -48827,7 +48857,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ229">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR229">
         <v>1.44</v>
@@ -49030,7 +49060,7 @@
         <v>1.25</v>
       </c>
       <c r="AP230">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ230">
         <v>1.06</v>
@@ -49158,7 +49188,7 @@
         <v>94</v>
       </c>
       <c r="P231" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q231">
         <v>8.5</v>
@@ -49236,7 +49266,7 @@
         <v>1.67</v>
       </c>
       <c r="AP231">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ231">
         <v>1.71</v>
@@ -49445,7 +49475,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ232">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR232">
         <v>1.61</v>
@@ -49570,7 +49600,7 @@
         <v>251</v>
       </c>
       <c r="P233" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -49776,7 +49806,7 @@
         <v>252</v>
       </c>
       <c r="P234" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -49854,10 +49884,10 @@
         <v>1.25</v>
       </c>
       <c r="AP234">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ234">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR234">
         <v>1.68</v>
@@ -50063,7 +50093,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ235">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR235">
         <v>2.66</v>
@@ -50188,7 +50218,7 @@
         <v>253</v>
       </c>
       <c r="P236" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q236">
         <v>5.5</v>
@@ -50472,10 +50502,10 @@
         <v>0.77</v>
       </c>
       <c r="AP237">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ237">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR237">
         <v>1.63</v>
@@ -50681,7 +50711,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ238">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR238">
         <v>2</v>
@@ -50887,7 +50917,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ239">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR239">
         <v>1.25</v>
@@ -51090,7 +51120,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP240">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ240">
         <v>0.71</v>
@@ -51218,7 +51248,7 @@
         <v>96</v>
       </c>
       <c r="P241" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q241">
         <v>4.33</v>
@@ -51296,10 +51326,10 @@
         <v>1.23</v>
       </c>
       <c r="AP241">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ241">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR241">
         <v>1.48</v>
@@ -51424,7 +51454,7 @@
         <v>257</v>
       </c>
       <c r="P242" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q242">
         <v>1.73</v>
@@ -51502,10 +51532,10 @@
         <v>1.23</v>
       </c>
       <c r="AP242">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ242">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR242">
         <v>2.36</v>
@@ -51836,7 +51866,7 @@
         <v>109</v>
       </c>
       <c r="P244" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q244">
         <v>2</v>
@@ -51914,7 +51944,7 @@
         <v>0.54</v>
       </c>
       <c r="AP244">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ244">
         <v>0.47</v>
@@ -52042,7 +52072,7 @@
         <v>259</v>
       </c>
       <c r="P245" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q245">
         <v>3.1</v>
@@ -52120,7 +52150,7 @@
         <v>1.31</v>
       </c>
       <c r="AP245">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ245">
         <v>1.53</v>
@@ -52248,7 +52278,7 @@
         <v>94</v>
       </c>
       <c r="P246" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q246">
         <v>12</v>
@@ -52454,7 +52484,7 @@
         <v>185</v>
       </c>
       <c r="P247" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52535,7 +52565,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ247">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR247">
         <v>1.8</v>
@@ -52738,7 +52768,7 @@
         <v>1.77</v>
       </c>
       <c r="AP248">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ248">
         <v>1.71</v>
@@ -52866,7 +52896,7 @@
         <v>261</v>
       </c>
       <c r="P249" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -53072,7 +53102,7 @@
         <v>262</v>
       </c>
       <c r="P250" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -53153,7 +53183,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ250">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR250">
         <v>1.68</v>
@@ -53356,7 +53386,7 @@
         <v>2.46</v>
       </c>
       <c r="AP251">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ251">
         <v>2.47</v>
@@ -53771,7 +53801,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ253">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR253">
         <v>1.85</v>
@@ -53896,7 +53926,7 @@
         <v>263</v>
       </c>
       <c r="P254" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q254">
         <v>2.3</v>
@@ -53974,7 +54004,7 @@
         <v>0.57</v>
       </c>
       <c r="AP254">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ254">
         <v>0.65</v>
@@ -54102,7 +54132,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q255">
         <v>1.83</v>
@@ -54308,7 +54338,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q256">
         <v>2.75</v>
@@ -54386,10 +54416,10 @@
         <v>0.64</v>
       </c>
       <c r="AP256">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR256">
         <v>1.47</v>
@@ -54595,7 +54625,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ257">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR257">
         <v>1.78</v>
@@ -54720,7 +54750,7 @@
         <v>94</v>
       </c>
       <c r="P258" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q258">
         <v>3.4</v>
@@ -54798,10 +54828,10 @@
         <v>1.14</v>
       </c>
       <c r="AP258">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ258">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR258">
         <v>1.51</v>
@@ -55210,10 +55240,10 @@
         <v>1.36</v>
       </c>
       <c r="AP260">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ260">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR260">
         <v>2.4</v>
@@ -55338,7 +55368,7 @@
         <v>269</v>
       </c>
       <c r="P261" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55416,10 +55446,10 @@
         <v>0.62</v>
       </c>
       <c r="AP261">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ261">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR261">
         <v>1.27</v>
@@ -55544,7 +55574,7 @@
         <v>270</v>
       </c>
       <c r="P262" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q262">
         <v>2.7</v>
@@ -55625,7 +55655,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ262">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR262">
         <v>1.64</v>
@@ -56162,7 +56192,7 @@
         <v>273</v>
       </c>
       <c r="P265" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q265">
         <v>1.74</v>
@@ -56240,10 +56270,10 @@
         <v>0.57</v>
       </c>
       <c r="AP265">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ265">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
         <v>1.7</v>
@@ -56368,7 +56398,7 @@
         <v>274</v>
       </c>
       <c r="P266" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q266">
         <v>3.1</v>
@@ -56446,7 +56476,7 @@
         <v>1.43</v>
       </c>
       <c r="AP266">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ266">
         <v>1.53</v>
@@ -56574,7 +56604,7 @@
         <v>94</v>
       </c>
       <c r="P267" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q267">
         <v>3.25</v>
@@ -56652,10 +56682,10 @@
         <v>0.86</v>
       </c>
       <c r="AP267">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ267">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR267">
         <v>1.46</v>
@@ -57067,7 +57097,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ269">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR269">
         <v>1.61</v>
@@ -57192,7 +57222,7 @@
         <v>276</v>
       </c>
       <c r="P270" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q270">
         <v>3.1</v>
@@ -57273,7 +57303,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ270">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR270">
         <v>1.87</v>
@@ -57398,7 +57428,7 @@
         <v>277</v>
       </c>
       <c r="P271" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q271">
         <v>2.05</v>
@@ -57810,7 +57840,7 @@
         <v>279</v>
       </c>
       <c r="P273" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q273">
         <v>1.73</v>
@@ -57891,7 +57921,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ273">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR273">
         <v>1.83</v>
@@ -58016,7 +58046,7 @@
         <v>94</v>
       </c>
       <c r="P274" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q274">
         <v>6.5</v>
@@ -58222,7 +58252,7 @@
         <v>280</v>
       </c>
       <c r="P275" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58428,7 +58458,7 @@
         <v>94</v>
       </c>
       <c r="P276" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q276">
         <v>3.75</v>
@@ -58634,7 +58664,7 @@
         <v>281</v>
       </c>
       <c r="P277" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="Q277">
         <v>2.75</v>
@@ -58712,7 +58742,7 @@
         <v>0.73</v>
       </c>
       <c r="AP277">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ277">
         <v>0.65</v>
@@ -58918,7 +58948,7 @@
         <v>0.53</v>
       </c>
       <c r="AP278">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ278">
         <v>0.47</v>
@@ -59046,7 +59076,7 @@
         <v>282</v>
       </c>
       <c r="P279" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q279">
         <v>3.5</v>
@@ -59127,7 +59157,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ279">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR279">
         <v>1.24</v>
@@ -59252,7 +59282,7 @@
         <v>283</v>
       </c>
       <c r="P280" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q280">
         <v>4</v>
@@ -59330,10 +59360,10 @@
         <v>0.67</v>
       </c>
       <c r="AP280">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ280">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR280">
         <v>1.52</v>
@@ -59539,7 +59569,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ281">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR281">
         <v>1.81</v>
@@ -59742,10 +59772,10 @@
         <v>1</v>
       </c>
       <c r="AP282">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ282">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR282">
         <v>1.34</v>
@@ -59870,7 +59900,7 @@
         <v>285</v>
       </c>
       <c r="P283" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q283">
         <v>1.44</v>
@@ -60076,7 +60106,7 @@
         <v>94</v>
       </c>
       <c r="P284" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q284">
         <v>2.75</v>
@@ -60154,10 +60184,10 @@
         <v>0.53</v>
       </c>
       <c r="AP284">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ284">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR284">
         <v>1.45</v>
@@ -60488,7 +60518,7 @@
         <v>287</v>
       </c>
       <c r="P286" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q286">
         <v>6</v>
@@ -60566,10 +60596,10 @@
         <v>1.27</v>
       </c>
       <c r="AP286">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ286">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR286">
         <v>1.31</v>
@@ -60694,7 +60724,7 @@
         <v>288</v>
       </c>
       <c r="P287" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q287">
         <v>3</v>
@@ -60772,10 +60802,10 @@
         <v>1.53</v>
       </c>
       <c r="AP287">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ287">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR287">
         <v>1.73</v>
@@ -60978,7 +61008,7 @@
         <v>1.13</v>
       </c>
       <c r="AP288">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ288">
         <v>1.06</v>
@@ -61106,7 +61136,7 @@
         <v>94</v>
       </c>
       <c r="P289" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q289">
         <v>3.25</v>
@@ -61187,7 +61217,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ289">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR289">
         <v>1.51</v>
@@ -61312,7 +61342,7 @@
         <v>290</v>
       </c>
       <c r="P290" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q290">
         <v>2.05</v>
@@ -61930,7 +61960,7 @@
         <v>293</v>
       </c>
       <c r="P293" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q293">
         <v>1.3</v>
@@ -62136,7 +62166,7 @@
         <v>94</v>
       </c>
       <c r="P294" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Q294">
         <v>2.3</v>
@@ -62548,7 +62578,7 @@
         <v>94</v>
       </c>
       <c r="P296" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q296">
         <v>4.68</v>
@@ -62754,7 +62784,7 @@
         <v>295</v>
       </c>
       <c r="P297" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -63117,6 +63147,1860 @@
       </c>
       <c r="BP298">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>6680990</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>71</v>
+      </c>
+      <c r="H299" t="s">
+        <v>87</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="L299">
+        <v>3</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299">
+        <v>4</v>
+      </c>
+      <c r="O299" t="s">
+        <v>297</v>
+      </c>
+      <c r="P299" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q299">
+        <v>1.5</v>
+      </c>
+      <c r="R299">
+        <v>3.1</v>
+      </c>
+      <c r="S299">
+        <v>7.5</v>
+      </c>
+      <c r="T299">
+        <v>1.14</v>
+      </c>
+      <c r="U299">
+        <v>5</v>
+      </c>
+      <c r="V299">
+        <v>1.7</v>
+      </c>
+      <c r="W299">
+        <v>2.05</v>
+      </c>
+      <c r="X299">
+        <v>3</v>
+      </c>
+      <c r="Y299">
+        <v>1.33</v>
+      </c>
+      <c r="Z299">
+        <v>1.17</v>
+      </c>
+      <c r="AA299">
+        <v>8</v>
+      </c>
+      <c r="AB299">
+        <v>11</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>57</v>
+      </c>
+      <c r="AE299">
+        <v>1.02</v>
+      </c>
+      <c r="AF299">
+        <v>10.5</v>
+      </c>
+      <c r="AG299">
+        <v>1.21</v>
+      </c>
+      <c r="AH299">
+        <v>4.11</v>
+      </c>
+      <c r="AI299">
+        <v>1.53</v>
+      </c>
+      <c r="AJ299">
+        <v>2.35</v>
+      </c>
+      <c r="AK299">
+        <v>1.04</v>
+      </c>
+      <c r="AL299">
+        <v>1.08</v>
+      </c>
+      <c r="AM299">
+        <v>4.5</v>
+      </c>
+      <c r="AN299">
+        <v>2.88</v>
+      </c>
+      <c r="AO299">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP299">
+        <v>2.88</v>
+      </c>
+      <c r="AQ299">
+        <v>0.65</v>
+      </c>
+      <c r="AR299">
+        <v>2.55</v>
+      </c>
+      <c r="AS299">
+        <v>1.4</v>
+      </c>
+      <c r="AT299">
+        <v>3.95</v>
+      </c>
+      <c r="AU299">
+        <v>8</v>
+      </c>
+      <c r="AV299">
+        <v>2</v>
+      </c>
+      <c r="AW299">
+        <v>5</v>
+      </c>
+      <c r="AX299">
+        <v>2</v>
+      </c>
+      <c r="AY299">
+        <v>13</v>
+      </c>
+      <c r="AZ299">
+        <v>4</v>
+      </c>
+      <c r="BA299">
+        <v>14</v>
+      </c>
+      <c r="BB299">
+        <v>3</v>
+      </c>
+      <c r="BC299">
+        <v>17</v>
+      </c>
+      <c r="BD299">
+        <v>1.22</v>
+      </c>
+      <c r="BE299">
+        <v>11</v>
+      </c>
+      <c r="BF299">
+        <v>5.8</v>
+      </c>
+      <c r="BG299">
+        <v>1.15</v>
+      </c>
+      <c r="BH299">
+        <v>4.5</v>
+      </c>
+      <c r="BI299">
+        <v>1.28</v>
+      </c>
+      <c r="BJ299">
+        <v>3.1</v>
+      </c>
+      <c r="BK299">
+        <v>1.48</v>
+      </c>
+      <c r="BL299">
+        <v>2.35</v>
+      </c>
+      <c r="BM299">
+        <v>1.85</v>
+      </c>
+      <c r="BN299">
+        <v>1.85</v>
+      </c>
+      <c r="BO299">
+        <v>2.25</v>
+      </c>
+      <c r="BP299">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>6680989</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>74</v>
+      </c>
+      <c r="H300" t="s">
+        <v>86</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+      <c r="N300">
+        <v>3</v>
+      </c>
+      <c r="O300" t="s">
+        <v>117</v>
+      </c>
+      <c r="P300" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q300">
+        <v>7.5</v>
+      </c>
+      <c r="R300">
+        <v>2.65</v>
+      </c>
+      <c r="S300">
+        <v>1.62</v>
+      </c>
+      <c r="T300">
+        <v>1.22</v>
+      </c>
+      <c r="U300">
+        <v>3.8</v>
+      </c>
+      <c r="V300">
+        <v>2.05</v>
+      </c>
+      <c r="W300">
+        <v>1.7</v>
+      </c>
+      <c r="X300">
+        <v>4.2</v>
+      </c>
+      <c r="Y300">
+        <v>1.18</v>
+      </c>
+      <c r="Z300">
+        <v>9.5</v>
+      </c>
+      <c r="AA300">
+        <v>5.3</v>
+      </c>
+      <c r="AB300">
+        <v>1.3</v>
+      </c>
+      <c r="AC300">
+        <v>1.02</v>
+      </c>
+      <c r="AD300">
+        <v>26</v>
+      </c>
+      <c r="AE300">
+        <v>1.1</v>
+      </c>
+      <c r="AF300">
+        <v>6</v>
+      </c>
+      <c r="AG300">
+        <v>1.39</v>
+      </c>
+      <c r="AH300">
+        <v>2.86</v>
+      </c>
+      <c r="AI300">
+        <v>1.77</v>
+      </c>
+      <c r="AJ300">
+        <v>1.95</v>
+      </c>
+      <c r="AK300">
+        <v>3.8</v>
+      </c>
+      <c r="AL300">
+        <v>1.12</v>
+      </c>
+      <c r="AM300">
+        <v>1.04</v>
+      </c>
+      <c r="AN300">
+        <v>1.13</v>
+      </c>
+      <c r="AO300">
+        <v>1.44</v>
+      </c>
+      <c r="AP300">
+        <v>1.06</v>
+      </c>
+      <c r="AQ300">
+        <v>1.53</v>
+      </c>
+      <c r="AR300">
+        <v>1.56</v>
+      </c>
+      <c r="AS300">
+        <v>1.39</v>
+      </c>
+      <c r="AT300">
+        <v>2.95</v>
+      </c>
+      <c r="AU300">
+        <v>3</v>
+      </c>
+      <c r="AV300">
+        <v>6</v>
+      </c>
+      <c r="AW300">
+        <v>2</v>
+      </c>
+      <c r="AX300">
+        <v>10</v>
+      </c>
+      <c r="AY300">
+        <v>5</v>
+      </c>
+      <c r="AZ300">
+        <v>16</v>
+      </c>
+      <c r="BA300">
+        <v>1</v>
+      </c>
+      <c r="BB300">
+        <v>12</v>
+      </c>
+      <c r="BC300">
+        <v>13</v>
+      </c>
+      <c r="BD300">
+        <v>4.25</v>
+      </c>
+      <c r="BE300">
+        <v>9.5</v>
+      </c>
+      <c r="BF300">
+        <v>1.33</v>
+      </c>
+      <c r="BG300">
+        <v>1.22</v>
+      </c>
+      <c r="BH300">
+        <v>3.5</v>
+      </c>
+      <c r="BI300">
+        <v>1.42</v>
+      </c>
+      <c r="BJ300">
+        <v>2.91</v>
+      </c>
+      <c r="BK300">
+        <v>1.73</v>
+      </c>
+      <c r="BL300">
+        <v>2</v>
+      </c>
+      <c r="BM300">
+        <v>2.14</v>
+      </c>
+      <c r="BN300">
+        <v>1.6</v>
+      </c>
+      <c r="BO300">
+        <v>2.75</v>
+      </c>
+      <c r="BP300">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>6680988</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>79</v>
+      </c>
+      <c r="H301" t="s">
+        <v>82</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301" t="s">
+        <v>94</v>
+      </c>
+      <c r="P301" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q301">
+        <v>2.88</v>
+      </c>
+      <c r="R301">
+        <v>2.25</v>
+      </c>
+      <c r="S301">
+        <v>3.1</v>
+      </c>
+      <c r="T301">
+        <v>1.28</v>
+      </c>
+      <c r="U301">
+        <v>3.3</v>
+      </c>
+      <c r="V301">
+        <v>2.25</v>
+      </c>
+      <c r="W301">
+        <v>1.57</v>
+      </c>
+      <c r="X301">
+        <v>5</v>
+      </c>
+      <c r="Y301">
+        <v>1.14</v>
+      </c>
+      <c r="Z301">
+        <v>2.35</v>
+      </c>
+      <c r="AA301">
+        <v>3.65</v>
+      </c>
+      <c r="AB301">
+        <v>2.75</v>
+      </c>
+      <c r="AC301">
+        <v>1.04</v>
+      </c>
+      <c r="AD301">
+        <v>10</v>
+      </c>
+      <c r="AE301">
+        <v>1.2</v>
+      </c>
+      <c r="AF301">
+        <v>4.5</v>
+      </c>
+      <c r="AG301">
+        <v>1.54</v>
+      </c>
+      <c r="AH301">
+        <v>2.4</v>
+      </c>
+      <c r="AI301">
+        <v>1.45</v>
+      </c>
+      <c r="AJ301">
+        <v>2.55</v>
+      </c>
+      <c r="AK301">
+        <v>1.45</v>
+      </c>
+      <c r="AL301">
+        <v>1.22</v>
+      </c>
+      <c r="AM301">
+        <v>1.55</v>
+      </c>
+      <c r="AN301">
+        <v>1.31</v>
+      </c>
+      <c r="AO301">
+        <v>0.63</v>
+      </c>
+      <c r="AP301">
+        <v>1.29</v>
+      </c>
+      <c r="AQ301">
+        <v>0.65</v>
+      </c>
+      <c r="AR301">
+        <v>1.48</v>
+      </c>
+      <c r="AS301">
+        <v>1.27</v>
+      </c>
+      <c r="AT301">
+        <v>2.75</v>
+      </c>
+      <c r="AU301">
+        <v>3</v>
+      </c>
+      <c r="AV301">
+        <v>4</v>
+      </c>
+      <c r="AW301">
+        <v>0</v>
+      </c>
+      <c r="AX301">
+        <v>4</v>
+      </c>
+      <c r="AY301">
+        <v>3</v>
+      </c>
+      <c r="AZ301">
+        <v>8</v>
+      </c>
+      <c r="BA301">
+        <v>3</v>
+      </c>
+      <c r="BB301">
+        <v>5</v>
+      </c>
+      <c r="BC301">
+        <v>8</v>
+      </c>
+      <c r="BD301">
+        <v>1.87</v>
+      </c>
+      <c r="BE301">
+        <v>7.5</v>
+      </c>
+      <c r="BF301">
+        <v>2.2</v>
+      </c>
+      <c r="BG301">
+        <v>1.17</v>
+      </c>
+      <c r="BH301">
+        <v>4.2</v>
+      </c>
+      <c r="BI301">
+        <v>1.3</v>
+      </c>
+      <c r="BJ301">
+        <v>2.9</v>
+      </c>
+      <c r="BK301">
+        <v>1.56</v>
+      </c>
+      <c r="BL301">
+        <v>2.2</v>
+      </c>
+      <c r="BM301">
+        <v>1.85</v>
+      </c>
+      <c r="BN301">
+        <v>1.85</v>
+      </c>
+      <c r="BO301">
+        <v>2.4</v>
+      </c>
+      <c r="BP301">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>6680991</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>85</v>
+      </c>
+      <c r="H302" t="s">
+        <v>72</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>2</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302">
+        <v>3</v>
+      </c>
+      <c r="O302" t="s">
+        <v>298</v>
+      </c>
+      <c r="P302" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q302">
+        <v>2.4</v>
+      </c>
+      <c r="R302">
+        <v>2.3</v>
+      </c>
+      <c r="S302">
+        <v>3.8</v>
+      </c>
+      <c r="T302">
+        <v>1.28</v>
+      </c>
+      <c r="U302">
+        <v>3.4</v>
+      </c>
+      <c r="V302">
+        <v>2.2</v>
+      </c>
+      <c r="W302">
+        <v>1.6</v>
+      </c>
+      <c r="X302">
+        <v>4.75</v>
+      </c>
+      <c r="Y302">
+        <v>1.15</v>
+      </c>
+      <c r="Z302">
+        <v>1.95</v>
+      </c>
+      <c r="AA302">
+        <v>3.85</v>
+      </c>
+      <c r="AB302">
+        <v>3.45</v>
+      </c>
+      <c r="AC302">
+        <v>1.03</v>
+      </c>
+      <c r="AD302">
+        <v>12</v>
+      </c>
+      <c r="AE302">
+        <v>1.18</v>
+      </c>
+      <c r="AF302">
+        <v>4.75</v>
+      </c>
+      <c r="AG302">
+        <v>1.47</v>
+      </c>
+      <c r="AH302">
+        <v>2.57</v>
+      </c>
+      <c r="AI302">
+        <v>1.45</v>
+      </c>
+      <c r="AJ302">
+        <v>2.55</v>
+      </c>
+      <c r="AK302">
+        <v>1.28</v>
+      </c>
+      <c r="AL302">
+        <v>1.22</v>
+      </c>
+      <c r="AM302">
+        <v>1.8</v>
+      </c>
+      <c r="AN302">
+        <v>1.25</v>
+      </c>
+      <c r="AO302">
+        <v>1</v>
+      </c>
+      <c r="AP302">
+        <v>1.35</v>
+      </c>
+      <c r="AQ302">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR302">
+        <v>1.61</v>
+      </c>
+      <c r="AS302">
+        <v>1.38</v>
+      </c>
+      <c r="AT302">
+        <v>2.99</v>
+      </c>
+      <c r="AU302">
+        <v>2</v>
+      </c>
+      <c r="AV302">
+        <v>5</v>
+      </c>
+      <c r="AW302">
+        <v>2</v>
+      </c>
+      <c r="AX302">
+        <v>4</v>
+      </c>
+      <c r="AY302">
+        <v>4</v>
+      </c>
+      <c r="AZ302">
+        <v>9</v>
+      </c>
+      <c r="BA302">
+        <v>2</v>
+      </c>
+      <c r="BB302">
+        <v>5</v>
+      </c>
+      <c r="BC302">
+        <v>7</v>
+      </c>
+      <c r="BD302">
+        <v>1.65</v>
+      </c>
+      <c r="BE302">
+        <v>8</v>
+      </c>
+      <c r="BF302">
+        <v>2.63</v>
+      </c>
+      <c r="BG302">
+        <v>1.16</v>
+      </c>
+      <c r="BH302">
+        <v>4.35</v>
+      </c>
+      <c r="BI302">
+        <v>1.3</v>
+      </c>
+      <c r="BJ302">
+        <v>3</v>
+      </c>
+      <c r="BK302">
+        <v>1.54</v>
+      </c>
+      <c r="BL302">
+        <v>2.25</v>
+      </c>
+      <c r="BM302">
+        <v>1.82</v>
+      </c>
+      <c r="BN302">
+        <v>1.98</v>
+      </c>
+      <c r="BO302">
+        <v>2.38</v>
+      </c>
+      <c r="BP302">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>6680986</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>70</v>
+      </c>
+      <c r="H303" t="s">
+        <v>83</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>2</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>299</v>
+      </c>
+      <c r="P303" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q303">
+        <v>4.75</v>
+      </c>
+      <c r="R303">
+        <v>2.55</v>
+      </c>
+      <c r="S303">
+        <v>1.93</v>
+      </c>
+      <c r="T303">
+        <v>1.2</v>
+      </c>
+      <c r="U303">
+        <v>4</v>
+      </c>
+      <c r="V303">
+        <v>1.95</v>
+      </c>
+      <c r="W303">
+        <v>1.77</v>
+      </c>
+      <c r="X303">
+        <v>3.9</v>
+      </c>
+      <c r="Y303">
+        <v>1.22</v>
+      </c>
+      <c r="Z303">
+        <v>5.3</v>
+      </c>
+      <c r="AA303">
+        <v>4.6</v>
+      </c>
+      <c r="AB303">
+        <v>1.5</v>
+      </c>
+      <c r="AC303">
+        <v>1.01</v>
+      </c>
+      <c r="AD303">
+        <v>30.5</v>
+      </c>
+      <c r="AE303">
+        <v>1.1</v>
+      </c>
+      <c r="AF303">
+        <v>6.5</v>
+      </c>
+      <c r="AG303">
+        <v>1.32</v>
+      </c>
+      <c r="AH303">
+        <v>3.21</v>
+      </c>
+      <c r="AI303">
+        <v>1.42</v>
+      </c>
+      <c r="AJ303">
+        <v>2.65</v>
+      </c>
+      <c r="AK303">
+        <v>2.45</v>
+      </c>
+      <c r="AL303">
+        <v>1.14</v>
+      </c>
+      <c r="AM303">
+        <v>1.17</v>
+      </c>
+      <c r="AN303">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO303">
+        <v>1.13</v>
+      </c>
+      <c r="AP303">
+        <v>0.65</v>
+      </c>
+      <c r="AQ303">
+        <v>1.24</v>
+      </c>
+      <c r="AR303">
+        <v>1.29</v>
+      </c>
+      <c r="AS303">
+        <v>1.18</v>
+      </c>
+      <c r="AT303">
+        <v>2.47</v>
+      </c>
+      <c r="AU303">
+        <v>4</v>
+      </c>
+      <c r="AV303">
+        <v>11</v>
+      </c>
+      <c r="AW303">
+        <v>3</v>
+      </c>
+      <c r="AX303">
+        <v>3</v>
+      </c>
+      <c r="AY303">
+        <v>7</v>
+      </c>
+      <c r="AZ303">
+        <v>14</v>
+      </c>
+      <c r="BA303">
+        <v>5</v>
+      </c>
+      <c r="BB303">
+        <v>8</v>
+      </c>
+      <c r="BC303">
+        <v>13</v>
+      </c>
+      <c r="BD303">
+        <v>2.75</v>
+      </c>
+      <c r="BE303">
+        <v>8</v>
+      </c>
+      <c r="BF303">
+        <v>1.58</v>
+      </c>
+      <c r="BG303">
+        <v>1.17</v>
+      </c>
+      <c r="BH303">
+        <v>4.1</v>
+      </c>
+      <c r="BI303">
+        <v>1.32</v>
+      </c>
+      <c r="BJ303">
+        <v>2.88</v>
+      </c>
+      <c r="BK303">
+        <v>1.57</v>
+      </c>
+      <c r="BL303">
+        <v>2.18</v>
+      </c>
+      <c r="BM303">
+        <v>2</v>
+      </c>
+      <c r="BN303">
+        <v>1.8</v>
+      </c>
+      <c r="BO303">
+        <v>2.43</v>
+      </c>
+      <c r="BP303">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>6680985</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>77</v>
+      </c>
+      <c r="H304" t="s">
+        <v>84</v>
+      </c>
+      <c r="I304">
+        <v>3</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>3</v>
+      </c>
+      <c r="L304">
+        <v>3</v>
+      </c>
+      <c r="M304">
+        <v>3</v>
+      </c>
+      <c r="N304">
+        <v>6</v>
+      </c>
+      <c r="O304" t="s">
+        <v>300</v>
+      </c>
+      <c r="P304" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q304">
+        <v>1.85</v>
+      </c>
+      <c r="R304">
+        <v>2.45</v>
+      </c>
+      <c r="S304">
+        <v>5.75</v>
+      </c>
+      <c r="T304">
+        <v>1.25</v>
+      </c>
+      <c r="U304">
+        <v>3.55</v>
+      </c>
+      <c r="V304">
+        <v>2.15</v>
+      </c>
+      <c r="W304">
+        <v>1.62</v>
+      </c>
+      <c r="X304">
+        <v>4.5</v>
+      </c>
+      <c r="Y304">
+        <v>1.17</v>
+      </c>
+      <c r="Z304">
+        <v>1.44</v>
+      </c>
+      <c r="AA304">
+        <v>4.4</v>
+      </c>
+      <c r="AB304">
+        <v>6.75</v>
+      </c>
+      <c r="AC304">
+        <v>1.03</v>
+      </c>
+      <c r="AD304">
+        <v>11</v>
+      </c>
+      <c r="AE304">
+        <v>1.17</v>
+      </c>
+      <c r="AF304">
+        <v>5</v>
+      </c>
+      <c r="AG304">
+        <v>1.47</v>
+      </c>
+      <c r="AH304">
+        <v>2.57</v>
+      </c>
+      <c r="AI304">
+        <v>1.62</v>
+      </c>
+      <c r="AJ304">
+        <v>2.15</v>
+      </c>
+      <c r="AK304">
+        <v>1.1</v>
+      </c>
+      <c r="AL304">
+        <v>1.14</v>
+      </c>
+      <c r="AM304">
+        <v>2.75</v>
+      </c>
+      <c r="AN304">
+        <v>2.19</v>
+      </c>
+      <c r="AO304">
+        <v>1.25</v>
+      </c>
+      <c r="AP304">
+        <v>2.12</v>
+      </c>
+      <c r="AQ304">
+        <v>1.24</v>
+      </c>
+      <c r="AR304">
+        <v>1.7</v>
+      </c>
+      <c r="AS304">
+        <v>1.21</v>
+      </c>
+      <c r="AT304">
+        <v>2.91</v>
+      </c>
+      <c r="AU304">
+        <v>2</v>
+      </c>
+      <c r="AV304">
+        <v>7</v>
+      </c>
+      <c r="AW304">
+        <v>4</v>
+      </c>
+      <c r="AX304">
+        <v>5</v>
+      </c>
+      <c r="AY304">
+        <v>6</v>
+      </c>
+      <c r="AZ304">
+        <v>12</v>
+      </c>
+      <c r="BA304">
+        <v>3</v>
+      </c>
+      <c r="BB304">
+        <v>14</v>
+      </c>
+      <c r="BC304">
+        <v>17</v>
+      </c>
+      <c r="BD304">
+        <v>1.36</v>
+      </c>
+      <c r="BE304">
+        <v>9</v>
+      </c>
+      <c r="BF304">
+        <v>3.95</v>
+      </c>
+      <c r="BG304">
+        <v>1.25</v>
+      </c>
+      <c r="BH304">
+        <v>3.3</v>
+      </c>
+      <c r="BI304">
+        <v>1.47</v>
+      </c>
+      <c r="BJ304">
+        <v>2.4</v>
+      </c>
+      <c r="BK304">
+        <v>2</v>
+      </c>
+      <c r="BL304">
+        <v>1.8</v>
+      </c>
+      <c r="BM304">
+        <v>2.28</v>
+      </c>
+      <c r="BN304">
+        <v>1.52</v>
+      </c>
+      <c r="BO304">
+        <v>2.95</v>
+      </c>
+      <c r="BP304">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>6680984</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>78</v>
+      </c>
+      <c r="H305" t="s">
+        <v>75</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>2</v>
+      </c>
+      <c r="K305">
+        <v>3</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>4</v>
+      </c>
+      <c r="N305">
+        <v>5</v>
+      </c>
+      <c r="O305" t="s">
+        <v>99</v>
+      </c>
+      <c r="P305" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q305">
+        <v>3.6</v>
+      </c>
+      <c r="R305">
+        <v>2.15</v>
+      </c>
+      <c r="S305">
+        <v>2.62</v>
+      </c>
+      <c r="T305">
+        <v>1.33</v>
+      </c>
+      <c r="U305">
+        <v>3</v>
+      </c>
+      <c r="V305">
+        <v>2.45</v>
+      </c>
+      <c r="W305">
+        <v>1.48</v>
+      </c>
+      <c r="X305">
+        <v>5.5</v>
+      </c>
+      <c r="Y305">
+        <v>1.11</v>
+      </c>
+      <c r="Z305">
+        <v>3.2</v>
+      </c>
+      <c r="AA305">
+        <v>3.6</v>
+      </c>
+      <c r="AB305">
+        <v>2.1</v>
+      </c>
+      <c r="AC305">
+        <v>1.05</v>
+      </c>
+      <c r="AD305">
+        <v>9.5</v>
+      </c>
+      <c r="AE305">
+        <v>1.25</v>
+      </c>
+      <c r="AF305">
+        <v>3.95</v>
+      </c>
+      <c r="AG305">
+        <v>1.71</v>
+      </c>
+      <c r="AH305">
+        <v>2.08</v>
+      </c>
+      <c r="AI305">
+        <v>1.57</v>
+      </c>
+      <c r="AJ305">
+        <v>2.25</v>
+      </c>
+      <c r="AK305">
+        <v>1.67</v>
+      </c>
+      <c r="AL305">
+        <v>1.25</v>
+      </c>
+      <c r="AM305">
+        <v>1.33</v>
+      </c>
+      <c r="AN305">
+        <v>1</v>
+      </c>
+      <c r="AO305">
+        <v>1.38</v>
+      </c>
+      <c r="AP305">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ305">
+        <v>1.47</v>
+      </c>
+      <c r="AR305">
+        <v>1.36</v>
+      </c>
+      <c r="AS305">
+        <v>1.37</v>
+      </c>
+      <c r="AT305">
+        <v>2.73</v>
+      </c>
+      <c r="AU305">
+        <v>4</v>
+      </c>
+      <c r="AV305">
+        <v>9</v>
+      </c>
+      <c r="AW305">
+        <v>5</v>
+      </c>
+      <c r="AX305">
+        <v>5</v>
+      </c>
+      <c r="AY305">
+        <v>9</v>
+      </c>
+      <c r="AZ305">
+        <v>14</v>
+      </c>
+      <c r="BA305">
+        <v>6</v>
+      </c>
+      <c r="BB305">
+        <v>7</v>
+      </c>
+      <c r="BC305">
+        <v>13</v>
+      </c>
+      <c r="BD305">
+        <v>2.07</v>
+      </c>
+      <c r="BE305">
+        <v>7.5</v>
+      </c>
+      <c r="BF305">
+        <v>2</v>
+      </c>
+      <c r="BG305">
+        <v>1.24</v>
+      </c>
+      <c r="BH305">
+        <v>3.35</v>
+      </c>
+      <c r="BI305">
+        <v>1.46</v>
+      </c>
+      <c r="BJ305">
+        <v>2.43</v>
+      </c>
+      <c r="BK305">
+        <v>1.8</v>
+      </c>
+      <c r="BL305">
+        <v>1.89</v>
+      </c>
+      <c r="BM305">
+        <v>2</v>
+      </c>
+      <c r="BN305">
+        <v>1.73</v>
+      </c>
+      <c r="BO305">
+        <v>2.95</v>
+      </c>
+      <c r="BP305">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>6680987</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>76</v>
+      </c>
+      <c r="H306" t="s">
+        <v>80</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>4</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>4</v>
+      </c>
+      <c r="O306" t="s">
+        <v>301</v>
+      </c>
+      <c r="P306" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q306">
+        <v>1.57</v>
+      </c>
+      <c r="R306">
+        <v>3.1</v>
+      </c>
+      <c r="S306">
+        <v>6.5</v>
+      </c>
+      <c r="T306">
+        <v>1.13</v>
+      </c>
+      <c r="U306">
+        <v>5</v>
+      </c>
+      <c r="V306">
+        <v>1.73</v>
+      </c>
+      <c r="W306">
+        <v>2</v>
+      </c>
+      <c r="X306">
+        <v>3.2</v>
+      </c>
+      <c r="Y306">
+        <v>1.3</v>
+      </c>
+      <c r="Z306">
+        <v>1.2</v>
+      </c>
+      <c r="AA306">
+        <v>8</v>
+      </c>
+      <c r="AB306">
+        <v>9.5</v>
+      </c>
+      <c r="AC306">
+        <v>1.01</v>
+      </c>
+      <c r="AD306">
+        <v>52</v>
+      </c>
+      <c r="AE306">
+        <v>1.05</v>
+      </c>
+      <c r="AF306">
+        <v>9</v>
+      </c>
+      <c r="AG306">
+        <v>1.23</v>
+      </c>
+      <c r="AH306">
+        <v>3.9</v>
+      </c>
+      <c r="AI306">
+        <v>1.5</v>
+      </c>
+      <c r="AJ306">
+        <v>2.4</v>
+      </c>
+      <c r="AK306">
+        <v>1.05</v>
+      </c>
+      <c r="AL306">
+        <v>1.1</v>
+      </c>
+      <c r="AM306">
+        <v>3.95</v>
+      </c>
+      <c r="AN306">
+        <v>2.44</v>
+      </c>
+      <c r="AO306">
+        <v>0.63</v>
+      </c>
+      <c r="AP306">
+        <v>2.47</v>
+      </c>
+      <c r="AQ306">
+        <v>0.59</v>
+      </c>
+      <c r="AR306">
+        <v>2.51</v>
+      </c>
+      <c r="AS306">
+        <v>1.02</v>
+      </c>
+      <c r="AT306">
+        <v>3.53</v>
+      </c>
+      <c r="AU306">
+        <v>2</v>
+      </c>
+      <c r="AV306">
+        <v>0</v>
+      </c>
+      <c r="AW306">
+        <v>4</v>
+      </c>
+      <c r="AX306">
+        <v>0</v>
+      </c>
+      <c r="AY306">
+        <v>6</v>
+      </c>
+      <c r="AZ306">
+        <v>0</v>
+      </c>
+      <c r="BA306">
+        <v>5</v>
+      </c>
+      <c r="BB306">
+        <v>3</v>
+      </c>
+      <c r="BC306">
+        <v>8</v>
+      </c>
+      <c r="BD306">
+        <v>1.23</v>
+      </c>
+      <c r="BE306">
+        <v>11</v>
+      </c>
+      <c r="BF306">
+        <v>5.5</v>
+      </c>
+      <c r="BG306">
+        <v>1.15</v>
+      </c>
+      <c r="BH306">
+        <v>4.4</v>
+      </c>
+      <c r="BI306">
+        <v>1.29</v>
+      </c>
+      <c r="BJ306">
+        <v>3.05</v>
+      </c>
+      <c r="BK306">
+        <v>1.52</v>
+      </c>
+      <c r="BL306">
+        <v>2.28</v>
+      </c>
+      <c r="BM306">
+        <v>1.85</v>
+      </c>
+      <c r="BN306">
+        <v>1.85</v>
+      </c>
+      <c r="BO306">
+        <v>2.35</v>
+      </c>
+      <c r="BP306">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>6680992</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45431.39583333334</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>81</v>
+      </c>
+      <c r="H307" t="s">
+        <v>73</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>4</v>
+      </c>
+      <c r="O307" t="s">
+        <v>302</v>
+      </c>
+      <c r="P307" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q307">
+        <v>4.75</v>
+      </c>
+      <c r="R307">
+        <v>2.76</v>
+      </c>
+      <c r="S307">
+        <v>1.97</v>
+      </c>
+      <c r="T307">
+        <v>1.19</v>
+      </c>
+      <c r="U307">
+        <v>4.33</v>
+      </c>
+      <c r="V307">
+        <v>1.97</v>
+      </c>
+      <c r="W307">
+        <v>1.79</v>
+      </c>
+      <c r="X307">
+        <v>4</v>
+      </c>
+      <c r="Y307">
+        <v>1.22</v>
+      </c>
+      <c r="Z307">
+        <v>5.1</v>
+      </c>
+      <c r="AA307">
+        <v>4.6</v>
+      </c>
+      <c r="AB307">
+        <v>1.53</v>
+      </c>
+      <c r="AC307">
+        <v>1.01</v>
+      </c>
+      <c r="AD307">
+        <v>30</v>
+      </c>
+      <c r="AE307">
+        <v>1.07</v>
+      </c>
+      <c r="AF307">
+        <v>7</v>
+      </c>
+      <c r="AG307">
+        <v>1.35</v>
+      </c>
+      <c r="AH307">
+        <v>3.04</v>
+      </c>
+      <c r="AI307">
+        <v>1.43</v>
+      </c>
+      <c r="AJ307">
+        <v>2.7</v>
+      </c>
+      <c r="AK307">
+        <v>2.4</v>
+      </c>
+      <c r="AL307">
+        <v>1.19</v>
+      </c>
+      <c r="AM307">
+        <v>1.18</v>
+      </c>
+      <c r="AN307">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO307">
+        <v>1.38</v>
+      </c>
+      <c r="AP307">
+        <v>0.71</v>
+      </c>
+      <c r="AQ307">
+        <v>1.35</v>
+      </c>
+      <c r="AR307">
+        <v>1.51</v>
+      </c>
+      <c r="AS307">
+        <v>1.69</v>
+      </c>
+      <c r="AT307">
+        <v>3.2</v>
+      </c>
+      <c r="AU307">
+        <v>0</v>
+      </c>
+      <c r="AV307">
+        <v>3</v>
+      </c>
+      <c r="AW307">
+        <v>3</v>
+      </c>
+      <c r="AX307">
+        <v>6</v>
+      </c>
+      <c r="AY307">
+        <v>3</v>
+      </c>
+      <c r="AZ307">
+        <v>9</v>
+      </c>
+      <c r="BA307">
+        <v>1</v>
+      </c>
+      <c r="BB307">
+        <v>7</v>
+      </c>
+      <c r="BC307">
+        <v>8</v>
+      </c>
+      <c r="BD307">
+        <v>3</v>
+      </c>
+      <c r="BE307">
+        <v>8</v>
+      </c>
+      <c r="BF307">
+        <v>1.53</v>
+      </c>
+      <c r="BG307">
+        <v>1.2</v>
+      </c>
+      <c r="BH307">
+        <v>3.7</v>
+      </c>
+      <c r="BI307">
+        <v>1.38</v>
+      </c>
+      <c r="BJ307">
+        <v>2.65</v>
+      </c>
+      <c r="BK307">
+        <v>1.67</v>
+      </c>
+      <c r="BL307">
+        <v>2.02</v>
+      </c>
+      <c r="BM307">
+        <v>2</v>
+      </c>
+      <c r="BN307">
+        <v>1.73</v>
+      </c>
+      <c r="BO307">
+        <v>2.65</v>
+      </c>
+      <c r="BP307">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -64937,22 +64937,22 @@
         <v>3.2</v>
       </c>
       <c r="AU307">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV307">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW307">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX307">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AY307">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ307">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BA307">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="464">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -928,6 +928,9 @@
     <t>['41', '70', '90+3']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['60', '86']</t>
   </si>
   <si>
@@ -1070,9 +1073,6 @@
   </si>
   <si>
     <t>['35', '64']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['34', '78', '90+6']</t>
@@ -1403,6 +1403,9 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['90+1', '117']</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +2026,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -2435,7 +2438,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q4">
         <v>2.25</v>
@@ -2641,7 +2644,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q5">
         <v>1.5</v>
@@ -2847,7 +2850,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -3053,7 +3056,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -3465,7 +3468,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q9">
         <v>1.83</v>
@@ -3546,7 +3549,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3671,7 +3674,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4083,7 +4086,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4289,7 +4292,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4495,7 +4498,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4907,7 +4910,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4985,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ16">
         <v>0.9399999999999999</v>
@@ -5113,7 +5116,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -5319,7 +5322,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q18">
         <v>1.83</v>
@@ -5525,7 +5528,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5937,7 +5940,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -6555,7 +6558,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6761,7 +6764,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6967,7 +6970,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q26">
         <v>3.6</v>
@@ -7173,7 +7176,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7379,7 +7382,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q28">
         <v>6.5</v>
@@ -7791,7 +7794,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7869,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ30">
         <v>2.47</v>
@@ -8203,7 +8206,7 @@
         <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8409,7 +8412,7 @@
         <v>94</v>
       </c>
       <c r="P33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8821,7 +8824,7 @@
         <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -9027,7 +9030,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q36">
         <v>2.1</v>
@@ -9439,7 +9442,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9645,7 +9648,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9726,7 +9729,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9851,7 +9854,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -10675,7 +10678,7 @@
         <v>122</v>
       </c>
       <c r="P44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -11087,7 +11090,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -11293,7 +11296,7 @@
         <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -11911,7 +11914,7 @@
         <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q50">
         <v>4.75</v>
@@ -12117,7 +12120,7 @@
         <v>94</v>
       </c>
       <c r="P51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12404,7 +12407,7 @@
         <v>2.88</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR52">
         <v>2.39</v>
@@ -12941,7 +12944,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q55">
         <v>1.53</v>
@@ -13022,7 +13025,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR55">
         <v>2.63</v>
@@ -13147,7 +13150,7 @@
         <v>94</v>
       </c>
       <c r="P56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -13225,7 +13228,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -13765,7 +13768,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13971,7 +13974,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -15619,7 +15622,7 @@
         <v>94</v>
       </c>
       <c r="P68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -15825,7 +15828,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -16031,7 +16034,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -16237,7 +16240,7 @@
         <v>94</v>
       </c>
       <c r="P71" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16649,7 +16652,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q73">
         <v>1.44</v>
@@ -16855,7 +16858,7 @@
         <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -17473,7 +17476,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17551,7 +17554,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ77">
         <v>1.35</v>
@@ -17679,7 +17682,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17885,7 +17888,7 @@
         <v>146</v>
       </c>
       <c r="P79" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -18790,7 +18793,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR83">
         <v>1.36</v>
@@ -19327,7 +19330,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19533,7 +19536,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -19739,7 +19742,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q88">
         <v>3.1</v>
@@ -20151,7 +20154,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q90">
         <v>7.5</v>
@@ -20563,7 +20566,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q92">
         <v>9</v>
@@ -20975,7 +20978,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -21053,7 +21056,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ94">
         <v>1.53</v>
@@ -22292,7 +22295,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR100">
         <v>0.95</v>
@@ -23731,7 +23734,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ107">
         <v>0.59</v>
@@ -25382,7 +25385,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -27361,7 +27364,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27439,7 +27442,7 @@
         <v>2.17</v>
       </c>
       <c r="AP125">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
         <v>1.71</v>
@@ -28185,7 +28188,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>1.33</v>
@@ -29009,7 +29012,7 @@
         <v>186</v>
       </c>
       <c r="P133" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q133">
         <v>1.62</v>
@@ -30117,7 +30120,7 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ138">
         <v>0.65</v>
@@ -30326,7 +30329,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR139">
         <v>1.45</v>
@@ -34443,7 +34446,7 @@
         <v>3</v>
       </c>
       <c r="AP159">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ159">
         <v>2.47</v>
@@ -34858,7 +34861,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ161">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR161">
         <v>1.59</v>
@@ -38360,7 +38363,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ178">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR178">
         <v>1.38</v>
@@ -38769,7 +38772,7 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ180">
         <v>0.47</v>
@@ -40211,7 +40214,7 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ187">
         <v>0.65</v>
@@ -41656,7 +41659,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ194">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR194">
         <v>1.75</v>
@@ -42889,7 +42892,7 @@
         <v>0.73</v>
       </c>
       <c r="AP200">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ200">
         <v>0.65</v>
@@ -44128,7 +44131,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ206">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR206">
         <v>1.79</v>
@@ -47137,7 +47140,7 @@
         <v>243</v>
       </c>
       <c r="P221" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q221">
         <v>2.81</v>
@@ -47755,7 +47758,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q224">
         <v>2.05</v>
@@ -48454,7 +48457,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ227">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR227">
         <v>1.44</v>
@@ -49481,7 +49484,7 @@
         <v>1.25</v>
       </c>
       <c r="AP232">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ232">
         <v>1.47</v>
@@ -51875,7 +51878,7 @@
         <v>109</v>
       </c>
       <c r="P244" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q244">
         <v>2</v>
@@ -52493,7 +52496,7 @@
         <v>185</v>
       </c>
       <c r="P247" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52905,7 +52908,7 @@
         <v>261</v>
       </c>
       <c r="P249" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52983,7 +52986,7 @@
         <v>1.23</v>
       </c>
       <c r="AP249">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
@@ -53810,7 +53813,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ253">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR253">
         <v>1.85</v>
@@ -54347,7 +54350,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q256">
         <v>2.75</v>
@@ -57103,10 +57106,10 @@
         <v>1.21</v>
       </c>
       <c r="AP269">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ269">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR269">
         <v>1.61</v>
@@ -57231,7 +57234,7 @@
         <v>276</v>
       </c>
       <c r="P270" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="Q270">
         <v>3.1</v>
@@ -59578,7 +59581,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ281">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR281">
         <v>1.81</v>
@@ -60399,7 +60402,7 @@
         <v>0.6</v>
       </c>
       <c r="AP285">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ285">
         <v>0.71</v>
@@ -62253,7 +62256,7 @@
         <v>1.44</v>
       </c>
       <c r="AP294">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ294">
         <v>1.44</v>
@@ -63698,7 +63701,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ301">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR301">
         <v>1.29</v>
@@ -65140,7 +65143,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ308">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR308">
         <v>1.62</v>
@@ -65343,7 +65346,7 @@
         <v>1.44</v>
       </c>
       <c r="AP309">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AQ309">
         <v>1.4</v>
@@ -65422,6 +65425,212 @@
       </c>
       <c r="BP309">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7438660</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310" t="s">
+        <v>84</v>
+      </c>
+      <c r="H310" t="s">
+        <v>83</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310">
+        <v>2</v>
+      </c>
+      <c r="N310">
+        <v>3</v>
+      </c>
+      <c r="O310" t="s">
+        <v>304</v>
+      </c>
+      <c r="P310" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q310">
+        <v>2.3</v>
+      </c>
+      <c r="R310">
+        <v>2.4</v>
+      </c>
+      <c r="S310">
+        <v>4.5</v>
+      </c>
+      <c r="T310">
+        <v>1.32</v>
+      </c>
+      <c r="U310">
+        <v>3.4</v>
+      </c>
+      <c r="V310">
+        <v>2.45</v>
+      </c>
+      <c r="W310">
+        <v>1.53</v>
+      </c>
+      <c r="X310">
+        <v>5.5</v>
+      </c>
+      <c r="Y310">
+        <v>1.13</v>
+      </c>
+      <c r="Z310">
+        <v>1.64</v>
+      </c>
+      <c r="AA310">
+        <v>3.64</v>
+      </c>
+      <c r="AB310">
+        <v>4.06</v>
+      </c>
+      <c r="AC310">
+        <v>1.03</v>
+      </c>
+      <c r="AD310">
+        <v>15</v>
+      </c>
+      <c r="AE310">
+        <v>1.19</v>
+      </c>
+      <c r="AF310">
+        <v>4.45</v>
+      </c>
+      <c r="AG310">
+        <v>1.65</v>
+      </c>
+      <c r="AH310">
+        <v>2.1</v>
+      </c>
+      <c r="AI310">
+        <v>1.65</v>
+      </c>
+      <c r="AJ310">
+        <v>2.25</v>
+      </c>
+      <c r="AK310">
+        <v>1.2</v>
+      </c>
+      <c r="AL310">
+        <v>1.2</v>
+      </c>
+      <c r="AM310">
+        <v>2.15</v>
+      </c>
+      <c r="AN310">
+        <v>1.51</v>
+      </c>
+      <c r="AO310">
+        <v>1.4</v>
+      </c>
+      <c r="AP310">
+        <v>1.47</v>
+      </c>
+      <c r="AQ310">
+        <v>1.44</v>
+      </c>
+      <c r="AR310">
+        <v>1.63</v>
+      </c>
+      <c r="AS310">
+        <v>1.34</v>
+      </c>
+      <c r="AT310">
+        <v>2.97</v>
+      </c>
+      <c r="AU310">
+        <v>7</v>
+      </c>
+      <c r="AV310">
+        <v>6</v>
+      </c>
+      <c r="AW310">
+        <v>12</v>
+      </c>
+      <c r="AX310">
+        <v>15</v>
+      </c>
+      <c r="AY310">
+        <v>19</v>
+      </c>
+      <c r="AZ310">
+        <v>21</v>
+      </c>
+      <c r="BA310">
+        <v>11</v>
+      </c>
+      <c r="BB310">
+        <v>7</v>
+      </c>
+      <c r="BC310">
+        <v>18</v>
+      </c>
+      <c r="BD310">
+        <v>1.36</v>
+      </c>
+      <c r="BE310">
+        <v>10.5</v>
+      </c>
+      <c r="BF310">
+        <v>3.68</v>
+      </c>
+      <c r="BG310">
+        <v>1.13</v>
+      </c>
+      <c r="BH310">
+        <v>4.75</v>
+      </c>
+      <c r="BI310">
+        <v>1.28</v>
+      </c>
+      <c r="BJ310">
+        <v>3.2</v>
+      </c>
+      <c r="BK310">
+        <v>1.55</v>
+      </c>
+      <c r="BL310">
+        <v>2.37</v>
+      </c>
+      <c r="BM310">
+        <v>1.92</v>
+      </c>
+      <c r="BN310">
+        <v>1.88</v>
+      </c>
+      <c r="BO310">
+        <v>2.4</v>
+      </c>
+      <c r="BP310">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -65570,19 +65570,19 @@
         <v>7</v>
       </c>
       <c r="AV310">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW310">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX310">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY310">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ310">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA310">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -65570,28 +65570,28 @@
         <v>7</v>
       </c>
       <c r="AV310">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW310">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX310">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY310">
+        <v>19</v>
+      </c>
+      <c r="AZ310">
+        <v>21</v>
+      </c>
+      <c r="BA310">
+        <v>10</v>
+      </c>
+      <c r="BB310">
+        <v>4</v>
+      </c>
+      <c r="BC310">
         <v>14</v>
-      </c>
-      <c r="AZ310">
-        <v>20</v>
-      </c>
-      <c r="BA310">
-        <v>11</v>
-      </c>
-      <c r="BB310">
-        <v>7</v>
-      </c>
-      <c r="BC310">
-        <v>18</v>
       </c>
       <c r="BD310">
         <v>1.36</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -65146,13 +65146,13 @@
         <v>1.44</v>
       </c>
       <c r="AR308">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS308">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="AT308">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AU308">
         <v>2</v>
@@ -65352,10 +65352,10 @@
         <v>1.4</v>
       </c>
       <c r="AR309">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AS309">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AT309">
         <v>2.89</v>
@@ -65558,13 +65558,13 @@
         <v>1.44</v>
       </c>
       <c r="AR310">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AS310">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="AT310">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="AU310">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ2">
         <v>0.71</v>
@@ -2310,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ3">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2516,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ4">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ5">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ7">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ8">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3958,19 +3958,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ11">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AU11">
         <v>8</v>
@@ -4158,25 +4158,25 @@
         <v>1.01</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ12">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -4364,25 +4364,25 @@
         <v>1.14</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
         <v>0.71</v>
       </c>
       <c r="AQ13">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -4570,25 +4570,25 @@
         <v>1.92</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ14">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4782,19 +4782,19 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AU15">
         <v>7</v>
@@ -4985,22 +4985,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -5188,25 +5188,25 @@
         <v>1.15</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>2.47</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -5394,25 +5394,25 @@
         <v>3</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5603,22 +5603,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ19">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AU19">
         <v>6</v>
@@ -5812,19 +5812,19 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ20">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR20">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS20">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="AT20">
-        <v>2.89</v>
+        <v>2.7</v>
       </c>
       <c r="AU20">
         <v>11</v>
@@ -6012,25 +6012,25 @@
         <v>1.65</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP21">
+        <v>0.85</v>
+      </c>
+      <c r="AQ21">
         <v>1.12</v>
       </c>
-      <c r="AQ21">
-        <v>0.65</v>
-      </c>
       <c r="AR21">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="AT21">
-        <v>2.63</v>
+        <v>3.12</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -6227,16 +6227,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR22">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="AS22">
-        <v>0.74</v>
+        <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6433,16 +6433,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ23">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AT23">
-        <v>3.27</v>
+        <v>3.61</v>
       </c>
       <c r="AU23">
         <v>19</v>
@@ -6633,22 +6633,22 @@
         <v>3</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="AS24">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AT24">
-        <v>3.23</v>
+        <v>2.95</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6836,25 +6836,25 @@
         <v>1.85</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR25">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AS25">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AT25">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -7045,22 +7045,22 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.06</v>
       </c>
       <c r="AR26">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="AS26">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="AT26">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -7248,25 +7248,25 @@
         <v>1.67</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR27">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS27">
-        <v>1.51</v>
+        <v>1.88</v>
       </c>
       <c r="AT27">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -7460,19 +7460,19 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ28">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR28">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="AS28">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="AT28">
-        <v>3.06</v>
+        <v>3.32</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7660,25 +7660,25 @@
         <v>1.95</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ29">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR29">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="AS29">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>3.23</v>
+        <v>2.58</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7869,22 +7869,22 @@
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30">
         <v>2.47</v>
       </c>
       <c r="AR30">
-        <v>1.62</v>
+        <v>1.13</v>
       </c>
       <c r="AS30">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="AT30">
-        <v>4.13</v>
+        <v>3.78</v>
       </c>
       <c r="AU30">
         <v>2</v>
@@ -8072,25 +8072,25 @@
         <v>1.09</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ31">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR31">
-        <v>2.23</v>
+        <v>1.79</v>
       </c>
       <c r="AS31">
-        <v>2.07</v>
+        <v>2.59</v>
       </c>
       <c r="AT31">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -8284,19 +8284,19 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR32">
-        <v>0.9399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="AS32">
-        <v>2.22</v>
+        <v>1.91</v>
       </c>
       <c r="AT32">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -8484,7 +8484,7 @@
         <v>1.28</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
         <v>3</v>
@@ -8493,16 +8493,16 @@
         <v>0.71</v>
       </c>
       <c r="AQ33">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR33">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="AS33">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AT33">
-        <v>2.86</v>
+        <v>3.28</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8699,16 +8699,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ34">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR34">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="AS34">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="AT34">
-        <v>4.02</v>
+        <v>4.28</v>
       </c>
       <c r="AU34">
         <v>10</v>
@@ -8896,7 +8896,7 @@
         <v>2.54</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -8905,16 +8905,16 @@
         <v>0.71</v>
       </c>
       <c r="AQ35">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR35">
-        <v>0.84</v>
+        <v>1.25</v>
       </c>
       <c r="AS35">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AT35">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -9102,25 +9102,25 @@
         <v>2.3</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ36">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR36">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AS36">
-        <v>1.68</v>
+        <v>1.19</v>
       </c>
       <c r="AT36">
-        <v>3.38</v>
+        <v>2.83</v>
       </c>
       <c r="AU36">
         <v>12</v>
@@ -9311,22 +9311,22 @@
         <v>3</v>
       </c>
       <c r="AO37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ37">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR37">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="AS37">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AT37">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="AU37">
         <v>12</v>
@@ -9514,25 +9514,25 @@
         <v>1.55</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ38">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AS38">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9723,22 +9723,22 @@
         <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP39">
         <v>1.06</v>
       </c>
       <c r="AQ39">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AS39">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="AT39">
-        <v>2.78</v>
+        <v>3.03</v>
       </c>
       <c r="AU39">
         <v>12</v>
@@ -9929,22 +9929,22 @@
         <v>3</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ40">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR40">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AS40">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="AT40">
-        <v>3.28</v>
+        <v>3.91</v>
       </c>
       <c r="AU40">
         <v>10</v>
@@ -10132,25 +10132,25 @@
         <v>1.78</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.3</v>
       </c>
       <c r="AS41">
-        <v>0.98</v>
+        <v>1.19</v>
       </c>
       <c r="AT41">
-        <v>2.28</v>
+        <v>2.49</v>
       </c>
       <c r="AU41">
         <v>3</v>
@@ -10341,22 +10341,22 @@
         <v>3</v>
       </c>
       <c r="AO42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AS42">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AT42">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -10544,25 +10544,25 @@
         <v>1.73</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP43">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR43">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="AS43">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="AT43">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10753,22 +10753,22 @@
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ44">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR44">
-        <v>0.9399999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AS44">
-        <v>0.66</v>
+        <v>1.33</v>
       </c>
       <c r="AT44">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AU44">
         <v>7</v>
@@ -10956,25 +10956,25 @@
         <v>1.52</v>
       </c>
       <c r="AN45">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP45">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ45">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AS45">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AT45">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -11162,25 +11162,25 @@
         <v>1.01</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO46">
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR46">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AS46">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT46">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -11368,25 +11368,25 @@
         <v>2.3</v>
       </c>
       <c r="AN47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP47">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ47">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR47">
-        <v>2.07</v>
+        <v>1.47</v>
       </c>
       <c r="AS47">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AT47">
-        <v>3.36</v>
+        <v>2.73</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11574,25 +11574,25 @@
         <v>1.83</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO48">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>0.71</v>
       </c>
       <c r="AR48">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS48">
-        <v>2.06</v>
+        <v>1.32</v>
       </c>
       <c r="AT48">
-        <v>3.68</v>
+        <v>2.74</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11780,25 +11780,25 @@
         <v>1.16</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO49">
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ49">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR49">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="AS49">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AT49">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11986,7 +11986,7 @@
         <v>1.19</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO50">
         <v>3</v>
@@ -11995,16 +11995,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR50">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="AS50">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT50">
-        <v>3.64</v>
+        <v>3.48</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -12192,25 +12192,25 @@
         <v>1.48</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ51">
         <v>2.47</v>
       </c>
       <c r="AR51">
-        <v>3.11</v>
+        <v>1.89</v>
       </c>
       <c r="AS51">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="AT51">
-        <v>5.58</v>
+        <v>4.46</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -12401,22 +12401,22 @@
         <v>3</v>
       </c>
       <c r="AO52">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ52">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="AS52">
-        <v>1.09</v>
+        <v>1.56</v>
       </c>
       <c r="AT52">
-        <v>3.48</v>
+        <v>3.86</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -12604,25 +12604,25 @@
         <v>2.45</v>
       </c>
       <c r="AN53">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP53">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ53">
         <v>0.71</v>
       </c>
       <c r="AR53">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AS53">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AT53">
-        <v>3.09</v>
+        <v>2.81</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12813,22 +12813,22 @@
         <v>3</v>
       </c>
       <c r="AO54">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP54">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ54">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR54">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AS54">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="AT54">
-        <v>2.94</v>
+        <v>3.14</v>
       </c>
       <c r="AU54">
         <v>8</v>
@@ -13019,22 +13019,22 @@
         <v>2.33</v>
       </c>
       <c r="AO55">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP55">
         <v>2.47</v>
       </c>
       <c r="AQ55">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="AS55">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="AT55">
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -13222,25 +13222,25 @@
         <v>2.55</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO56">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP56">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ56">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AS56">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT56">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -13431,22 +13431,22 @@
         <v>3</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP57">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ57">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR57">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="AS57">
         <v>1.2</v>
       </c>
       <c r="AT57">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AU57">
         <v>18</v>
@@ -13634,25 +13634,25 @@
         <v>3.2</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO58">
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ58">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AS58">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AT58">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13840,25 +13840,25 @@
         <v>1.53</v>
       </c>
       <c r="AN59">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ59">
         <v>0.71</v>
       </c>
       <c r="AR59">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AS59">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AT59">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -14046,25 +14046,25 @@
         <v>1.31</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP60">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ60">
+        <v>1.4</v>
+      </c>
+      <c r="AR60">
+        <v>1.22</v>
+      </c>
+      <c r="AS60">
         <v>1.44</v>
       </c>
-      <c r="AR60">
-        <v>1.25</v>
-      </c>
-      <c r="AS60">
-        <v>1.28</v>
-      </c>
       <c r="AT60">
-        <v>2.53</v>
+        <v>2.66</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -14252,25 +14252,25 @@
         <v>1.72</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO61">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ61">
         <v>1.06</v>
       </c>
       <c r="AR61">
+        <v>1.25</v>
+      </c>
+      <c r="AS61">
         <v>1.55</v>
       </c>
-      <c r="AS61">
-        <v>1.34</v>
-      </c>
       <c r="AT61">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -14458,25 +14458,25 @@
         <v>3.4</v>
       </c>
       <c r="AN62">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO62">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ62">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR62">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AT62">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14664,25 +14664,25 @@
         <v>1.22</v>
       </c>
       <c r="AN63">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AP63">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ63">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR63">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AS63">
         <v>1.19</v>
       </c>
       <c r="AT63">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14870,25 +14870,25 @@
         <v>1.7</v>
       </c>
       <c r="AN64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO64">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ64">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR64">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="AS64">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AT64">
-        <v>3.02</v>
+        <v>2.73</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -15076,25 +15076,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AO65">
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR65">
+        <v>1.35</v>
+      </c>
+      <c r="AS65">
         <v>1.29</v>
       </c>
-      <c r="AS65">
-        <v>1.54</v>
-      </c>
       <c r="AT65">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -15282,25 +15282,25 @@
         <v>1.98</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="AO66">
-        <v>0.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP66">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR66">
-        <v>1.87</v>
+        <v>1.39</v>
       </c>
       <c r="AS66">
-        <v>0.96</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AU66">
         <v>14</v>
@@ -15488,25 +15488,25 @@
         <v>2.25</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AO67">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP67">
         <v>0.71</v>
       </c>
       <c r="AQ67">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR67">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AS67">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AP68">
         <v>1.06</v>
@@ -15706,13 +15706,13 @@
         <v>2.47</v>
       </c>
       <c r="AR68">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS68">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="AT68">
-        <v>3.85</v>
+        <v>3.99</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15900,25 +15900,25 @@
         <v>1.26</v>
       </c>
       <c r="AN69">
-        <v>2.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO69">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="AP69">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ69">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR69">
-        <v>2.08</v>
+        <v>1.69</v>
       </c>
       <c r="AS69">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AT69">
-        <v>3.62</v>
+        <v>3.31</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -16106,25 +16106,25 @@
         <v>1.7</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO70">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AP70">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ70">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR70">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="AS70">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT70">
-        <v>3.67</v>
+        <v>3.46</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -16312,25 +16312,25 @@
         <v>1.06</v>
       </c>
       <c r="AN71">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AO71">
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR71">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AS71">
-        <v>2.24</v>
+        <v>2.57</v>
       </c>
       <c r="AT71">
-        <v>3.84</v>
+        <v>3.98</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16518,25 +16518,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AP72">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ72">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR72">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="AS72">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>2.49</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16727,22 +16727,22 @@
         <v>3</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP73">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ73">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR73">
-        <v>2.81</v>
+        <v>2.62</v>
       </c>
       <c r="AS73">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AT73">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16930,25 +16930,25 @@
         <v>1.95</v>
       </c>
       <c r="AN74">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ74">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT74">
-        <v>2.89</v>
+        <v>2.71</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -17136,25 +17136,25 @@
         <v>3.2</v>
       </c>
       <c r="AN75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AO75">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP75">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR75">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AS75">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="AT75">
-        <v>2.84</v>
+        <v>3.16</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -17345,7 +17345,7 @@
         <v>2.5</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AP76">
         <v>2.47</v>
@@ -17354,13 +17354,13 @@
         <v>0.71</v>
       </c>
       <c r="AR76">
-        <v>2.61</v>
+        <v>2.32</v>
       </c>
       <c r="AS76">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT76">
-        <v>3.85</v>
+        <v>3.58</v>
       </c>
       <c r="AU76">
         <v>9</v>
@@ -17548,25 +17548,25 @@
         <v>1.26</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AO77">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP77">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ77">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR77">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AS77">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AT77">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17754,25 +17754,25 @@
         <v>1.16</v>
       </c>
       <c r="AN78">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO78">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ78">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR78">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AS78">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT78">
-        <v>3.17</v>
+        <v>3.03</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17960,25 +17960,25 @@
         <v>1.55</v>
       </c>
       <c r="AN79">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO79">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP79">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
       </c>
       <c r="AR79">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AS79">
         <v>1.42</v>
       </c>
       <c r="AT79">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -18166,25 +18166,25 @@
         <v>1.61</v>
       </c>
       <c r="AN80">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="AO80">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP80">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR80">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AS80">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT80">
-        <v>3.31</v>
+        <v>2.87</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -18372,10 +18372,10 @@
         <v>1.75</v>
       </c>
       <c r="AN81">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="AO81">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="AP81">
         <v>0.71</v>
@@ -18384,13 +18384,13 @@
         <v>1.06</v>
       </c>
       <c r="AR81">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS81">
         <v>1.42</v>
       </c>
       <c r="AT81">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="AU81">
         <v>13</v>
@@ -18578,25 +18578,25 @@
         <v>1.83</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AO82">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ82">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR82">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AS82">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AT82">
-        <v>3.04</v>
+        <v>2.74</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18784,25 +18784,25 @@
         <v>1.53</v>
       </c>
       <c r="AN83">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AO83">
-        <v>0.25</v>
+        <v>1.56</v>
       </c>
       <c r="AP83">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR83">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS83">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>2.38</v>
+        <v>2.91</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18990,25 +18990,25 @@
         <v>2.05</v>
       </c>
       <c r="AN84">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO84">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP84">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR84">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AS84">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AT84">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="AU84">
         <v>5</v>
@@ -19196,25 +19196,25 @@
         <v>1.45</v>
       </c>
       <c r="AN85">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ85">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR85">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT85">
-        <v>2.86</v>
+        <v>2.65</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19402,25 +19402,25 @@
         <v>1.38</v>
       </c>
       <c r="AN86">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AO86">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AP86">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ86">
         <v>2.47</v>
       </c>
       <c r="AR86">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AS86">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="AT86">
-        <v>3.71</v>
+        <v>3.95</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19611,22 +19611,22 @@
         <v>3</v>
       </c>
       <c r="AO87">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ87">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR87">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="AS87">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AT87">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="AU87">
         <v>10</v>
@@ -19814,25 +19814,25 @@
         <v>1.5</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO88">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP88">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ88">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR88">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AS88">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AT88">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="AU88">
         <v>13</v>
@@ -20020,25 +20020,25 @@
         <v>5</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO89">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AP89">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ89">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AS89">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="AT89">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="AU89">
         <v>11</v>
@@ -20226,25 +20226,25 @@
         <v>1.01</v>
       </c>
       <c r="AN90">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO90">
         <v>3</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ90">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR90">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AS90">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="AT90">
-        <v>3.93</v>
+        <v>3.89</v>
       </c>
       <c r="AU90">
         <v>2</v>
@@ -20432,25 +20432,25 @@
         <v>1.09</v>
       </c>
       <c r="AN91">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO91">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AP91">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ91">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR91">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AT91">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20638,25 +20638,25 @@
         <v>1.01</v>
       </c>
       <c r="AN92">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO92">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AP92">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ92">
         <v>2.47</v>
       </c>
       <c r="AR92">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AS92">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="AT92">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20844,25 +20844,25 @@
         <v>1.85</v>
       </c>
       <c r="AN93">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO93">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>0.71</v>
       </c>
       <c r="AR93">
-        <v>1.99</v>
+        <v>1.52</v>
       </c>
       <c r="AS93">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AT93">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="AU93">
         <v>15</v>
@@ -21050,25 +21050,25 @@
         <v>1.18</v>
       </c>
       <c r="AN94">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AO94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR94">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS94">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AT94">
-        <v>2.88</v>
+        <v>2.83</v>
       </c>
       <c r="AU94">
         <v>8</v>
@@ -21256,25 +21256,25 @@
         <v>2.2</v>
       </c>
       <c r="AN95">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO95">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AP95">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ95">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR95">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AS95">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="AU95">
         <v>8</v>
@@ -21462,25 +21462,25 @@
         <v>1.61</v>
       </c>
       <c r="AN96">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AO96">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP96">
         <v>1.06</v>
       </c>
       <c r="AQ96">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR96">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS96">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AT96">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AU96">
         <v>7</v>
@@ -21668,25 +21668,25 @@
         <v>2</v>
       </c>
       <c r="AN97">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO97">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AP97">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AS97">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT97">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="AU97">
         <v>7</v>
@@ -21874,25 +21874,25 @@
         <v>2.6</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AO98">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR98">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="AS98">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="AT98">
-        <v>2.97</v>
+        <v>3.16</v>
       </c>
       <c r="AU98">
         <v>9</v>
@@ -22080,25 +22080,25 @@
         <v>2</v>
       </c>
       <c r="AN99">
-        <v>1.6</v>
+        <v>0.91</v>
       </c>
       <c r="AO99">
-        <v>0.4</v>
+        <v>1.09</v>
       </c>
       <c r="AP99">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ99">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR99">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="AS99">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT99">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="AU99">
         <v>9</v>
@@ -22286,25 +22286,25 @@
         <v>1.44</v>
       </c>
       <c r="AN100">
+        <v>0.9</v>
+      </c>
+      <c r="AO100">
+        <v>1.64</v>
+      </c>
+      <c r="AP100">
+        <v>0.85</v>
+      </c>
+      <c r="AQ100">
+        <v>1.44</v>
+      </c>
+      <c r="AR100">
         <v>1.2</v>
       </c>
-      <c r="AO100">
-        <v>0.4</v>
-      </c>
-      <c r="AP100">
-        <v>1.06</v>
-      </c>
-      <c r="AQ100">
-        <v>1.42</v>
-      </c>
-      <c r="AR100">
-        <v>0.95</v>
-      </c>
       <c r="AS100">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="AT100">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -22492,25 +22492,25 @@
         <v>3.4</v>
       </c>
       <c r="AN101">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AO101">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP101">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ101">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR101">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS101">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AT101">
-        <v>2.78</v>
+        <v>2.89</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22698,25 +22698,25 @@
         <v>1.62</v>
       </c>
       <c r="AN102">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
       <c r="AO102">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="AP102">
         <v>0.71</v>
       </c>
       <c r="AQ102">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="AS102">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="AT102">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22907,22 +22907,22 @@
         <v>3</v>
       </c>
       <c r="AO103">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AP103">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ103">
         <v>1.06</v>
       </c>
       <c r="AR103">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="AS103">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT103">
-        <v>3.9</v>
+        <v>3.97</v>
       </c>
       <c r="AU103">
         <v>7</v>
@@ -23110,25 +23110,25 @@
         <v>1.27</v>
       </c>
       <c r="AN104">
+        <v>0.73</v>
+      </c>
+      <c r="AO104">
+        <v>1.36</v>
+      </c>
+      <c r="AP104">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ104">
         <v>1.4</v>
       </c>
-      <c r="AO104">
+      <c r="AR104">
         <v>1.4</v>
       </c>
-      <c r="AP104">
-        <v>0.65</v>
-      </c>
-      <c r="AQ104">
-        <v>1.44</v>
-      </c>
-      <c r="AR104">
-        <v>1.6</v>
-      </c>
       <c r="AS104">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT104">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AU104">
         <v>2</v>
@@ -23316,25 +23316,25 @@
         <v>1.11</v>
       </c>
       <c r="AN105">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AO105">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AP105">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR105">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AT105">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -23522,7 +23522,7 @@
         <v>2.4</v>
       </c>
       <c r="AN106">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AO106">
         <v>2.6</v>
@@ -23531,16 +23531,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ106">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR106">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
-        <v>4.12</v>
+        <v>3.97</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23728,25 +23728,25 @@
         <v>2.05</v>
       </c>
       <c r="AN107">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AO107">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AP107">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR107">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AS107">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23934,25 +23934,25 @@
         <v>1.04</v>
       </c>
       <c r="AN108">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AO108">
-        <v>2.17</v>
+        <v>2.42</v>
       </c>
       <c r="AP108">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ108">
         <v>2.47</v>
       </c>
       <c r="AR108">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AS108">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="AT108">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -24140,25 +24140,25 @@
         <v>1.29</v>
       </c>
       <c r="AN109">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="AO109">
         <v>3</v>
       </c>
       <c r="AP109">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ109">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR109">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="AS109">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AT109">
-        <v>4.3</v>
+        <v>4.18</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -24346,25 +24346,25 @@
         <v>1.78</v>
       </c>
       <c r="AN110">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AO110">
-        <v>0.33</v>
+        <v>1.08</v>
       </c>
       <c r="AP110">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ110">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR110">
-        <v>1.89</v>
+        <v>1.45</v>
       </c>
       <c r="AS110">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT110">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU110">
         <v>6</v>
@@ -24552,25 +24552,25 @@
         <v>3.2</v>
       </c>
       <c r="AN111">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ111">
         <v>0.71</v>
       </c>
       <c r="AR111">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AS111">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AT111">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="AU111">
         <v>13</v>
@@ -24761,22 +24761,22 @@
         <v>1.17</v>
       </c>
       <c r="AO112">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AP112">
         <v>1.06</v>
       </c>
       <c r="AQ112">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR112">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT112">
-        <v>2.91</v>
+        <v>2.6</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24964,25 +24964,25 @@
         <v>1.77</v>
       </c>
       <c r="AN113">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AO113">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR113">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS113">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT113">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -25170,25 +25170,25 @@
         <v>5.5</v>
       </c>
       <c r="AN114">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AO114">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ114">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR114">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AT114">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AU114">
         <v>9</v>
@@ -25376,25 +25376,25 @@
         <v>1.65</v>
       </c>
       <c r="AN115">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO115">
-        <v>0.83</v>
+        <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ115">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR115">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AS115">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AT115">
-        <v>2.47</v>
+        <v>2.92</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25582,25 +25582,25 @@
         <v>1.65</v>
       </c>
       <c r="AN116">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR116">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AS116">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT116">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU116">
         <v>7</v>
@@ -25788,25 +25788,25 @@
         <v>2.19</v>
       </c>
       <c r="AN117">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AO117">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ117">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR117">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AS117">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AT117">
-        <v>3.14</v>
+        <v>2.8</v>
       </c>
       <c r="AU117">
         <v>9</v>
@@ -25994,25 +25994,25 @@
         <v>1.53</v>
       </c>
       <c r="AN118">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AO118">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AP118">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ118">
         <v>1.06</v>
       </c>
       <c r="AR118">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="AS118">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AT118">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -26200,25 +26200,25 @@
         <v>1.83</v>
       </c>
       <c r="AN119">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="AP119">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ119">
         <v>0.71</v>
       </c>
       <c r="AR119">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AS119">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AT119">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU119">
         <v>12</v>
@@ -26409,22 +26409,22 @@
         <v>1</v>
       </c>
       <c r="AO120">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AP120">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ120">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR120">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AS120">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AT120">
-        <v>2.31</v>
+        <v>2.6</v>
       </c>
       <c r="AU120">
         <v>9</v>
@@ -26612,25 +26612,25 @@
         <v>1.5</v>
       </c>
       <c r="AN121">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="AO121">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR121">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS121">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AT121">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26818,7 +26818,7 @@
         <v>1.7</v>
       </c>
       <c r="AN122">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AO122">
         <v>3</v>
@@ -26827,16 +26827,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ122">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR122">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AS122">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="AT122">
-        <v>4.81</v>
+        <v>4.76</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -27024,25 +27024,25 @@
         <v>1.22</v>
       </c>
       <c r="AN123">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO123">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ123">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR123">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AS123">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="AT123">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -27230,25 +27230,25 @@
         <v>1.27</v>
       </c>
       <c r="AN124">
-        <v>2.67</v>
+        <v>1.69</v>
       </c>
       <c r="AO124">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="AP124">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR124">
-        <v>2.09</v>
+        <v>1.51</v>
       </c>
       <c r="AS124">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AT124">
-        <v>3.56</v>
+        <v>3.06</v>
       </c>
       <c r="AU124">
         <v>10</v>
@@ -27436,25 +27436,25 @@
         <v>1.25</v>
       </c>
       <c r="AN125">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AO125">
-        <v>2.17</v>
+        <v>2.42</v>
       </c>
       <c r="AP125">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR125">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AS125">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AT125">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27642,25 +27642,25 @@
         <v>3.5</v>
       </c>
       <c r="AN126">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="AO126">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="AP126">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ126">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR126">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AS126">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AT126">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27851,22 +27851,22 @@
         <v>1</v>
       </c>
       <c r="AO127">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AP127">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ127">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR127">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AS127">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT127">
-        <v>3.02</v>
+        <v>3.22</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -28057,22 +28057,22 @@
         <v>3</v>
       </c>
       <c r="AO128">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AP128">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ128">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR128">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="AS128">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="AT128">
-        <v>3.73</v>
+        <v>3.95</v>
       </c>
       <c r="AU128">
         <v>9</v>
@@ -28263,22 +28263,22 @@
         <v>2.29</v>
       </c>
       <c r="AO129">
-        <v>0.14</v>
+        <v>0.57</v>
       </c>
       <c r="AP129">
         <v>2.47</v>
       </c>
       <c r="AQ129">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR129">
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="AS129">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AU129">
         <v>11</v>
@@ -28466,25 +28466,25 @@
         <v>4.2</v>
       </c>
       <c r="AN130">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO130">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AP130">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ130">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR130">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS130">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28672,25 +28672,25 @@
         <v>2.9</v>
       </c>
       <c r="AN131">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO131">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AP131">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="AS131">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT131">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="AU131">
         <v>8</v>
@@ -28878,25 +28878,25 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AO132">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AP132">
         <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR132">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS132">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AT132">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -29084,25 +29084,25 @@
         <v>4.4</v>
       </c>
       <c r="AN133">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO133">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AP133">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ133">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR133">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT133">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="AU133">
         <v>8</v>
@@ -29290,25 +29290,25 @@
         <v>1.68</v>
       </c>
       <c r="AN134">
-        <v>2.29</v>
+        <v>1.57</v>
       </c>
       <c r="AO134">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP134">
+        <v>1.44</v>
+      </c>
+      <c r="AQ134">
         <v>1.47</v>
       </c>
-      <c r="AQ134">
-        <v>1.24</v>
-      </c>
       <c r="AR134">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
       <c r="AS134">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT134">
-        <v>3.24</v>
+        <v>2.86</v>
       </c>
       <c r="AU134">
         <v>8</v>
@@ -29496,25 +29496,25 @@
         <v>1.97</v>
       </c>
       <c r="AN135">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO135">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP135">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ135">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR135">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="AS135">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AT135">
-        <v>3.19</v>
+        <v>2.78</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29702,25 +29702,25 @@
         <v>1.78</v>
       </c>
       <c r="AN136">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO136">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="AP136">
         <v>0.71</v>
       </c>
       <c r="AQ136">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR136">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AS136">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AT136">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="AU136">
         <v>3</v>
@@ -29908,25 +29908,25 @@
         <v>1.78</v>
       </c>
       <c r="AN137">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AO137">
-        <v>0.29</v>
+        <v>1.27</v>
       </c>
       <c r="AP137">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ137">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR137">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS137">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AT137">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -30114,25 +30114,25 @@
         <v>2.4</v>
       </c>
       <c r="AN138">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="AO138">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AP138">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ138">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR138">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS138">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT138">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="AU138">
         <v>7</v>
@@ -30320,25 +30320,25 @@
         <v>1.41</v>
       </c>
       <c r="AN139">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO139">
-        <v>0.86</v>
+        <v>1.47</v>
       </c>
       <c r="AP139">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR139">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AS139">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="AT139">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="AU139">
         <v>4</v>
@@ -30526,25 +30526,25 @@
         <v>2.85</v>
       </c>
       <c r="AN140">
-        <v>1.86</v>
+        <v>1.27</v>
       </c>
       <c r="AO140">
-        <v>0.13</v>
+        <v>0.53</v>
       </c>
       <c r="AP140">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ140">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR140">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="AS140">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AT140">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="AU140">
         <v>8</v>
@@ -30732,25 +30732,25 @@
         <v>1.57</v>
       </c>
       <c r="AN141">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AO141">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>0.71</v>
       </c>
       <c r="AR141">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AS141">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AT141">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="AU141">
         <v>8</v>
@@ -30938,25 +30938,25 @@
         <v>1.23</v>
       </c>
       <c r="AN142">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AO142">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP142">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ142">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR142">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AT142">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="AU142">
         <v>9</v>
@@ -31144,25 +31144,25 @@
         <v>1.05</v>
       </c>
       <c r="AN143">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AO143">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AP143">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ143">
         <v>2.47</v>
       </c>
       <c r="AR143">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS143">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="AT143">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="AU143">
         <v>2</v>
@@ -31350,25 +31350,25 @@
         <v>3.5</v>
       </c>
       <c r="AN144">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="AO144">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
       </c>
       <c r="AR144">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="AS144">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AT144">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31556,22 +31556,22 @@
         <v>1.26</v>
       </c>
       <c r="AN145">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AO145">
         <v>3</v>
       </c>
       <c r="AP145">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ145">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR145">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AS145">
-        <v>2.34</v>
+        <v>2.49</v>
       </c>
       <c r="AT145">
         <v>4.2</v>
@@ -31765,22 +31765,22 @@
         <v>0.88</v>
       </c>
       <c r="AO146">
-        <v>0.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP146">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ146">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR146">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AS146">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT146">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
       <c r="AU146">
         <v>9</v>
@@ -31968,25 +31968,25 @@
         <v>1.55</v>
       </c>
       <c r="AN147">
-        <v>2.13</v>
+        <v>1.19</v>
       </c>
       <c r="AO147">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AP147">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ147">
+        <v>1.4</v>
+      </c>
+      <c r="AR147">
+        <v>1.46</v>
+      </c>
+      <c r="AS147">
         <v>1.44</v>
       </c>
-      <c r="AR147">
-        <v>1.7</v>
-      </c>
-      <c r="AS147">
-        <v>1.3</v>
-      </c>
       <c r="AT147">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU147">
         <v>8</v>
@@ -32174,25 +32174,25 @@
         <v>1.73</v>
       </c>
       <c r="AN148">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="AO148">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP148">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ148">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR148">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AS148">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AT148">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="AU148">
         <v>9</v>
@@ -32380,25 +32380,25 @@
         <v>1.48</v>
       </c>
       <c r="AN149">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AO149">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AP149">
         <v>1.06</v>
       </c>
       <c r="AQ149">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR149">
+        <v>1.4</v>
+      </c>
+      <c r="AS149">
         <v>1.49</v>
       </c>
-      <c r="AS149">
-        <v>1.12</v>
-      </c>
       <c r="AT149">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32589,22 +32589,22 @@
         <v>3</v>
       </c>
       <c r="AO150">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AP150">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ150">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR150">
-        <v>2.61</v>
+        <v>2.46</v>
       </c>
       <c r="AS150">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AT150">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="AU150">
         <v>16</v>
@@ -32792,25 +32792,25 @@
         <v>1.44</v>
       </c>
       <c r="AN151">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO151">
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AS151">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AT151">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32998,25 +32998,25 @@
         <v>1.2</v>
       </c>
       <c r="AN152">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AO152">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AP152">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR152">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="AS152">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="AT152">
-        <v>3.88</v>
+        <v>3.47</v>
       </c>
       <c r="AU152">
         <v>13</v>
@@ -33204,25 +33204,25 @@
         <v>1.34</v>
       </c>
       <c r="AN153">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO153">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AP153">
         <v>0.71</v>
       </c>
       <c r="AQ153">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR153">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AS153">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AT153">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU153">
         <v>7</v>
@@ -33413,22 +33413,22 @@
         <v>2.38</v>
       </c>
       <c r="AO154">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AP154">
         <v>2.47</v>
       </c>
       <c r="AQ154">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR154">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="AS154">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT154">
-        <v>3.61</v>
+        <v>3.65</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33619,22 +33619,22 @@
         <v>1</v>
       </c>
       <c r="AO155">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AP155">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR155">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AS155">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AT155">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33822,25 +33822,25 @@
         <v>1.24</v>
       </c>
       <c r="AN156">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO156">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ156">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR156">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AS156">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AT156">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="AU156">
         <v>9</v>
@@ -34028,25 +34028,25 @@
         <v>2.15</v>
       </c>
       <c r="AN157">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO157">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ157">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR157">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AS157">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="AT157">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="AU157">
         <v>9</v>
@@ -34234,25 +34234,25 @@
         <v>3.25</v>
       </c>
       <c r="AN158">
-        <v>2.11</v>
+        <v>1.94</v>
       </c>
       <c r="AO158">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="AP158">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
       </c>
       <c r="AR158">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT158">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="AU158">
         <v>9</v>
@@ -34440,25 +34440,25 @@
         <v>1.11</v>
       </c>
       <c r="AN159">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO159">
         <v>3</v>
       </c>
       <c r="AP159">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ159">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR159">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AS159">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="AT159">
-        <v>3.81</v>
+        <v>3.84</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34646,10 +34646,10 @@
         <v>1.03</v>
       </c>
       <c r="AN160">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AO160">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AP160">
         <v>0.71</v>
@@ -34658,13 +34658,13 @@
         <v>2.47</v>
       </c>
       <c r="AR160">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AS160">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="AT160">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34852,25 +34852,25 @@
         <v>1.64</v>
       </c>
       <c r="AN161">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO161">
-        <v>0.88</v>
+        <v>1.35</v>
       </c>
       <c r="AP161">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ161">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR161">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AS161">
-        <v>1.09</v>
+        <v>1.66</v>
       </c>
       <c r="AT161">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -35058,25 +35058,25 @@
         <v>3.75</v>
       </c>
       <c r="AN162">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AO162">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AP162">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ162">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR162">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="AS162">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AT162">
-        <v>3.37</v>
+        <v>3.21</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -35264,25 +35264,25 @@
         <v>1.6</v>
       </c>
       <c r="AN163">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AO163">
-        <v>0.25</v>
+        <v>1.12</v>
       </c>
       <c r="AP163">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ163">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR163">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS163">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="AT163">
-        <v>2.63</v>
+        <v>2.89</v>
       </c>
       <c r="AU163">
         <v>2</v>
@@ -35470,7 +35470,7 @@
         <v>1.83</v>
       </c>
       <c r="AN164">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AO164">
         <v>0.67</v>
@@ -35482,13 +35482,13 @@
         <v>0.71</v>
       </c>
       <c r="AR164">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AS164">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT164">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="AU164">
         <v>10</v>
@@ -35679,22 +35679,22 @@
         <v>0.78</v>
       </c>
       <c r="AO165">
-        <v>1.78</v>
+        <v>1.39</v>
       </c>
       <c r="AP165">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ165">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR165">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AS165">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT165">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="AU165">
         <v>3</v>
@@ -35882,25 +35882,25 @@
         <v>7.5</v>
       </c>
       <c r="AN166">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="AO166">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP166">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ166">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR166">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AS166">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT166">
-        <v>3.98</v>
+        <v>3.77</v>
       </c>
       <c r="AU166">
         <v>9</v>
@@ -36088,25 +36088,25 @@
         <v>1.38</v>
       </c>
       <c r="AN167">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AO167">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AP167">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ167">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR167">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AS167">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT167">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36294,25 +36294,25 @@
         <v>1.07</v>
       </c>
       <c r="AN168">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AO168">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="AP168">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ168">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR168">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AS168">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AT168">
-        <v>3.07</v>
+        <v>3.12</v>
       </c>
       <c r="AU168">
         <v>8</v>
@@ -36500,25 +36500,25 @@
         <v>1.33</v>
       </c>
       <c r="AN169">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AO169">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AP169">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR169">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AS169">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AT169">
-        <v>3.29</v>
+        <v>3.11</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36706,25 +36706,25 @@
         <v>1.76</v>
       </c>
       <c r="AN170">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="AO170">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AP170">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ170">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR170">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="AS170">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AT170">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="AU170">
         <v>6</v>
@@ -36912,25 +36912,25 @@
         <v>2.75</v>
       </c>
       <c r="AN171">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AO171">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AP171">
         <v>2.47</v>
       </c>
       <c r="AQ171">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR171">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="AS171">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AT171">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -37118,25 +37118,25 @@
         <v>1.34</v>
       </c>
       <c r="AN172">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AO172">
-        <v>0.33</v>
+        <v>1.11</v>
       </c>
       <c r="AP172">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ172">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR172">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AS172">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AT172">
-        <v>2.66</v>
+        <v>2.73</v>
       </c>
       <c r="AU172">
         <v>4</v>
@@ -37324,25 +37324,25 @@
         <v>1.88</v>
       </c>
       <c r="AN173">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AO173">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP173">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR173">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AS173">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AT173">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU173">
         <v>4</v>
@@ -37530,25 +37530,25 @@
         <v>3.6</v>
       </c>
       <c r="AN174">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="AO174">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AP174">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ174">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR174">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="AS174">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT174">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="AU174">
         <v>11</v>
@@ -37736,25 +37736,25 @@
         <v>1.55</v>
       </c>
       <c r="AN175">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="AO175">
-        <v>0.7</v>
+        <v>1.11</v>
       </c>
       <c r="AP175">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR175">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="AS175">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AT175">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37942,25 +37942,25 @@
         <v>1.35</v>
       </c>
       <c r="AN176">
-        <v>2.11</v>
+        <v>1.79</v>
       </c>
       <c r="AO176">
-        <v>2.78</v>
+        <v>2.89</v>
       </c>
       <c r="AP176">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ176">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR176">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="AS176">
-        <v>2.21</v>
+        <v>2.41</v>
       </c>
       <c r="AT176">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -38148,25 +38148,25 @@
         <v>2.05</v>
       </c>
       <c r="AN177">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AO177">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ177">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR177">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AS177">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AT177">
-        <v>2.73</v>
+        <v>2.66</v>
       </c>
       <c r="AU177">
         <v>13</v>
@@ -38354,25 +38354,25 @@
         <v>1.37</v>
       </c>
       <c r="AN178">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AO178">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AP178">
         <v>0.71</v>
       </c>
       <c r="AQ178">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR178">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS178">
-        <v>1.09</v>
+        <v>1.63</v>
       </c>
       <c r="AT178">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38560,25 +38560,25 @@
         <v>1.25</v>
       </c>
       <c r="AN179">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AO179">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="AP179">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ179">
         <v>2.47</v>
       </c>
       <c r="AR179">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="AS179">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AT179">
-        <v>3.92</v>
+        <v>3.83</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38766,25 +38766,25 @@
         <v>3</v>
       </c>
       <c r="AN180">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="AO180">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP180">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR180">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AS180">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AT180">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU180">
         <v>11</v>
@@ -38972,25 +38972,25 @@
         <v>1.72</v>
       </c>
       <c r="AN181">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AO181">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AP181">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ181">
         <v>1.06</v>
       </c>
       <c r="AR181">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AS181">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT181">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AU181">
         <v>12</v>
@@ -39178,25 +39178,25 @@
         <v>1.45</v>
       </c>
       <c r="AN182">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AO182">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AP182">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ182">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR182">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AS182">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AT182">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39384,25 +39384,25 @@
         <v>1.12</v>
       </c>
       <c r="AN183">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AO183">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="AP183">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ183">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR183">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS183">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AT183">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39590,25 +39590,25 @@
         <v>1.16</v>
       </c>
       <c r="AN184">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AO184">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AP184">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ184">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR184">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AS184">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="AT184">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39796,25 +39796,25 @@
         <v>1.72</v>
       </c>
       <c r="AN185">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AO185">
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ185">
         <v>0.71</v>
       </c>
       <c r="AR185">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AS185">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT185">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="AU185">
         <v>9</v>
@@ -40002,25 +40002,25 @@
         <v>2.05</v>
       </c>
       <c r="AN186">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AO186">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP186">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ186">
         <v>1.06</v>
       </c>
       <c r="AR186">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="AS186">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AT186">
-        <v>3.38</v>
+        <v>3.03</v>
       </c>
       <c r="AU186">
         <v>5</v>
@@ -40208,25 +40208,25 @@
         <v>1.9</v>
       </c>
       <c r="AN187">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AO187">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP187">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ187">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR187">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AS187">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU187">
         <v>9</v>
@@ -40414,25 +40414,25 @@
         <v>1.23</v>
       </c>
       <c r="AN188">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="AO188">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP188">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ188">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR188">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="AS188">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AT188">
-        <v>3.64</v>
+        <v>3.37</v>
       </c>
       <c r="AU188">
         <v>6</v>
@@ -40620,25 +40620,25 @@
         <v>1.01</v>
       </c>
       <c r="AN189">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO189">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AP189">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ189">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR189">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AS189">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AT189">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40826,25 +40826,25 @@
         <v>5.75</v>
       </c>
       <c r="AN190">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AO190">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AP190">
         <v>2.47</v>
       </c>
       <c r="AQ190">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR190">
-        <v>2.32</v>
+        <v>2.17</v>
       </c>
       <c r="AS190">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="AT190">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="AU190">
         <v>6</v>
@@ -41032,25 +41032,25 @@
         <v>6.5</v>
       </c>
       <c r="AN191">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AO191">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AP191">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ191">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR191">
-        <v>2.59</v>
+        <v>2.43</v>
       </c>
       <c r="AS191">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AT191">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="AU191">
         <v>15</v>
@@ -41238,25 +41238,25 @@
         <v>1.22</v>
       </c>
       <c r="AN192">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AO192">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AP192">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ192">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR192">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="AS192">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AT192">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41444,25 +41444,25 @@
         <v>1.91</v>
       </c>
       <c r="AN193">
-        <v>0.9</v>
+        <v>1.24</v>
       </c>
       <c r="AO193">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR193">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AS193">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AT193">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="AU193">
         <v>10</v>
@@ -41650,25 +41650,25 @@
         <v>1.68</v>
       </c>
       <c r="AN194">
-        <v>1.7</v>
+        <v>1.19</v>
       </c>
       <c r="AO194">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AP194">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ194">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR194">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AS194">
-        <v>1.15</v>
+        <v>1.63</v>
       </c>
       <c r="AT194">
-        <v>2.9</v>
+        <v>3.11</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41856,25 +41856,25 @@
         <v>1.75</v>
       </c>
       <c r="AN195">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AO195">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AP195">
         <v>1.06</v>
       </c>
       <c r="AQ195">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR195">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AS195">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT195">
-        <v>2.76</v>
+        <v>2.67</v>
       </c>
       <c r="AU195">
         <v>3</v>
@@ -42062,25 +42062,25 @@
         <v>2.4</v>
       </c>
       <c r="AN196">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO196">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AP196">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ196">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR196">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="AS196">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AT196">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="AU196">
         <v>3</v>
@@ -42268,25 +42268,25 @@
         <v>2.8</v>
       </c>
       <c r="AN197">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO197">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AP197">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR197">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AS197">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT197">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="AU197">
         <v>5</v>
@@ -42474,25 +42474,25 @@
         <v>1.93</v>
       </c>
       <c r="AN198">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AO198">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="AP198">
         <v>0.71</v>
       </c>
       <c r="AQ198">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR198">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS198">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AT198">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AU198">
         <v>9</v>
@@ -42680,25 +42680,25 @@
         <v>6.5</v>
       </c>
       <c r="AN199">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="AO199">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="AP199">
         <v>2.47</v>
       </c>
       <c r="AQ199">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR199">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="AS199">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT199">
-        <v>3.66</v>
+        <v>3.48</v>
       </c>
       <c r="AU199">
         <v>15</v>
@@ -42886,25 +42886,25 @@
         <v>2.86</v>
       </c>
       <c r="AN200">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AO200">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ200">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR200">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AS200">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AT200">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="AU200">
         <v>4</v>
@@ -43092,25 +43092,25 @@
         <v>1.57</v>
       </c>
       <c r="AN201">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO201">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AP201">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ201">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR201">
         <v>1.27</v>
       </c>
       <c r="AS201">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AT201">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="AU201">
         <v>0</v>
@@ -43298,25 +43298,25 @@
         <v>1.05</v>
       </c>
       <c r="AN202">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AO202">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="AP202">
         <v>1.06</v>
       </c>
       <c r="AQ202">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR202">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS202">
-        <v>2.29</v>
+        <v>2.51</v>
       </c>
       <c r="AT202">
-        <v>3.77</v>
+        <v>3.89</v>
       </c>
       <c r="AU202">
         <v>2</v>
@@ -43504,25 +43504,25 @@
         <v>1.92</v>
       </c>
       <c r="AN203">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AO203">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AP203">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ203">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR203">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AS203">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT203">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43710,25 +43710,25 @@
         <v>1.72</v>
       </c>
       <c r="AN204">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AO204">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="AP204">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ204">
         <v>0.71</v>
       </c>
       <c r="AR204">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AS204">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AT204">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="AU204">
         <v>8</v>
@@ -43916,25 +43916,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AO205">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AP205">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ205">
         <v>2.47</v>
       </c>
       <c r="AR205">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AS205">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="AT205">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -44122,25 +44122,25 @@
         <v>2.6</v>
       </c>
       <c r="AN206">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AO206">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AP206">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ206">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR206">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="AS206">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="AT206">
-        <v>2.98</v>
+        <v>3.23</v>
       </c>
       <c r="AU206">
         <v>7</v>
@@ -44328,25 +44328,25 @@
         <v>1.7</v>
       </c>
       <c r="AN207">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AO207">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AP207">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ207">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR207">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AS207">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AT207">
-        <v>3.53</v>
+        <v>3.41</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44534,25 +44534,25 @@
         <v>1.2</v>
       </c>
       <c r="AN208">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AO208">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="AP208">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ208">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR208">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="AS208">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="AT208">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44740,22 +44740,22 @@
         <v>1.38</v>
       </c>
       <c r="AN209">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="AO209">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="AP209">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ209">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR209">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AS209">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="AT209">
         <v>2.67</v>
@@ -44946,25 +44946,25 @@
         <v>2.15</v>
       </c>
       <c r="AN210">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AO210">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="AP210">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ210">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR210">
-        <v>2.05</v>
+        <v>1.59</v>
       </c>
       <c r="AS210">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT210">
-        <v>3.33</v>
+        <v>2.84</v>
       </c>
       <c r="AU210">
         <v>9</v>
@@ -45152,25 +45152,25 @@
         <v>1.13</v>
       </c>
       <c r="AN211">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="AO211">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="AP211">
         <v>0.71</v>
       </c>
       <c r="AQ211">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR211">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS211">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AT211">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -45358,25 +45358,25 @@
         <v>1.23</v>
       </c>
       <c r="AN212">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="AO212">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AP212">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ212">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR212">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AS212">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AT212">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45564,25 +45564,25 @@
         <v>2.1</v>
       </c>
       <c r="AN213">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AO213">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AP213">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ213">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR213">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AS213">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AT213">
-        <v>3.03</v>
+        <v>3.21</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -45770,25 +45770,25 @@
         <v>1.83</v>
       </c>
       <c r="AN214">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="AO214">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
       <c r="AP214">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ214">
         <v>2.47</v>
       </c>
       <c r="AR214">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="AS214">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="AT214">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AU214">
         <v>9</v>
@@ -45976,25 +45976,25 @@
         <v>2.23</v>
       </c>
       <c r="AN215">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="AO215">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="AP215">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ215">
         <v>1.06</v>
       </c>
       <c r="AR215">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="AS215">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT215">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="AU215">
         <v>7</v>
@@ -46182,25 +46182,25 @@
         <v>1.92</v>
       </c>
       <c r="AN216">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AO216">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="AP216">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ216">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR216">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AS216">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AT216">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="AU216">
         <v>9</v>
@@ -46388,25 +46388,25 @@
         <v>1.58</v>
       </c>
       <c r="AN217">
+        <v>0.96</v>
+      </c>
+      <c r="AO217">
+        <v>1.17</v>
+      </c>
+      <c r="AP217">
+        <v>0.97</v>
+      </c>
+      <c r="AQ217">
+        <v>1</v>
+      </c>
+      <c r="AR217">
+        <v>1.21</v>
+      </c>
+      <c r="AS217">
         <v>1.27</v>
       </c>
-      <c r="AO217">
-        <v>1.27</v>
-      </c>
-      <c r="AP217">
-        <v>1.29</v>
-      </c>
-      <c r="AQ217">
-        <v>1.06</v>
-      </c>
-      <c r="AR217">
-        <v>1.4</v>
-      </c>
-      <c r="AS217">
-        <v>1.21</v>
-      </c>
       <c r="AT217">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46594,25 +46594,25 @@
         <v>1.05</v>
       </c>
       <c r="AN218">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="AO218">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AP218">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR218">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="AS218">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT218">
-        <v>4.38</v>
+        <v>4.11</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46800,25 +46800,25 @@
         <v>3</v>
       </c>
       <c r="AN219">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="AO219">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AP219">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ219">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR219">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AS219">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AT219">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -47006,25 +47006,25 @@
         <v>1.28</v>
       </c>
       <c r="AN220">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO220">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP220">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ220">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AS220">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AT220">
-        <v>2.49</v>
+        <v>2.66</v>
       </c>
       <c r="AU220">
         <v>3</v>
@@ -47212,25 +47212,25 @@
         <v>1.66</v>
       </c>
       <c r="AN221">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="AO221">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP221">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ221">
         <v>0.71</v>
       </c>
       <c r="AR221">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AS221">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT221">
-        <v>2.39</v>
+        <v>2.58</v>
       </c>
       <c r="AU221">
         <v>7</v>
@@ -47418,25 +47418,25 @@
         <v>3.45</v>
       </c>
       <c r="AN222">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AO222">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP222">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ222">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR222">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AS222">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AT222">
-        <v>2.76</v>
+        <v>2.81</v>
       </c>
       <c r="AU222">
         <v>11</v>
@@ -47624,25 +47624,25 @@
         <v>2.77</v>
       </c>
       <c r="AN223">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AO223">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AP223">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ223">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR223">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AS223">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AT223">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -47830,25 +47830,25 @@
         <v>2.5</v>
       </c>
       <c r="AN224">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="AO224">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AP224">
         <v>1.06</v>
       </c>
       <c r="AQ224">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR224">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AS224">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT224">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU224">
         <v>11</v>
@@ -48036,25 +48036,25 @@
         <v>1.71</v>
       </c>
       <c r="AN225">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO225">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
       <c r="AP225">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ225">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR225">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AS225">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AT225">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="AU225">
         <v>6</v>
@@ -48242,25 +48242,25 @@
         <v>9.5</v>
       </c>
       <c r="AN226">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AO226">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="AP226">
         <v>2.47</v>
       </c>
       <c r="AQ226">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR226">
-        <v>2.41</v>
+        <v>2.14</v>
       </c>
       <c r="AS226">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="AT226">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="AU226">
         <v>6</v>
@@ -48448,25 +48448,25 @@
         <v>1.42</v>
       </c>
       <c r="AN227">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AO227">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AP227">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ227">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR227">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AS227">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="AT227">
-        <v>2.6</v>
+        <v>2.81</v>
       </c>
       <c r="AU227">
         <v>4</v>
@@ -48654,25 +48654,25 @@
         <v>1.98</v>
       </c>
       <c r="AN228">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="AO228">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AP228">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ228">
         <v>1.06</v>
       </c>
       <c r="AR228">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="AS228">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="AT228">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="AU228">
         <v>13</v>
@@ -48860,25 +48860,25 @@
         <v>1.7</v>
       </c>
       <c r="AN229">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AO229">
-        <v>0.58</v>
+        <v>0.84</v>
       </c>
       <c r="AP229">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ229">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR229">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AS229">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT229">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="AU229">
         <v>7</v>
@@ -49066,25 +49066,25 @@
         <v>1.65</v>
       </c>
       <c r="AN230">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="AO230">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AP230">
         <v>0.71</v>
       </c>
       <c r="AQ230">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR230">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AS230">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT230">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="AU230">
         <v>8</v>
@@ -49272,25 +49272,25 @@
         <v>1.04</v>
       </c>
       <c r="AN231">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO231">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="AP231">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ231">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR231">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AS231">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AT231">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU231">
         <v>3</v>
@@ -49478,25 +49478,25 @@
         <v>1.87</v>
       </c>
       <c r="AN232">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AO232">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AP232">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ232">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR232">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AS232">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AT232">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="AU232">
         <v>5</v>
@@ -49684,25 +49684,25 @@
         <v>1.14</v>
       </c>
       <c r="AN233">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="AO233">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="AP233">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ233">
         <v>2.47</v>
       </c>
       <c r="AR233">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="AS233">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="AT233">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49890,25 +49890,25 @@
         <v>1.32</v>
       </c>
       <c r="AN234">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AO234">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP234">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ234">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR234">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="AS234">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AT234">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="AU234">
         <v>6</v>
@@ -50096,25 +50096,25 @@
         <v>2.95</v>
       </c>
       <c r="AN235">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="AO235">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AP235">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ235">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR235">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="AS235">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AT235">
-        <v>4.08</v>
+        <v>4.12</v>
       </c>
       <c r="AU235">
         <v>6</v>
@@ -50302,22 +50302,22 @@
         <v>1.11</v>
       </c>
       <c r="AN236">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AO236">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="AP236">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ236">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR236">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AS236">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="AT236">
         <v>4.02</v>
@@ -50508,25 +50508,25 @@
         <v>1.68</v>
       </c>
       <c r="AN237">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AO237">
-        <v>0.77</v>
+        <v>1.31</v>
       </c>
       <c r="AP237">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ237">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR237">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AS237">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="AT237">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AU237">
         <v>10</v>
@@ -50714,25 +50714,25 @@
         <v>2.4</v>
       </c>
       <c r="AN238">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AO238">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AP238">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ238">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR238">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AS238">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="AT238">
-        <v>3.04</v>
+        <v>2.84</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50920,25 +50920,25 @@
         <v>1.42</v>
       </c>
       <c r="AN239">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AO239">
+        <v>1.19</v>
+      </c>
+      <c r="AP239">
         <v>0.85</v>
       </c>
-      <c r="AP239">
-        <v>1.06</v>
-      </c>
       <c r="AQ239">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR239">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AS239">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AT239">
-        <v>2.54</v>
+        <v>2.79</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -51126,25 +51126,25 @@
         <v>4</v>
       </c>
       <c r="AN240">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO240">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AP240">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ240">
         <v>0.71</v>
       </c>
       <c r="AR240">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AS240">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT240">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="AU240">
         <v>6</v>
@@ -51332,25 +51332,25 @@
         <v>1.25</v>
       </c>
       <c r="AN241">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AO241">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="AP241">
         <v>1.06</v>
       </c>
       <c r="AQ241">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR241">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AS241">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AT241">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="AU241">
         <v>5</v>
@@ -51538,25 +51538,25 @@
         <v>3.75</v>
       </c>
       <c r="AN242">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="AO242">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AP242">
         <v>2.47</v>
       </c>
       <c r="AQ242">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR242">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="AS242">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AT242">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU242">
         <v>12</v>
@@ -51744,22 +51744,22 @@
         <v>4.25</v>
       </c>
       <c r="AN243">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="AO243">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="AP243">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ243">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR243">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AS243">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AT243">
         <v>2.81</v>
@@ -51950,25 +51950,25 @@
         <v>2.7</v>
       </c>
       <c r="AN244">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AO244">
         <v>0.54</v>
       </c>
       <c r="AP244">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ244">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR244">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AS244">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="AT244">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="AU244">
         <v>8</v>
@@ -52156,25 +52156,25 @@
         <v>1.58</v>
       </c>
       <c r="AN245">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AO245">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AP245">
         <v>0.71</v>
       </c>
       <c r="AQ245">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR245">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AS245">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT245">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52362,25 +52362,25 @@
         <v>1.04</v>
       </c>
       <c r="AN246">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO246">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AP246">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ246">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR246">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AS246">
-        <v>2.37</v>
+        <v>2.49</v>
       </c>
       <c r="AT246">
-        <v>3.82</v>
+        <v>3.71</v>
       </c>
       <c r="AU246">
         <v>2</v>
@@ -52568,25 +52568,25 @@
         <v>1.58</v>
       </c>
       <c r="AN247">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="AO247">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="AP247">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ247">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR247">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="AS247">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AT247">
-        <v>3.21</v>
+        <v>3.03</v>
       </c>
       <c r="AU247">
         <v>9</v>
@@ -52774,25 +52774,25 @@
         <v>1.14</v>
       </c>
       <c r="AN248">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="AO248">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="AP248">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ248">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR248">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AS248">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AT248">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="AU248">
         <v>10</v>
@@ -52980,25 +52980,25 @@
         <v>2.38</v>
       </c>
       <c r="AN249">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="AO249">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="AP249">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
       </c>
       <c r="AR249">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="AS249">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AT249">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="AU249">
         <v>8</v>
@@ -53186,25 +53186,25 @@
         <v>1.3</v>
       </c>
       <c r="AN250">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="AO250">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="AP250">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ250">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR250">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AS250">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="AT250">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53392,25 +53392,25 @@
         <v>1.02</v>
       </c>
       <c r="AN251">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO251">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AP251">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ251">
         <v>2.47</v>
       </c>
       <c r="AR251">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AS251">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AT251">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
       <c r="AU251">
         <v>2</v>
@@ -53598,25 +53598,25 @@
         <v>1.73</v>
       </c>
       <c r="AN252">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="AO252">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AP252">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ252">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR252">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AS252">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT252">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53804,25 +53804,25 @@
         <v>2.5</v>
       </c>
       <c r="AN253">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AO253">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AP253">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ253">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR253">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AS253">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="AT253">
-        <v>3.04</v>
+        <v>3.39</v>
       </c>
       <c r="AU253">
         <v>8</v>
@@ -54010,25 +54010,25 @@
         <v>2.05</v>
       </c>
       <c r="AN254">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AO254">
-        <v>0.57</v>
+        <v>1.04</v>
       </c>
       <c r="AP254">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ254">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR254">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AS254">
-        <v>0.98</v>
+        <v>1.22</v>
       </c>
       <c r="AT254">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="AU254">
         <v>5</v>
@@ -54216,25 +54216,25 @@
         <v>2.9</v>
       </c>
       <c r="AN255">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="AO255">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="AP255">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ255">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR255">
-        <v>2.61</v>
+        <v>2.47</v>
       </c>
       <c r="AS255">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AT255">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="AU255">
         <v>9</v>
@@ -54422,25 +54422,25 @@
         <v>1.7</v>
       </c>
       <c r="AN256">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO256">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="AP256">
         <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR256">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AS256">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AT256">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="AU256">
         <v>12</v>
@@ -54628,25 +54628,25 @@
         <v>3.4</v>
       </c>
       <c r="AN257">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="AO257">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="AP257">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ257">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR257">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AS257">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="AT257">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="AU257">
         <v>9</v>
@@ -54834,25 +54834,25 @@
         <v>1.4</v>
       </c>
       <c r="AN258">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="AO258">
-        <v>1.14</v>
+        <v>1.54</v>
       </c>
       <c r="AP258">
         <v>0.71</v>
       </c>
       <c r="AQ258">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR258">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="AS258">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AT258">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -55043,22 +55043,22 @@
         <v>2.36</v>
       </c>
       <c r="AO259">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AP259">
         <v>2.47</v>
       </c>
       <c r="AQ259">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR259">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="AS259">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AT259">
-        <v>4.13</v>
+        <v>3.96</v>
       </c>
       <c r="AU259">
         <v>16</v>
@@ -55246,25 +55246,25 @@
         <v>2.1</v>
       </c>
       <c r="AN260">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AO260">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AP260">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ260">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR260">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="AS260">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AT260">
-        <v>3.18</v>
+        <v>2.85</v>
       </c>
       <c r="AU260">
         <v>5</v>
@@ -55455,22 +55455,22 @@
         <v>0.57</v>
       </c>
       <c r="AO261">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AP261">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ261">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR261">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS261">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AT261">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU261">
         <v>9</v>
@@ -55658,25 +55658,25 @@
         <v>1.52</v>
       </c>
       <c r="AN262">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AO262">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AP262">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ262">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR262">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AS262">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AT262">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="AU262">
         <v>6</v>
@@ -55864,25 +55864,25 @@
         <v>2.1</v>
       </c>
       <c r="AN263">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="AO263">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="AP263">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ263">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR263">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AS263">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT263">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AU263">
         <v>16</v>
@@ -56070,25 +56070,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AN264">
-        <v>2.86</v>
+        <v>2.69</v>
       </c>
       <c r="AO264">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="AP264">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ264">
         <v>0.71</v>
       </c>
       <c r="AR264">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AS264">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AT264">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
       <c r="AU264">
         <v>13</v>
@@ -56276,25 +56276,25 @@
         <v>3.35</v>
       </c>
       <c r="AN265">
-        <v>2.07</v>
+        <v>1.79</v>
       </c>
       <c r="AO265">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="AP265">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ265">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR265">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="AS265">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT265">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="AU265">
         <v>8</v>
@@ -56482,25 +56482,25 @@
         <v>1.37</v>
       </c>
       <c r="AN266">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AO266">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AP266">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ266">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR266">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS266">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AT266">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56688,25 +56688,25 @@
         <v>1.45</v>
       </c>
       <c r="AN267">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AO267">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AP267">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ267">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR267">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AS267">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AT267">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="AU267">
         <v>4</v>
@@ -56894,25 +56894,25 @@
         <v>1.05</v>
       </c>
       <c r="AN268">
-        <v>1.79</v>
+        <v>1.21</v>
       </c>
       <c r="AO268">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AP268">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ268">
         <v>2.47</v>
       </c>
       <c r="AR268">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="AS268">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
       <c r="AT268">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="AU268">
         <v>4</v>
@@ -57100,25 +57100,25 @@
         <v>2.1</v>
       </c>
       <c r="AN269">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AO269">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AP269">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ269">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR269">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AS269">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="AT269">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="AU269">
         <v>7</v>
@@ -57306,25 +57306,25 @@
         <v>1.5</v>
       </c>
       <c r="AN270">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="AO270">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
       <c r="AP270">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ270">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR270">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AS270">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT270">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="AU270">
         <v>5</v>
@@ -57512,25 +57512,25 @@
         <v>2.5</v>
       </c>
       <c r="AN271">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="AO271">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AP271">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ271">
         <v>1.06</v>
       </c>
       <c r="AR271">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AS271">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="AT271">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="AU271">
         <v>10</v>
@@ -57718,25 +57718,25 @@
         <v>3.6</v>
       </c>
       <c r="AN272">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="AO272">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AP272">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ272">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR272">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AS272">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT272">
-        <v>3.06</v>
+        <v>2.89</v>
       </c>
       <c r="AU272">
         <v>9</v>
@@ -57924,25 +57924,25 @@
         <v>3.35</v>
       </c>
       <c r="AN273">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="AO273">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="AP273">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ273">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR273">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AS273">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="AT273">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU273">
         <v>6</v>
@@ -58130,22 +58130,22 @@
         <v>1.09</v>
       </c>
       <c r="AN274">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO274">
-        <v>2.53</v>
+        <v>2.7</v>
       </c>
       <c r="AP274">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ274">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR274">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AS274">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="AT274">
         <v>3.97</v>
@@ -58336,25 +58336,25 @@
         <v>1.15</v>
       </c>
       <c r="AN275">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AO275">
         <v>2.4</v>
       </c>
       <c r="AP275">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ275">
         <v>2.47</v>
       </c>
       <c r="AR275">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="AS275">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="AT275">
-        <v>3.79</v>
+        <v>3.73</v>
       </c>
       <c r="AU275">
         <v>7</v>
@@ -58542,25 +58542,25 @@
         <v>1.7</v>
       </c>
       <c r="AN276">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO276">
-        <v>0.73</v>
+        <v>1.07</v>
       </c>
       <c r="AP276">
         <v>1.06</v>
       </c>
       <c r="AQ276">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR276">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AS276">
-        <v>0.99</v>
+        <v>1.22</v>
       </c>
       <c r="AT276">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="AU276">
         <v>7</v>
@@ -58748,25 +58748,25 @@
         <v>1.23</v>
       </c>
       <c r="AN277">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AO277">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="AP277">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ277">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR277">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AS277">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AT277">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU277">
         <v>7</v>
@@ -58954,25 +58954,25 @@
         <v>2.93</v>
       </c>
       <c r="AN278">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AO278">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="AP278">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ278">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR278">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AS278">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT278">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="AU278">
         <v>4</v>
@@ -59160,25 +59160,25 @@
         <v>1.4</v>
       </c>
       <c r="AN279">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AO279">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AP279">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ279">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR279">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AS279">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AT279">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="AU279">
         <v>7</v>
@@ -59366,25 +59366,25 @@
         <v>1.2</v>
       </c>
       <c r="AN280">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AO280">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AP280">
         <v>0.71</v>
       </c>
       <c r="AQ280">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR280">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="AS280">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AT280">
-        <v>2.71</v>
+        <v>2.84</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59572,25 +59572,25 @@
         <v>1.6</v>
       </c>
       <c r="AN281">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AO281">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="AP281">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ281">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR281">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AS281">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="AT281">
-        <v>3.02</v>
+        <v>3.11</v>
       </c>
       <c r="AU281">
         <v>6</v>
@@ -59778,25 +59778,25 @@
         <v>1.48</v>
       </c>
       <c r="AN282">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AO282">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP282">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ282">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR282">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS282">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AT282">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59984,25 +59984,25 @@
         <v>1.62</v>
       </c>
       <c r="AN283">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="AO283">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP283">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ283">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR283">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AS283">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AT283">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="AU283">
         <v>6</v>
@@ -60190,25 +60190,25 @@
         <v>6</v>
       </c>
       <c r="AN284">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AO284">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AP284">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ284">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR284">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AS284">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AT284">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="AU284">
         <v>8</v>
@@ -60396,25 +60396,25 @@
         <v>2.95</v>
       </c>
       <c r="AN285">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AO285">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="AP285">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AQ285">
         <v>0.71</v>
       </c>
       <c r="AR285">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="AS285">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="AT285">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU285">
         <v>7</v>
@@ -60602,25 +60602,25 @@
         <v>1.08</v>
       </c>
       <c r="AN286">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="AO286">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="AP286">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ286">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR286">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AS286">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AT286">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="AU286">
         <v>3</v>
@@ -60808,25 +60808,25 @@
         <v>1.62</v>
       </c>
       <c r="AN287">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AO287">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AP287">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ287">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR287">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AS287">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AT287">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
       <c r="AU287">
         <v>5</v>
@@ -61014,7 +61014,7 @@
         <v>7.4</v>
       </c>
       <c r="AN288">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AO288">
         <v>1.13</v>
@@ -61026,13 +61026,13 @@
         <v>1.06</v>
       </c>
       <c r="AR288">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="AS288">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AT288">
-        <v>3.66</v>
+        <v>3.52</v>
       </c>
       <c r="AU288">
         <v>18</v>
@@ -61220,25 +61220,25 @@
         <v>1.4</v>
       </c>
       <c r="AN289">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="AO289">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AP289">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ289">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR289">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AS289">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AT289">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="AU289">
         <v>2</v>
@@ -61426,25 +61426,25 @@
         <v>1.23</v>
       </c>
       <c r="AN290">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AO290">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AP290">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ290">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AR290">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="AS290">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AT290">
-        <v>3.41</v>
+        <v>3.14</v>
       </c>
       <c r="AU290">
         <v>5</v>
@@ -61632,25 +61632,25 @@
         <v>2.11</v>
       </c>
       <c r="AN291">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO291">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AP291">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AQ291">
         <v>1.06</v>
       </c>
       <c r="AR291">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AS291">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AT291">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="AU291">
         <v>6</v>
@@ -61838,25 +61838,25 @@
         <v>1.15</v>
       </c>
       <c r="AN292">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AO292">
         <v>2.44</v>
       </c>
       <c r="AP292">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AQ292">
         <v>2.47</v>
       </c>
       <c r="AR292">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AS292">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="AT292">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
       <c r="AU292">
         <v>7</v>
@@ -62044,25 +62044,25 @@
         <v>2.4</v>
       </c>
       <c r="AN293">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AO293">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AP293">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AQ293">
         <v>0.71</v>
       </c>
       <c r="AR293">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AS293">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AT293">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="AU293">
         <v>6</v>
@@ -62250,25 +62250,25 @@
         <v>2.06</v>
       </c>
       <c r="AN294">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AO294">
+        <v>1.34</v>
+      </c>
+      <c r="AP294">
+        <v>1.47</v>
+      </c>
+      <c r="AQ294">
+        <v>1.4</v>
+      </c>
+      <c r="AR294">
+        <v>1.41</v>
+      </c>
+      <c r="AS294">
         <v>1.44</v>
       </c>
-      <c r="AP294">
-        <v>1.68</v>
-      </c>
-      <c r="AQ294">
-        <v>1.44</v>
-      </c>
-      <c r="AR294">
-        <v>1.61</v>
-      </c>
-      <c r="AS294">
-        <v>1.28</v>
-      </c>
       <c r="AT294">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU294">
         <v>6</v>
@@ -62456,25 +62456,25 @@
         <v>10</v>
       </c>
       <c r="AN295">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="AO295">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="AP295">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AQ295">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR295">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AS295">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AT295">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="AU295">
         <v>11</v>
@@ -62662,25 +62662,25 @@
         <v>1.85</v>
       </c>
       <c r="AN296">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO296">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP296">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AQ296">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="AR296">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AS296">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AT296">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="AU296">
         <v>10</v>
@@ -62868,25 +62868,25 @@
         <v>3.6</v>
       </c>
       <c r="AN297">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AO297">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AP297">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AQ297">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR297">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AS297">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AT297">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="AU297">
         <v>5</v>
@@ -63074,25 +63074,25 @@
         <v>1.01</v>
       </c>
       <c r="AN298">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AO298">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="AP298">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="AQ298">
-        <v>2.47</v>
+        <v>2.68</v>
       </c>
       <c r="AR298">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="AS298">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="AT298">
-        <v>4.19</v>
+        <v>4.01</v>
       </c>
       <c r="AU298">
         <v>7</v>
@@ -63280,25 +63280,25 @@
         <v>1.33</v>
       </c>
       <c r="AN299">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AO299">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AP299">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ299">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AR299">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AS299">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AT299">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="AU299">
         <v>5</v>
@@ -63486,25 +63486,25 @@
         <v>2.75</v>
       </c>
       <c r="AN300">
-        <v>2.19</v>
+        <v>1.94</v>
       </c>
       <c r="AO300">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AP300">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AQ300">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AR300">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="AS300">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AT300">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="AU300">
         <v>5</v>
@@ -63692,25 +63692,25 @@
         <v>1.17</v>
       </c>
       <c r="AN301">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="AO301">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AP301">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ301">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AR301">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AS301">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="AT301">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="AU301">
         <v>5</v>
@@ -63898,25 +63898,25 @@
         <v>3.95</v>
       </c>
       <c r="AN302">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="AO302">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AP302">
         <v>2.47</v>
       </c>
       <c r="AQ302">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AR302">
-        <v>2.51</v>
+        <v>2.18</v>
       </c>
       <c r="AS302">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="AT302">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="AU302">
         <v>8</v>
@@ -64104,25 +64104,25 @@
         <v>1.55</v>
       </c>
       <c r="AN303">
-        <v>1.31</v>
+        <v>0.97</v>
       </c>
       <c r="AO303">
-        <v>0.63</v>
+        <v>1.12</v>
       </c>
       <c r="AP303">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AQ303">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="AR303">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AS303">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AT303">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU303">
         <v>4</v>
@@ -64310,25 +64310,25 @@
         <v>1.04</v>
       </c>
       <c r="AN304">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AO304">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AP304">
         <v>1.06</v>
       </c>
       <c r="AQ304">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AR304">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AS304">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="AT304">
-        <v>2.95</v>
+        <v>3.01</v>
       </c>
       <c r="AU304">
         <v>4</v>
@@ -64516,25 +64516,25 @@
         <v>4.5</v>
       </c>
       <c r="AN305">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="AO305">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AP305">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AQ305">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="AR305">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AS305">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AT305">
-        <v>3.95</v>
+        <v>3.77</v>
       </c>
       <c r="AU305">
         <v>10</v>
@@ -64722,25 +64722,25 @@
         <v>1.8</v>
       </c>
       <c r="AN306">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AO306">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP306">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ306">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AR306">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AS306">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT306">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU306">
         <v>5</v>
@@ -64928,25 +64928,25 @@
         <v>1.18</v>
       </c>
       <c r="AN307">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AO307">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AP307">
         <v>0.71</v>
       </c>
       <c r="AQ307">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AR307">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS307">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AT307">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="AU307">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20232024.xlsx
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ2">
         <v>0.71</v>
@@ -2310,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ3">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2516,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ4">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ5">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3134,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ8">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ10">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3958,19 +3958,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR11">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>8</v>
@@ -4158,25 +4158,25 @@
         <v>1.01</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ12">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR12">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -4364,25 +4364,25 @@
         <v>1.14</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0.71</v>
       </c>
       <c r="AQ13">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR13">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -4570,25 +4570,25 @@
         <v>1.92</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>8</v>
@@ -4782,19 +4782,19 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR15">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>7</v>
@@ -4985,22 +4985,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ16">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR16">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -5188,25 +5188,25 @@
         <v>1.15</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ17">
         <v>2.47</v>
       </c>
       <c r="AR17">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -5394,25 +5394,25 @@
         <v>3</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
       </c>
       <c r="AR18">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5603,22 +5603,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ19">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR19">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>6</v>
@@ -5812,19 +5812,19 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR20">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS20">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="AT20">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="AU20">
         <v>11</v>
@@ -6012,25 +6012,25 @@
         <v>1.65</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ21">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR21">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AS21">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="AT21">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -6227,16 +6227,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="AS22">
-        <v>1.18</v>
+        <v>0.74</v>
       </c>
       <c r="AT22">
-        <v>2.91</v>
+        <v>2.98</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6433,16 +6433,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
-        <v>2.22</v>
+        <v>1.94</v>
       </c>
       <c r="AS23">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>3.61</v>
+        <v>3.27</v>
       </c>
       <c r="AU23">
         <v>19</v>
@@ -6633,22 +6633,22 @@
         <v>3</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="AS24">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AT24">
-        <v>2.95</v>
+        <v>3.23</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6836,25 +6836,25 @@
         <v>1.85</v>
       </c>
       <c r="AN25">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ25">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR25">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AS25">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AT25">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -7045,22 +7045,22 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ26">
         <v>1.06</v>
       </c>
       <c r="AR26">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="AS26">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="AT26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -7248,25 +7248,25 @@
         <v>1.67</v>
       </c>
       <c r="AN27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ27">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR27">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS27">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="AT27">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -7460,19 +7460,19 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR28">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="AS28">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="AT28">
-        <v>3.32</v>
+        <v>3.06</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7660,25 +7660,25 @@
         <v>1.95</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AP29">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR29">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AT29">
-        <v>2.58</v>
+        <v>3.23</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7869,22 +7869,22 @@
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ30">
         <v>2.47</v>
       </c>
       <c r="AR30">
-        <v>1.13</v>
+        <v>1.62</v>
       </c>
       <c r="AS30">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="AT30">
-        <v>3.78</v>
+        <v>4.13</v>
       </c>
       <c r="AU30">
         <v>2</v>
@@ -8072,25 +8072,25 @@
         <v>1.09</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ31">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR31">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="AS31">
-        <v>2.59</v>
+        <v>2.07</v>
       </c>
       <c r="AT31">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -8284,19 +8284,19 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ32">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
-        <v>1.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS32">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="AT32">
-        <v>3.22</v>
+        <v>3.16</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -8484,7 +8484,7 @@
         <v>1.28</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO33">
         <v>3</v>
@@ -8493,16 +8493,16 @@
         <v>0.71</v>
       </c>
       <c r="AQ33">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR33">
-        <v>1.58</v>
+        <v>1.1</v>
       </c>
       <c r="AS33">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AT33">
-        <v>3.28</v>
+        <v>2.86</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8699,16 +8699,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ34">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="AS34">
-        <v>1.68</v>
+        <v>1.3</v>
       </c>
       <c r="AT34">
-        <v>4.28</v>
+        <v>4.02</v>
       </c>
       <c r="AU34">
         <v>10</v>
@@ -8896,7 +8896,7 @@
         <v>2.54</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -8905,16 +8905,16 @@
         <v>0.71</v>
       </c>
       <c r="AQ35">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR35">
-        <v>1.25</v>
+        <v>0.84</v>
       </c>
       <c r="AS35">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AT35">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -9102,25 +9102,25 @@
         <v>2.3</v>
       </c>
       <c r="AN36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ36">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR36">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AS36">
-        <v>1.19</v>
+        <v>1.68</v>
       </c>
       <c r="AT36">
-        <v>2.83</v>
+        <v>3.38</v>
       </c>
       <c r="AU36">
         <v>12</v>
@@ -9311,22 +9311,22 @@
         <v>3</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ37">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR37">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="AS37">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AT37">
-        <v>3.8</v>
+        <v>3.63</v>
       </c>
       <c r="AU37">
         <v>12</v>
@@ -9514,25 +9514,25 @@
         <v>1.55</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR38">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT38">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9723,22 +9723,22 @@
         <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>1.06</v>
       </c>
       <c r="AQ39">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR39">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AS39">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="AT39">
-        <v>3.03</v>
+        <v>2.78</v>
       </c>
       <c r="AU39">
         <v>12</v>
@@ -9929,22 +9929,22 @@
         <v>3</v>
       </c>
       <c r="AO40">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ40">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AS40">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="AT40">
-        <v>3.91</v>
+        <v>3.28</v>
       </c>
       <c r="AU40">
         <v>10</v>
@@ -10132,25 +10132,25 @@
         <v>1.78</v>
       </c>
       <c r="AN41">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>1.3</v>
       </c>
       <c r="AS41">
-        <v>1.19</v>
+        <v>0.98</v>
       </c>
       <c r="AT41">
-        <v>2.49</v>
+        <v>2.28</v>
       </c>
       <c r="AU41">
         <v>3</v>
@@ -10341,22 +10341,22 @@
         <v>3</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AS42">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AT42">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -10544,25 +10544,25 @@
         <v>1.73</v>
       </c>
       <c r="AN43">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO43">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR43">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AS43">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10753,22 +10753,22 @@
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ44">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR44">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>0.66</v>
       </c>
       <c r="AT44">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AU44">
         <v>7</v>
@@ -10956,25 +10956,25 @@
         <v>1.52</v>
       </c>
       <c r="AN45">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ45">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AS45">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT45">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -11162,25 +11162,25 @@
         <v>1.01</v>
       </c>
       <c r="AN46">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO46">
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ46">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR46">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AS46">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AT46">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -11368,25 +11368,25 @@
         <v>2.3</v>
       </c>
       <c r="AN47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR47">
-        <v>1.47</v>
+        <v>2.07</v>
       </c>
       <c r="AS47">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AT47">
-        <v>2.73</v>
+        <v>3.36</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11574,25 +11574,25 @@
         <v>1.83</v>
       </c>
       <c r="AN48">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ48">
         <v>0.71</v>
       </c>
       <c r="AR48">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS48">
-        <v>1.32</v>
+        <v>2.06</v>
       </c>
       <c r="AT48">
-        <v>2.74</v>
+        <v>3.68</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11780,25 +11780,25 @@
         <v>1.16</v>
       </c>
       <c r="AN49">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO49">
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ49">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR49">
-        <v>1.32</v>
+        <v>0.99</v>
       </c>
       <c r="AS49">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AT49">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11986,7 +11986,7 @@
         <v>1.19</v>
       </c>
       <c r="AN50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
         <v>3</v>
@@ -11995,16 +11995,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ50">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AS50">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="AT50">
-        <v>3.48</v>
+        <v>3.64</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -12192,25 +12192,25 @@
         <v>1.48</v>
       </c>
       <c r="AN51">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
         <v>2.47</v>
       </c>
       <c r="AR51">
-        <v>1.89</v>
+        <v>3.11</v>
       </c>
       <c r="AS51">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT51">
-        <v>4.46</v>
+        <v>5.58</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -12401,22 +12401,22 @@
         <v>3</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR52">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="AS52">
-        <v>1.56</v>
+        <v>1.09</v>
       </c>
       <c r="AT52">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -12604,25 +12604,25 @@
         <v>2.45</v>
       </c>
       <c r="AN53">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO53">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ53">
         <v>0.71</v>
       </c>
       <c r="AR53">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AS53">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AT53">
-        <v>2.81</v>
+        <v>3.09</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12813,22 +12813,22 @@
         <v>3</v>
       </c>
       <c r="AO54">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ54">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR54">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AS54">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="AT54">
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
       <c r="AU54">
         <v>8</v>
@@ -13019,22 +13019,22 @@
         <v>2.33</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP55">
         <v>2.47</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR55">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="AS55">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="AT55">
-        <v>3.88</v>
+        <v>3.7</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -13222,25 +13222,25 @@
         <v>2.55</v>
       </c>
       <c r="AN56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO56">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR56">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AS56">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT56">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -13431,22 +13431,22 @@
         <v>3</v>
       </c>
       <c r="AO57">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ57">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR57">
-        <v>2.32</v>
+        <v>2.41</v>
       </c>
       <c r="AS57">
         <v>1.2</v>
       </c>
       <c r="AT57">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AU57">
         <v>18</v>
@@ -13634,25 +13634,25 @@
         <v>3.2</v>
       </c>
       <c r="AN58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO58">
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ58">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR58">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AT58">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13840,25 +13840,25 @@
         <v>1.53</v>
       </c>
       <c r="AN59">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
         <v>0.71</v>
       </c>
       <c r="AR59">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS59">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AT59">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -14046,25 +14046,25 @@
         <v>1.31</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO60">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AS60">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT60">
-        <v>2.66</v>
+        <v>2.53</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -14252,25 +14252,25 @@
         <v>1.72</v>
       </c>
       <c r="AN61">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
         <v>1.06</v>
       </c>
       <c r="AR61">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AS61">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AT61">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -14458,25 +14458,25 @@
         <v>3.4</v>
       </c>
       <c r="AN62">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ62">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR62">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14664,25 +14664,25 @@
         <v>1.22</v>
       </c>
       <c r="AN63">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO63">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ63">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR63">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AS63">
         <v>1.19</v>
       </c>
       <c r="AT63">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14870,25 +14870,25 @@
         <v>1.7</v>
       </c>
       <c r="AN64">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ64">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR64">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="AS64">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT64">
-        <v>2.73</v>
+        <v>3.02</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -15076,25 +15076,25 @@
         <v>1.68</v>
       </c>
       <c r="AN65">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AO65">
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ65">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR65">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS65">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="AT65">
-        <v>2.64</v>
+        <v>2.83</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -15282,25 +15282,25 @@
         <v>1.98</v>
       </c>
       <c r="AN66">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="AO66">
-        <v>1.57</v>
+        <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR66">
-        <v>1.39</v>
+        <v>1.87</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>0.96</v>
       </c>
       <c r="AT66">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AU66">
         <v>14</v>
@@ -15488,25 +15488,25 @@
         <v>2.25</v>
       </c>
       <c r="AN67">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AO67">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP67">
         <v>0.71</v>
       </c>
       <c r="AQ67">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR67">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AS67">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT67">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AP68">
         <v>1.06</v>
@@ -15706,13 +15706,13 @@
         <v>2.47</v>
       </c>
       <c r="AR68">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AS68">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="AT68">
-        <v>3.99</v>
+        <v>3.85</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15900,25 +15900,25 @@
         <v>1.26</v>
       </c>
       <c r="AN69">
-        <v>1.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO69">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ69">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR69">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="AS69">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AT69">
-        <v>3.31</v>
+        <v>3.62</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -16106,25 +16106,25 @@
         <v>1.7</v>
       </c>
       <c r="AN70">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP70">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ70">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR70">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="AS70">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>3.46</v>
+        <v>3.67</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -16312,25 +16312,25 @@
         <v>1.06</v>
       </c>
       <c r="AN71">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AO71">
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ71">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR71">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AS71">
-        <v>2.57</v>
+        <v>2.24</v>
       </c>
       <c r="AT71">
-        <v>3.98</v>
+        <v>3.84</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16518,25 +16518,25 @@
         <v>2.2</v>
       </c>
       <c r="AN72">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ72">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR72">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="AS72">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="AT72">
-        <v>2.49</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16727,22 +16727,22 @@
         <v>3</v>
       </c>
       <c r="AO73">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ73">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR73">
-        <v>2.62</v>
+        <v>2.81</v>
       </c>
       <c r="AS73">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AT73">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="AU73">
         <v>7</v>
@@ -16930,25 +16930,25 @@
         <v>1.95</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO74">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR74">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AT74">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -17136,25 +17136,25 @@
         <v>3.2</v>
       </c>
       <c r="AN75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AO75">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ75">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AS75">
-        <v>1.43</v>
+        <v>1.02</v>
       </c>
       <c r="AT75">
-        <v>3.16</v>
+        <v>2.84</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -17345,7 +17345,7 @@
         <v>2.5</v>
       </c>
       <c r="AO76">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AP76">
         <v>2.47</v>
@@ -17354,13 +17354,13 @@
         <v>0.71</v>
       </c>
       <c r="AR76">
-        <v>2.32</v>
+        <v>2.61</v>
       </c>
       <c r="AS76">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AT76">
-        <v>3.58</v>
+        <v>3.85</v>
       </c>
       <c r="AU76">
         <v>9</v>
@@ -17548,25 +17548,25 @@
         <v>1.26</v>
       </c>
       <c r="AN77">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AO77">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ77">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AS77">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AT77">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17754,25 +17754,25 @@
         <v>1.16</v>
       </c>
       <c r="AN78">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="AO78">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR78">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AS78">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT78">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="AU78">
         <v>4</v>
@@ -17960,25 +17960,25 @@
         <v>1.55</v>
       </c>
       <c r="AN79">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO79">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
       </c>
       <c r="AR79">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AS79">
         <v>1.42</v>
       </c>
       <c r="AT79">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -18166,25 +18166,25 @@
         <v>1.61</v>
       </c>
       <c r="AN80">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="AO80">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP80">
+        <v>1.47</v>
+      </c>
+      <c r="AQ80">
         <v>1.44</v>
       </c>
-      <c r="AQ80">
-        <v>1.4</v>
-      </c>
       <c r="AR80">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="AS80">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT80">
-        <v>2.87</v>
+        <v>3.31</v>
       </c>
       <c r="AU80">
         <v>7</v>
@@ -18372,10 +18372,10 @@
         <v>1.75</v>
       </c>
       <c r="AN81">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="AO81">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AP81">
         <v>0.71</v>
@@ -18384,13 +18384,13 @@
         <v>1.06</v>
       </c>
       <c r="AR81">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS81">
         <v>1.42</v>
       </c>
       <c r="AT81">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="AU81">
         <v>13</v>
@@ -18578,25 +18578,25 @@
         <v>1.83</v>
       </c>
       <c r="AN82">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP82">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ82">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR82">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AS82">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AT82">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18784,25 +18784,25 @@
         <v>1.53</v>
       </c>
       <c r="AN83">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AO83">
-        <v>1.56</v>
+        <v>0.25</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ83">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR83">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.02</v>
       </c>
       <c r="AT83">
-        <v>2.91</v>
+        <v>2.38</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18990,25 +18990,25 @@
         <v>2.05</v>
       </c>
       <c r="AN84">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO84">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ84">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR84">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AS84">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="AT84">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AU84">
         <v>5</v>
@@ -19196,25 +19196,25 @@
         <v>1.45</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO85">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AP85">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ85">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR85">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AS85">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT85">
-        <v>2.65</v>
+        <v>2.86</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19402,25 +19402,25 @@
         <v>1.38</v>
       </c>
       <c r="AN86">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="AO86">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ86">
         <v>2.47</v>
       </c>
       <c r="AR86">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AS86">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="AT86">
-        <v>3.95</v>
+        <v>3.71</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19611,22 +19611,22 @@
         <v>3</v>
       </c>
       <c r="AO87">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ87">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR87">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="AS87">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AT87">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="AU87">
         <v>10</v>
@@ -19814,25 +19814,25 @@
         <v>1.5</v>
       </c>
       <c r="AN88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ88">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR88">
+        <v>1.34</v>
+      </c>
+      <c r="AS88">
         <v>1.21</v>
       </c>
-      <c r="AS88">
-        <v>1.35</v>
-      </c>
       <c r="AT88">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU88">
         <v>13</v>
@@ -20020,25 +20020,25 @@
         <v>5</v>
       </c>
       <c r="AN89">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ89">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR89">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AS89">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="AT89">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="AU89">
         <v>11</v>
@@ -20226,25 +20226,25 @@
         <v>1.01</v>
       </c>
       <c r="AN90">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO90">
         <v>3</v>
       </c>
       <c r="AP90">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR90">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="AT90">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="AU90">
         <v>2</v>
@@ -20432,25 +20432,25 @@
         <v>1.09</v>
       </c>
       <c r="AN91">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO91">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AP91">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ91">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR91">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AS91">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AT91">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20638,25 +20638,25 @@
         <v>1.01</v>
       </c>
       <c r="AN92">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO92">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AP92">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ92">
         <v>2.47</v>
       </c>
       <c r="AR92">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="AS92">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="AT92">
-        <v>3.52</v>
+        <v>3</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20844,25 +20844,25 @@
         <v>1.85</v>
       </c>
       <c r="AN93">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO93">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
         <v>0.71</v>
       </c>
       <c r="AR93">
-        <v>1.52</v>
+        <v>1.99</v>
       </c>
       <c r="AS93">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="AT93">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="AU93">
         <v>15</v>
@@ -21050,25 +21050,25 @@
         <v>1.18</v>
       </c>
       <c r="AN94">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AO94">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ94">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR94">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AS94">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AT94">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="AU94">
         <v>8</v>
@@ -21256,25 +21256,25 @@
         <v>2.2</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO95">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AP95">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR95">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AS95">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="AT95">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="AU95">
         <v>8</v>
@@ -21462,25 +21462,25 @@
         <v>1.61</v>
       </c>
       <c r="AN96">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AO96">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP96">
         <v>1.06</v>
       </c>
       <c r="AQ96">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR96">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS96">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AT96">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
       <c r="AU96">
         <v>7</v>
@@ -21668,25 +21668,25 @@
         <v>2</v>
       </c>
       <c r="AN97">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO97">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR97">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AS97">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT97">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="AU97">
         <v>7</v>
@@ -21874,25 +21874,25 @@
         <v>2.6</v>
       </c>
       <c r="AN98">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP98">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="AS98">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="AT98">
-        <v>3.16</v>
+        <v>2.97</v>
       </c>
       <c r="AU98">
         <v>9</v>
@@ -22080,25 +22080,25 @@
         <v>2</v>
       </c>
       <c r="AN99">
-        <v>0.91</v>
+        <v>1.6</v>
       </c>
       <c r="AO99">
-        <v>1.09</v>
+        <v>0.4</v>
       </c>
       <c r="AP99">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ99">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR99">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="AS99">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT99">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AU99">
         <v>9</v>
@@ -22286,25 +22286,25 @@
         <v>1.44</v>
       </c>
       <c r="AN100">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AO100">
-        <v>1.64</v>
+        <v>0.4</v>
       </c>
       <c r="AP100">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ100">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR100">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AS100">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="AT100">
-        <v>2.81</v>
+        <v>2</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -22492,25 +22492,25 @@
         <v>3.4</v>
       </c>
       <c r="AN101">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AO101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ101">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR101">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS101">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AT101">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22698,25 +22698,25 @@
         <v>1.62</v>
       </c>
       <c r="AN102">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="AO102">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="AP102">
         <v>0.71</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR102">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AS102">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="AT102">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22907,22 +22907,22 @@
         <v>3</v>
       </c>
       <c r="AO103">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ103">
         <v>1.06</v>
       </c>
       <c r="AR103">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="AS103">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT103">
-        <v>3.97</v>
+        <v>3.9</v>
       </c>
       <c r="AU103">
         <v>7</v>
@@ -23110,25 +23110,25 @@
         <v>1.27</v>
       </c>
       <c r="AN104">
-        <v>0.73</v>
+        <v>1.4</v>
       </c>
       <c r="AO104">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AP104">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR104">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AS104">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT104">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AU104">
         <v>2</v>
@@ -23316,25 +23316,25 @@
         <v>1.11</v>
       </c>
       <c r="AN105">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AO105">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ105">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR105">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS105">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="AU105">
         <v>6</v>
@@ -23522,7 +23522,7 @@
         <v>2.4</v>
       </c>
       <c r="AN106">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="AO106">
         <v>2.6</v>
@@ -23531,16 +23531,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ106">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR106">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
-        <v>3.97</v>
+        <v>4.12</v>
       </c>
       <c r="AU106">
         <v>6</v>
@@ -23728,25 +23728,25 @@
         <v>2.05</v>
       </c>
       <c r="AN107">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AO107">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ107">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR107">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AS107">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AT107">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23934,25 +23934,25 @@
         <v>1.04</v>
       </c>
       <c r="AN108">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AO108">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="AP108">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ108">
         <v>2.47</v>
       </c>
       <c r="AR108">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AS108">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AT108">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -24140,25 +24140,25 @@
         <v>1.29</v>
       </c>
       <c r="AN109">
-        <v>2.25</v>
+        <v>2.67</v>
       </c>
       <c r="AO109">
         <v>3</v>
       </c>
       <c r="AP109">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ109">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR109">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AS109">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AT109">
-        <v>4.18</v>
+        <v>4.3</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -24346,25 +24346,25 @@
         <v>1.78</v>
       </c>
       <c r="AN110">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AO110">
-        <v>1.08</v>
+        <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR110">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="AS110">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AT110">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AU110">
         <v>6</v>
@@ -24552,25 +24552,25 @@
         <v>3.2</v>
       </c>
       <c r="AN111">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ111">
         <v>0.71</v>
       </c>
       <c r="AR111">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AT111">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AU111">
         <v>13</v>
@@ -24761,22 +24761,22 @@
         <v>1.17</v>
       </c>
       <c r="AO112">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="AP112">
         <v>1.06</v>
       </c>
       <c r="AQ112">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR112">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AS112">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>2.6</v>
+        <v>2.91</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24964,25 +24964,25 @@
         <v>1.77</v>
       </c>
       <c r="AN113">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ113">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR113">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS113">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AT113">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -25170,25 +25170,25 @@
         <v>5.5</v>
       </c>
       <c r="AN114">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="AO114">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="AP114">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ114">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR114">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AS114">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AU114">
         <v>9</v>
@@ -25376,25 +25376,25 @@
         <v>1.65</v>
       </c>
       <c r="AN115">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO115">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="AP115">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR115">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AS115">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AT115">
-        <v>2.92</v>
+        <v>2.47</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25582,25 +25582,25 @@
         <v>1.65</v>
       </c>
       <c r="AN116">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO116">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ116">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="AS116">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT116">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AU116">
         <v>7</v>
@@ -25788,25 +25788,25 @@
         <v>2.19</v>
       </c>
       <c r="AN117">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="AO117">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR117">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AS117">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT117">
-        <v>2.8</v>
+        <v>3.14</v>
       </c>
       <c r="AU117">
         <v>9</v>
@@ -25994,25 +25994,25 @@
         <v>1.53</v>
       </c>
       <c r="AN118">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AO118">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ118">
         <v>1.06</v>
       </c>
       <c r="AR118">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="AS118">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AT118">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -26200,25 +26200,25 @@
         <v>1.83</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AO119">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AP119">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ119">
         <v>0.71</v>
       </c>
       <c r="AR119">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AS119">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="AT119">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AU119">
         <v>12</v>
@@ -26409,22 +26409,22 @@
         <v>1</v>
       </c>
       <c r="AO120">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ120">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR120">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AS120">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
-        <v>2.6</v>
+        <v>2.31</v>
       </c>
       <c r="AU120">
         <v>9</v>
@@ -26612,25 +26612,25 @@
         <v>1.5</v>
       </c>
       <c r="AN121">
-        <v>1.15</v>
+        <v>1.67</v>
       </c>
       <c r="AO121">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AP121">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AS121">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AT121">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26818,7 +26818,7 @@
         <v>1.7</v>
       </c>
       <c r="AN122">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="AO122">
         <v>3</v>
@@ -26827,16 +26827,16 @@
         <v>2.47</v>
       </c>
       <c r="AQ122">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR122">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AS122">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="AT122">
-        <v>4.76</v>
+        <v>4.81</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -27024,25 +27024,25 @@
         <v>1.22</v>
       </c>
       <c r="AN123">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO123">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP123">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR123">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AS123">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="AT123">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -27230,25 +27230,25 @@
         <v>1.27</v>
       </c>
       <c r="AN124">
-        <v>1.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO124">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ124">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR124">
-        <v>1.51</v>
+        <v>2.09</v>
       </c>
       <c r="AS124">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AT124">
-        <v>3.06</v>
+        <v>3.56</v>
       </c>
       <c r="AU124">
         <v>10</v>
@@ -27436,25 +27436,25 @@
         <v>1.25</v>
       </c>
       <c r="AN125">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AO125">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="AP125">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR125">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AS125">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AT125">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27642,25 +27642,25 @@
         <v>3.5</v>
       </c>
       <c r="AN126">
-        <v>2.31</v>
+        <v>2.67</v>
       </c>
       <c r="AO126">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="AP126">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ126">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR126">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS126">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT126">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27851,22 +27851,22 @@
         <v>1</v>
       </c>
       <c r="AO127">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ127">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR127">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AS127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT127">
-        <v>3.22</v>
+        <v>3.02</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -28057,22 +28057,22 @@
         <v>3</v>
       </c>
       <c r="AO128">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ128">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR128">
-        <v>2.47</v>
+        <v>2.59</v>
       </c>
       <c r="AS128">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="AT128">
-        <v>3.95</v>
+        <v>3.73</v>
       </c>
       <c r="AU128">
         <v>9</v>
@@ -28263,22 +28263,22 @@
         <v>2.29</v>
       </c>
       <c r="AO129">
-        <v>0.57</v>
+        <v>0.14</v>
       </c>
       <c r="AP129">
         <v>2.47</v>
       </c>
       <c r="AQ129">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR129">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT129">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AU129">
         <v>11</v>
@@ -28466,25 +28466,25 @@
         <v>4.2</v>
       </c>
       <c r="AN130">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AO130">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ130">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR130">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AT130">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28672,25 +28672,25 @@
         <v>2.9</v>
       </c>
       <c r="AN131">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO131">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AP131">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ131">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="AS131">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT131">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="AU131">
         <v>8</v>
@@ -28878,25 +28878,25 @@
         <v>1.57</v>
       </c>
       <c r="AN132">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AO132">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AP132">
         <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR132">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AT132">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -29084,25 +29084,25 @@
         <v>4.4</v>
       </c>
       <c r="AN133">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AO133">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AP133">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR133">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AS133">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT133">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="AU133">
         <v>8</v>
@@ -29290,25 +29290,25 @@
         <v>1.68</v>
       </c>
       <c r="AN134">
-        <v>1.57</v>
+        <v>2.29</v>
       </c>
       <c r="AO134">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR134">
-        <v>1.56</v>
+        <v>2.09</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT134">
-        <v>2.86</v>
+        <v>3.24</v>
       </c>
       <c r="AU134">
         <v>8</v>
@@ -29496,25 +29496,25 @@
         <v>1.97</v>
       </c>
       <c r="AN135">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO135">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ135">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR135">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="AS135">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AT135">
-        <v>2.78</v>
+        <v>3.19</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29702,25 +29702,25 @@
         <v>1.78</v>
       </c>
       <c r="AN136">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AO136">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
       <c r="AP136">
         <v>0.71</v>
       </c>
       <c r="AQ136">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR136">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AS136">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AT136">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="AU136">
         <v>3</v>
@@ -29908,25 +29908,25 @@
         <v>1.78</v>
       </c>
       <c r="AN137">
+        <v>1.13</v>
+      </c>
+      <c r="AO137">
+        <v>0.29</v>
+      </c>
+      <c r="AP137">
+        <v>1.56</v>
+      </c>
+      <c r="AQ137">
+        <v>0.65</v>
+      </c>
+      <c r="AR137">
+        <v>1.42</v>
+      </c>
+      <c r="AS137">
         <v>1.2</v>
       </c>
-      <c r="AO137">
-        <v>1.27</v>
-      </c>
-      <c r="AP137">
-        <v>1.51</v>
-      </c>
-      <c r="AQ137">
-        <v>1.12</v>
-      </c>
-      <c r="AR137">
-        <v>1.35</v>
-      </c>
-      <c r="AS137">
-        <v>1.47</v>
-      </c>
       <c r="AT137">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="AU137">
         <v>8</v>
@@ -30114,25 +30114,25 @@
         <v>2.4</v>
       </c>
       <c r="AN138">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AO138">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ138">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR138">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS138">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT138">
-        <v>2.58</v>
+        <v>2.85</v>
       </c>
       <c r="AU138">
         <v>7</v>
@@ -30320,25 +30320,25 @@
         <v>1.41</v>
       </c>
       <c r="AN139">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO139">
-        <v>1.47</v>
+        <v>0.86</v>
       </c>
       <c r="AP139">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ139">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR139">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AS139">
-        <v>1.61</v>
+        <v>1.02</v>
       </c>
       <c r="AT139">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="AU139">
         <v>4</v>
@@ -30526,25 +30526,25 @@
         <v>2.85</v>
       </c>
       <c r="AN140">
-        <v>1.27</v>
+        <v>1.86</v>
       </c>
       <c r="AO140">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="AP140">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ140">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR140">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="AS140">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT140">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="AU140">
         <v>8</v>
@@ -30732,25 +30732,25 @@
         <v>1.57</v>
       </c>
       <c r="AN141">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="AO141">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ141">
         <v>0.71</v>
       </c>
       <c r="AR141">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AS141">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT141">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="AU141">
         <v>8</v>
@@ -30938,25 +30938,25 @@
         <v>1.23</v>
       </c>
       <c r="AN142">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AO142">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP142">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ142">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AS142">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AT142">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="AU142">
         <v>9</v>
@@ -31144,25 +31144,25 @@
         <v>1.05</v>
       </c>
       <c r="AN143">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO143">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AP143">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143">
         <v>2.47</v>
       </c>
       <c r="AR143">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS143">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="AT143">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="AU143">
         <v>2</v>
@@ -31350,25 +31350,25 @@
         <v>3.5</v>
       </c>
       <c r="AN144">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="AO144">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
       </c>
       <c r="AR144">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="AS144">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT144">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31556,22 +31556,22 @@
         <v>1.26</v>
       </c>
       <c r="AN145">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AO145">
         <v>3</v>
       </c>
       <c r="AP145">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ145">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR145">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AS145">
-        <v>2.49</v>
+        <v>2.34</v>
       </c>
       <c r="AT145">
         <v>4.2</v>
@@ -31765,22 +31765,22 @@
         <v>0.88</v>
       </c>
       <c r="AO146">
-        <v>0.9399999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AP146">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ146">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR146">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AS146">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT146">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AU146">
         <v>9</v>
@@ -31968,25 +31968,25 @@
         <v>1.55</v>
       </c>
       <c r="AN147">
-        <v>1.19</v>
+        <v>2.13</v>
       </c>
       <c r="AO147">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR147">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="AS147">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT147">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU147">
         <v>8</v>
@@ -32174,25 +32174,25 @@
         <v>1.73</v>
       </c>
       <c r="AN148">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="AO148">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AP148">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ148">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR148">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AS148">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AT148">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="AU148">
         <v>9</v>
@@ -32380,25 +32380,25 @@
         <v>1.48</v>
       </c>
       <c r="AN149">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO149">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AP149">
         <v>1.06</v>
       </c>
       <c r="AQ149">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR149">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS149">
-        <v>1.49</v>
+        <v>1.12</v>
       </c>
       <c r="AT149">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32589,22 +32589,22 @@
         <v>3</v>
       </c>
       <c r="AO150">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ150">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR150">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="AS150">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="AU150">
         <v>16</v>
@@ -32792,25 +32792,25 @@
         <v>1.44</v>
       </c>
       <c r="AN151">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO151">
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR151">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AS151">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AT151">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32998,25 +32998,25 @@
         <v>1.2</v>
       </c>
       <c r="AN152">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AO152">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ152">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR152">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="AS152">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AT152">
-        <v>3.47</v>
+        <v>3.88</v>
       </c>
       <c r="AU152">
         <v>13</v>
@@ -33204,25 +33204,25 @@
         <v>1.34</v>
       </c>
       <c r="AN153">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AO153">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AP153">
         <v>0.71</v>
       </c>
       <c r="AQ153">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR153">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AS153">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AT153">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU153">
         <v>7</v>
@@ -33413,22 +33413,22 @@
         <v>2.38</v>
       </c>
       <c r="AO154">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AP154">
         <v>2.47</v>
       </c>
       <c r="AQ154">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR154">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="AS154">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT154">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33619,22 +33619,22 @@
         <v>1</v>
       </c>
       <c r="AO155">
-        <v>1.18</v>
+        <v>0.78</v>
       </c>
       <c r="AP155">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ155">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AS155">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AT155">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AU155">
         <v>8</v>
@@ -33822,25 +33822,25 @@
         <v>1.24</v>
       </c>
       <c r="AN156">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AO156">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AP156">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR156">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS156">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT156">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="AU156">
         <v>9</v>
@@ -34028,25 +34028,25 @@
         <v>2.15</v>
       </c>
       <c r="AN157">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO157">
-        <v>0.65</v>
+        <v>0.44</v>
       </c>
       <c r="AP157">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR157">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS157">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="AT157">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="AU157">
         <v>9</v>
@@ -34234,25 +34234,25 @@
         <v>3.25</v>
       </c>
       <c r="AN158">
-        <v>1.94</v>
+        <v>2.11</v>
       </c>
       <c r="AO158">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="AP158">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
       </c>
       <c r="AR158">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AS158">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT158">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="AU158">
         <v>9</v>
@@ -34440,25 +34440,25 @@
         <v>1.11</v>
       </c>
       <c r="AN159">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO159">
         <v>3</v>
       </c>
       <c r="AP159">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ159">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR159">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AS159">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="AT159">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34646,10 +34646,10 @@
         <v>1.03</v>
       </c>
       <c r="AN160">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AO160">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AP160">
         <v>0.71</v>
@@ -34658,13 +34658,13 @@
         <v>2.47</v>
       </c>
       <c r="AR160">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AS160">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AT160">
-        <v>3.58</v>
+        <v>3.69</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34852,25 +34852,25 @@
         <v>1.64</v>
       </c>
       <c r="AN161">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AO161">
+        <v>0.88</v>
+      </c>
+      <c r="AP161">
         <v>1.35</v>
       </c>
-      <c r="AP161">
-        <v>1.4</v>
-      </c>
       <c r="AQ161">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR161">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AS161">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="AT161">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="AU161">
         <v>5</v>
@@ -35058,25 +35058,25 @@
         <v>3.75</v>
       </c>
       <c r="AN162">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AO162">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AP162">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR162">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="AS162">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AT162">
-        <v>3.21</v>
+        <v>3.37</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -35264,25 +35264,25 @@
         <v>1.6</v>
       </c>
       <c r="AN163">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AO163">
-        <v>1.12</v>
+        <v>0.25</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ163">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR163">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AS163">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="AT163">
-        <v>2.89</v>
+        <v>2.63</v>
       </c>
       <c r="AU163">
         <v>2</v>
@@ -35470,7 +35470,7 @@
         <v>1.83</v>
       </c>
       <c r="AN164">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AO164">
         <v>0.67</v>
@@ -35482,13 +35482,13 @@
         <v>0.71</v>
       </c>
       <c r="AR164">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AS164">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AT164">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="AU164">
         <v>10</v>
@@ -35679,22 +35679,22 @@
         <v>0.78</v>
       </c>
       <c r="AO165">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="AP165">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ165">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AS165">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT165">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="AU165">
         <v>3</v>
@@ -35882,25 +35882,25 @@
         <v>7.5</v>
       </c>
       <c r="AN166">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="AO166">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP166">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR166">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AS166">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT166">
-        <v>3.77</v>
+        <v>3.98</v>
       </c>
       <c r="AU166">
         <v>9</v>
@@ -36088,25 +36088,25 @@
         <v>1.38</v>
       </c>
       <c r="AN167">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AO167">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ167">
+        <v>1.24</v>
+      </c>
+      <c r="AR167">
         <v>1.47</v>
       </c>
-      <c r="AR167">
-        <v>1.3</v>
-      </c>
       <c r="AS167">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT167">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36294,25 +36294,25 @@
         <v>1.07</v>
       </c>
       <c r="AN168">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AO168">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR168">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AS168">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT168">
-        <v>3.12</v>
+        <v>3.07</v>
       </c>
       <c r="AU168">
         <v>8</v>
@@ -36500,25 +36500,25 @@
         <v>1.33</v>
       </c>
       <c r="AN169">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AO169">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP169">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR169">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AS169">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AT169">
-        <v>3.11</v>
+        <v>3.29</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36706,25 +36706,25 @@
         <v>1.76</v>
       </c>
       <c r="AN170">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="AO170">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AP170">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ170">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR170">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="AS170">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AT170">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="AU170">
         <v>6</v>
@@ -36912,25 +36912,25 @@
         <v>2.75</v>
       </c>
       <c r="AN171">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AO171">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="AP171">
         <v>2.47</v>
       </c>
       <c r="AQ171">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR171">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="AS171">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AT171">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="AU171">
         <v>7</v>
@@ -37118,25 +37118,25 @@
         <v>1.34</v>
       </c>
       <c r="AN172">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AO172">
-        <v>1.11</v>
+        <v>0.33</v>
       </c>
       <c r="AP172">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ172">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR172">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AS172">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AT172">
-        <v>2.73</v>
+        <v>2.66</v>
       </c>
       <c r="AU172">
         <v>4</v>
@@ -37324,25 +37324,25 @@
         <v>1.88</v>
       </c>
       <c r="AN173">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AO173">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ173">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR173">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AS173">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT173">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU173">
         <v>4</v>
@@ -37530,25 +37530,25 @@
         <v>3.6</v>
       </c>
       <c r="AN174">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AO174">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="AP174">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ174">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR174">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="AS174">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT174">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="AU174">
         <v>11</v>
@@ -37736,25 +37736,25 @@
         <v>1.55</v>
       </c>
       <c r="AN175">
-        <v>1.21</v>
+        <v>1.89</v>
       </c>
       <c r="AO175">
-        <v>1.11</v>
+        <v>0.7</v>
       </c>
       <c r="AP175">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ175">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="AS175">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="AT175">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37942,25 +37942,25 @@
         <v>1.35</v>
       </c>
       <c r="AN176">
-        <v>1.79</v>
+        <v>2.11</v>
       </c>
       <c r="AO176">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="AP176">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ176">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR176">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="AS176">
-        <v>2.41</v>
+        <v>2.21</v>
       </c>
       <c r="AT176">
-        <v>4.32</v>
+        <v>4.18</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -38148,25 +38148,25 @@
         <v>2.05</v>
       </c>
       <c r="AN177">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AO177">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AP177">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ177">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR177">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS177">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AT177">
-        <v>2.66</v>
+        <v>2.73</v>
       </c>
       <c r="AU177">
         <v>13</v>
@@ -38354,25 +38354,25 @@
         <v>1.37</v>
       </c>
       <c r="AN178">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AO178">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP178">
         <v>0.71</v>
       </c>
       <c r="AQ178">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR178">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS178">
-        <v>1.63</v>
+        <v>1.09</v>
       </c>
       <c r="AT178">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38560,25 +38560,25 @@
         <v>1.25</v>
       </c>
       <c r="AN179">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="AO179">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="AP179">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ179">
         <v>2.47</v>
       </c>
       <c r="AR179">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="AS179">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AT179">
-        <v>3.83</v>
+        <v>3.92</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38766,25 +38766,25 @@
         <v>3</v>
       </c>
       <c r="AN180">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
       <c r="AO180">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ180">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR180">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS180">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AT180">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="AU180">
         <v>11</v>
@@ -38972,25 +38972,25 @@
         <v>1.72</v>
       </c>
       <c r="AN181">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AO181">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AP181">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ181">
         <v>1.06</v>
       </c>
       <c r="AR181">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AS181">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT181">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="AU181">
         <v>12</v>
@@ -39178,25 +39178,25 @@
         <v>1.45</v>
       </c>
       <c r="AN182">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AO182">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AP182">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ182">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR182">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AS182">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT182">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39384,25 +39384,25 @@
         <v>1.12</v>
       </c>
       <c r="AN183">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AO183">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="AP183">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ183">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR183">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS183">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AT183">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39590,25 +39590,25 @@
         <v>1.16</v>
       </c>
       <c r="AN184">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AO184">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AP184">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ184">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR184">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AS184">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AT184">
-        <v>2.87</v>
+        <v>2.74</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39796,25 +39796,25 @@
         <v>1.72</v>
       </c>
       <c r="AN185">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AO185">
         <v>0.6</v>
       </c>
       <c r="AP185">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ185">
         <v>0.71</v>
       </c>
       <c r="AR185">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AS185">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AT185">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="AU185">
         <v>9</v>
@@ -40002,25 +40002,25 @@
         <v>2.05</v>
       </c>
       <c r="AN186">
+        <v>1.7</v>
+      </c>
+      <c r="AO186">
         <v>1.5</v>
       </c>
-      <c r="AO186">
-        <v>1.3</v>
-      </c>
       <c r="AP186">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ186">
         <v>1.06</v>
       </c>
       <c r="AR186">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="AS186">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AT186">
-        <v>3.03</v>
+        <v>3.38</v>
       </c>
       <c r="AU186">
         <v>5</v>
@@ -40208,25 +40208,25 @@
         <v>1.9</v>
       </c>
       <c r="AN187">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AO187">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ187">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR187">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AS187">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AT187">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="AU187">
         <v>9</v>
@@ -40414,25 +40414,25 @@
         <v>1.23</v>
       </c>
       <c r="AN188">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="AO188">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP188">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ188">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR188">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="AS188">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AT188">
-        <v>3.37</v>
+        <v>3.64</v>
       </c>
       <c r="AU188">
         <v>6</v>
@@ -40620,25 +40620,25 @@
         <v>1.01</v>
       </c>
       <c r="AN189">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AO189">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AP189">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ189">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR189">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AS189">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="AT189">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -40826,25 +40826,25 @@
         <v>5.75</v>
       </c>
       <c r="AN190">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AO190">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AP190">
         <v>2.47</v>
       </c>
       <c r="AQ190">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR190">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="AS190">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="AT190">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="AU190">
         <v>6</v>
@@ -41032,25 +41032,25 @@
         <v>6.5</v>
       </c>
       <c r="AN191">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="AO191">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AP191">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ191">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR191">
-        <v>2.43</v>
+        <v>2.59</v>
       </c>
       <c r="AS191">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT191">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="AU191">
         <v>15</v>
@@ -41238,25 +41238,25 @@
         <v>1.22</v>
       </c>
       <c r="AN192">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AO192">
+        <v>1.6</v>
+      </c>
+      <c r="AP192">
+        <v>1.59</v>
+      </c>
+      <c r="AQ192">
         <v>1.71</v>
       </c>
-      <c r="AP192">
-        <v>1.12</v>
-      </c>
-      <c r="AQ192">
-        <v>1.91</v>
-      </c>
       <c r="AR192">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="AS192">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AT192">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -41444,25 +41444,25 @@
         <v>1.91</v>
       </c>
       <c r="AN193">
-        <v>1.24</v>
+        <v>0.9</v>
       </c>
       <c r="AO193">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AP193">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ193">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR193">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="AS193">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AT193">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="AU193">
         <v>10</v>
@@ -41650,25 +41650,25 @@
         <v>1.68</v>
       </c>
       <c r="AN194">
-        <v>1.19</v>
+        <v>1.7</v>
       </c>
       <c r="AO194">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AP194">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ194">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR194">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AS194">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="AT194">
-        <v>3.11</v>
+        <v>2.9</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41856,25 +41856,25 @@
         <v>1.75</v>
       </c>
       <c r="AN195">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="AO195">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AP195">
         <v>1.06</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR195">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AS195">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT195">
-        <v>2.67</v>
+        <v>2.76</v>
       </c>
       <c r="AU195">
         <v>3</v>
@@ -42062,25 +42062,25 @@
         <v>2.4</v>
       </c>
       <c r="AN196">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AO196">
+        <v>1.2</v>
+      </c>
+      <c r="AP196">
+        <v>2.53</v>
+      </c>
+      <c r="AQ196">
         <v>1.24</v>
       </c>
-      <c r="AP196">
-        <v>2.03</v>
-      </c>
-      <c r="AQ196">
-        <v>1.47</v>
-      </c>
       <c r="AR196">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="AS196">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT196">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="AU196">
         <v>3</v>
@@ -42268,25 +42268,25 @@
         <v>2.8</v>
       </c>
       <c r="AN197">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO197">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AP197">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ197">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR197">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AS197">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT197">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="AU197">
         <v>5</v>
@@ -42474,25 +42474,25 @@
         <v>1.93</v>
       </c>
       <c r="AN198">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AO198">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="AP198">
         <v>0.71</v>
       </c>
       <c r="AQ198">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR198">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS198">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AT198">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="AU198">
         <v>9</v>
@@ -42680,25 +42680,25 @@
         <v>6.5</v>
       </c>
       <c r="AN199">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="AO199">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="AP199">
         <v>2.47</v>
       </c>
       <c r="AQ199">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR199">
-        <v>2.17</v>
+        <v>2.31</v>
       </c>
       <c r="AS199">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT199">
-        <v>3.48</v>
+        <v>3.66</v>
       </c>
       <c r="AU199">
         <v>15</v>
@@ -42886,25 +42886,25 @@
         <v>2.86</v>
       </c>
       <c r="AN200">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AO200">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP200">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ200">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR200">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AS200">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AT200">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="AU200">
         <v>4</v>
@@ -43092,25 +43092,25 @@
         <v>1.57</v>
       </c>
       <c r="AN201">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO201">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AP201">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ201">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR201">
         <v>1.27</v>
       </c>
       <c r="AS201">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT201">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="AU201">
         <v>0</v>
@@ -43298,25 +43298,25 @@
         <v>1.05</v>
       </c>
       <c r="AN202">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AO202">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="AP202">
         <v>1.06</v>
       </c>
       <c r="AQ202">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR202">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS202">
-        <v>2.51</v>
+        <v>2.29</v>
       </c>
       <c r="AT202">
-        <v>3.89</v>
+        <v>3.77</v>
       </c>
       <c r="AU202">
         <v>2</v>
@@ -43504,25 +43504,25 @@
         <v>1.92</v>
       </c>
       <c r="AN203">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AO203">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="AP203">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ203">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR203">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AS203">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AT203">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43710,25 +43710,25 @@
         <v>1.72</v>
       </c>
       <c r="AN204">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AO204">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="AP204">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ204">
         <v>0.71</v>
       </c>
       <c r="AR204">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AS204">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AT204">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="AU204">
         <v>8</v>
@@ -43916,25 +43916,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AO205">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="AP205">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ205">
         <v>2.47</v>
       </c>
       <c r="AR205">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AS205">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="AT205">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -44122,25 +44122,25 @@
         <v>2.6</v>
       </c>
       <c r="AN206">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AO206">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AP206">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ206">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR206">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="AS206">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
       <c r="AT206">
-        <v>3.23</v>
+        <v>2.98</v>
       </c>
       <c r="AU206">
         <v>7</v>
@@ -44328,25 +44328,25 @@
         <v>1.7</v>
       </c>
       <c r="AN207">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AO207">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ207">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR207">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AS207">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AT207">
-        <v>3.41</v>
+        <v>3.53</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44534,25 +44534,25 @@
         <v>1.2</v>
       </c>
       <c r="AN208">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AO208">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AP208">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ208">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR208">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="AS208">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="AT208">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44740,22 +44740,22 @@
         <v>1.38</v>
       </c>
       <c r="AN209">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="AO209">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ209">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR209">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AS209">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="AT209">
         <v>2.67</v>
@@ -44946,25 +44946,25 @@
         <v>2.15</v>
       </c>
       <c r="AN210">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AO210">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="AP210">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR210">
-        <v>1.59</v>
+        <v>2.05</v>
       </c>
       <c r="AS210">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT210">
-        <v>2.84</v>
+        <v>3.33</v>
       </c>
       <c r="AU210">
         <v>9</v>
@@ -45152,25 +45152,25 @@
         <v>1.13</v>
       </c>
       <c r="AN211">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AO211">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="AP211">
         <v>0.71</v>
       </c>
       <c r="AQ211">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR211">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS211">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AT211">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -45358,25 +45358,25 @@
         <v>1.23</v>
       </c>
       <c r="AN212">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="AO212">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AP212">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ212">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR212">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="AS212">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AT212">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45564,25 +45564,25 @@
         <v>2.1</v>
       </c>
       <c r="AN213">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AO213">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AP213">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ213">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR213">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AS213">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AT213">
-        <v>3.21</v>
+        <v>3.03</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -45770,25 +45770,25 @@
         <v>1.83</v>
       </c>
       <c r="AN214">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AO214">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="AP214">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ214">
         <v>2.47</v>
       </c>
       <c r="AR214">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AS214">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="AT214">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AU214">
         <v>9</v>
@@ -45976,25 +45976,25 @@
         <v>2.23</v>
       </c>
       <c r="AN215">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="AO215">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="AP215">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ215">
         <v>1.06</v>
       </c>
       <c r="AR215">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="AS215">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT215">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="AU215">
         <v>7</v>
@@ -46182,25 +46182,25 @@
         <v>1.92</v>
       </c>
       <c r="AN216">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AO216">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="AP216">
+        <v>1.59</v>
+      </c>
+      <c r="AQ216">
+        <v>0.59</v>
+      </c>
+      <c r="AR216">
+        <v>1.72</v>
+      </c>
+      <c r="AS216">
         <v>1.12</v>
       </c>
-      <c r="AQ216">
-        <v>0.85</v>
-      </c>
-      <c r="AR216">
-        <v>1.47</v>
-      </c>
-      <c r="AS216">
-        <v>1.29</v>
-      </c>
       <c r="AT216">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="AU216">
         <v>9</v>
@@ -46388,25 +46388,25 @@
         <v>1.58</v>
       </c>
       <c r="AN217">
-        <v>0.96</v>
+        <v>1.27</v>
       </c>
       <c r="AO217">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AP217">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ217">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR217">
+        <v>1.4</v>
+      </c>
+      <c r="AS217">
         <v>1.21</v>
       </c>
-      <c r="AS217">
-        <v>1.27</v>
-      </c>
       <c r="AT217">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46594,25 +46594,25 @@
         <v>1.05</v>
       </c>
       <c r="AN218">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="AO218">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AP218">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ218">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR218">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="AS218">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT218">
-        <v>4.11</v>
+        <v>4.38</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46800,25 +46800,25 @@
         <v>3</v>
       </c>
       <c r="AN219">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="AO219">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ219">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR219">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AS219">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AT219">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -47006,25 +47006,25 @@
         <v>1.28</v>
       </c>
       <c r="AN220">
+        <v>1.08</v>
+      </c>
+      <c r="AO220">
+        <v>1.25</v>
+      </c>
+      <c r="AP220">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ220">
+        <v>1.24</v>
+      </c>
+      <c r="AR220">
+        <v>1.32</v>
+      </c>
+      <c r="AS220">
         <v>1.17</v>
       </c>
-      <c r="AO220">
-        <v>1.33</v>
-      </c>
-      <c r="AP220">
-        <v>1</v>
-      </c>
-      <c r="AQ220">
-        <v>1.47</v>
-      </c>
-      <c r="AR220">
-        <v>1.27</v>
-      </c>
-      <c r="AS220">
-        <v>1.39</v>
-      </c>
       <c r="AT220">
-        <v>2.66</v>
+        <v>2.49</v>
       </c>
       <c r="AU220">
         <v>3</v>
@@ -47212,25 +47212,25 @@
         <v>1.66</v>
       </c>
       <c r="AN221">
+        <v>0.92</v>
+      </c>
+      <c r="AO221">
         <v>0.75</v>
       </c>
-      <c r="AO221">
-        <v>0.67</v>
-      </c>
       <c r="AP221">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ221">
         <v>0.71</v>
       </c>
       <c r="AR221">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AS221">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT221">
-        <v>2.58</v>
+        <v>2.39</v>
       </c>
       <c r="AU221">
         <v>7</v>
@@ -47418,25 +47418,25 @@
         <v>3.45</v>
       </c>
       <c r="AN222">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="AO222">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP222">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ222">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR222">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AS222">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AT222">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="AU222">
         <v>11</v>
@@ -47624,25 +47624,25 @@
         <v>2.77</v>
       </c>
       <c r="AN223">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AO223">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP223">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ223">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR223">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AT223">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -47830,25 +47830,25 @@
         <v>2.5</v>
       </c>
       <c r="AN224">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
       <c r="AO224">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AP224">
         <v>1.06</v>
       </c>
       <c r="AQ224">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR224">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AS224">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT224">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU224">
         <v>11</v>
@@ -48036,25 +48036,25 @@
         <v>1.71</v>
       </c>
       <c r="AN225">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO225">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AP225">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ225">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR225">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AS225">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="AT225">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="AU225">
         <v>6</v>
@@ -48242,25 +48242,25 @@
         <v>9.5</v>
       </c>
       <c r="AN226">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AO226">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="AP226">
         <v>2.47</v>
       </c>
       <c r="AQ226">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR226">
-        <v>2.14</v>
+        <v>2.41</v>
       </c>
       <c r="AS226">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="AT226">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="AU226">
         <v>6</v>
@@ -48448,25 +48448,25 @@
         <v>1.42</v>
       </c>
       <c r="AN227">
-        <v>0.92</v>
+        <v>1.25</v>
       </c>
       <c r="AO227">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AP227">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ227">
+        <v>1.42</v>
+      </c>
+      <c r="AR227">
         <v>1.44</v>
       </c>
-      <c r="AR227">
-        <v>1.21</v>
-      </c>
       <c r="AS227">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AT227">
-        <v>2.81</v>
+        <v>2.6</v>
       </c>
       <c r="AU227">
         <v>4</v>
@@ -48654,25 +48654,25 @@
         <v>1.98</v>
       </c>
       <c r="AN228">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="AO228">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AP228">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ228">
         <v>1.06</v>
       </c>
       <c r="AR228">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="AS228">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AT228">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="AU228">
         <v>13</v>
@@ -48860,25 +48860,25 @@
         <v>1.7</v>
       </c>
       <c r="AN229">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AO229">
-        <v>0.84</v>
+        <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ229">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR229">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AS229">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT229">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="AU229">
         <v>7</v>
@@ -49066,25 +49066,25 @@
         <v>1.65</v>
       </c>
       <c r="AN230">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AO230">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AP230">
         <v>0.71</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR230">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AS230">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT230">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU230">
         <v>8</v>
@@ -49272,25 +49272,25 @@
         <v>1.04</v>
       </c>
       <c r="AN231">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AO231">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="AP231">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ231">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR231">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AS231">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AT231">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU231">
         <v>3</v>
@@ -49478,25 +49478,25 @@
         <v>1.87</v>
       </c>
       <c r="AN232">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AO232">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AP232">
+        <v>1.68</v>
+      </c>
+      <c r="AQ232">
         <v>1.47</v>
       </c>
-      <c r="AQ232">
-        <v>1.51</v>
-      </c>
       <c r="AR232">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AS232">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AT232">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="AU232">
         <v>5</v>
@@ -49684,25 +49684,25 @@
         <v>1.14</v>
       </c>
       <c r="AN233">
+        <v>1.67</v>
+      </c>
+      <c r="AO233">
+        <v>2.42</v>
+      </c>
+      <c r="AP233">
         <v>1.24</v>
-      </c>
-      <c r="AO233">
-        <v>2.36</v>
-      </c>
-      <c r="AP233">
-        <v>1.09</v>
       </c>
       <c r="AQ233">
         <v>2.47</v>
       </c>
       <c r="AR233">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="AS233">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="AT233">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49890,25 +49890,25 @@
         <v>1.32</v>
       </c>
       <c r="AN234">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AO234">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP234">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ234">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR234">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="AS234">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT234">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="AU234">
         <v>6</v>
@@ -50096,25 +50096,25 @@
         <v>2.95</v>
       </c>
       <c r="AN235">
-        <v>2.76</v>
+        <v>2.83</v>
       </c>
       <c r="AO235">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AP235">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ235">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR235">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="AS235">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AT235">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="AU235">
         <v>6</v>
@@ -50302,22 +50302,22 @@
         <v>1.11</v>
       </c>
       <c r="AN236">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AO236">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="AP236">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ236">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR236">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AS236">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="AT236">
         <v>4.02</v>
@@ -50508,25 +50508,25 @@
         <v>1.68</v>
       </c>
       <c r="AN237">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AO237">
-        <v>1.31</v>
+        <v>0.77</v>
       </c>
       <c r="AP237">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ237">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR237">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AS237">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="AT237">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AU237">
         <v>10</v>
@@ -50714,25 +50714,25 @@
         <v>2.4</v>
       </c>
       <c r="AN238">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AO238">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP238">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ238">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR238">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AS238">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AT238">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50920,25 +50920,25 @@
         <v>1.42</v>
       </c>
       <c r="AN239">
+        <v>1.08</v>
+      </c>
+      <c r="AO239">
         <v>0.85</v>
       </c>
-      <c r="AO239">
-        <v>1.19</v>
-      </c>
       <c r="AP239">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ239">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR239">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AS239">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AT239">
-        <v>2.79</v>
+        <v>2.54</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -51126,25 +51126,25 @@
         <v>4</v>
       </c>
       <c r="AN240">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO240">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP240">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ240">
         <v>0.71</v>
       </c>
       <c r="AR240">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="AS240">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AT240">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="AU240">
         <v>6</v>
@@ -51332,25 +51332,25 @@
         <v>1.25</v>
       </c>
       <c r="AN241">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AO241">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="AP241">
         <v>1.06</v>
       </c>
       <c r="AQ241">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR241">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AS241">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT241">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="AU241">
         <v>5</v>
@@ -51538,25 +51538,25 @@
         <v>3.75</v>
       </c>
       <c r="AN242">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="AO242">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AP242">
         <v>2.47</v>
       </c>
       <c r="AQ242">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR242">
-        <v>2.11</v>
+        <v>2.36</v>
       </c>
       <c r="AS242">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT242">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AU242">
         <v>12</v>
@@ -51744,22 +51744,22 @@
         <v>4.25</v>
       </c>
       <c r="AN243">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="AO243">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="AP243">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ243">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR243">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AS243">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AT243">
         <v>2.81</v>
@@ -51950,25 +51950,25 @@
         <v>2.7</v>
       </c>
       <c r="AN244">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AO244">
         <v>0.54</v>
       </c>
       <c r="AP244">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ244">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR244">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AS244">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AT244">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AU244">
         <v>8</v>
@@ -52156,25 +52156,25 @@
         <v>1.58</v>
       </c>
       <c r="AN245">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="AO245">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AP245">
         <v>0.71</v>
       </c>
       <c r="AQ245">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR245">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AS245">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AT245">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52362,25 +52362,25 @@
         <v>1.04</v>
       </c>
       <c r="AN246">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO246">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AP246">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ246">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR246">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AS246">
-        <v>2.49</v>
+        <v>2.37</v>
       </c>
       <c r="AT246">
-        <v>3.71</v>
+        <v>3.82</v>
       </c>
       <c r="AU246">
         <v>2</v>
@@ -52568,25 +52568,25 @@
         <v>1.58</v>
       </c>
       <c r="AN247">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="AO247">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="AP247">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ247">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR247">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="AS247">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AT247">
-        <v>3.03</v>
+        <v>3.21</v>
       </c>
       <c r="AU247">
         <v>9</v>
@@ -52774,25 +52774,25 @@
         <v>1.14</v>
       </c>
       <c r="AN248">
-        <v>0.96</v>
+        <v>1.38</v>
       </c>
       <c r="AO248">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="AP248">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ248">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR248">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AS248">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AT248">
-        <v>2.78</v>
+        <v>2.89</v>
       </c>
       <c r="AU248">
         <v>10</v>
@@ -52980,25 +52980,25 @@
         <v>2.38</v>
       </c>
       <c r="AN249">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO249">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="AP249">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
       </c>
       <c r="AR249">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="AS249">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AT249">
-        <v>2.71</v>
+        <v>2.82</v>
       </c>
       <c r="AU249">
         <v>8</v>
@@ -53186,25 +53186,25 @@
         <v>1.3</v>
       </c>
       <c r="AN250">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="AO250">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="AP250">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ250">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR250">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AS250">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AT250">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="AU250">
         <v>6</v>
@@ -53392,25 +53392,25 @@
         <v>1.02</v>
       </c>
       <c r="AN251">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AO251">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AP251">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ251">
         <v>2.47</v>
       </c>
       <c r="AR251">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AS251">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="AT251">
-        <v>3.32</v>
+        <v>3.18</v>
       </c>
       <c r="AU251">
         <v>2</v>
@@ -53598,25 +53598,25 @@
         <v>1.73</v>
       </c>
       <c r="AN252">
-        <v>0.85</v>
+        <v>1.07</v>
       </c>
       <c r="AO252">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AP252">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR252">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AS252">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AT252">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AU252">
         <v>4</v>
@@ -53804,25 +53804,25 @@
         <v>2.5</v>
       </c>
       <c r="AN253">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AO253">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AP253">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ253">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR253">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AS253">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="AT253">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="AU253">
         <v>8</v>
@@ -54010,25 +54010,25 @@
         <v>2.05</v>
       </c>
       <c r="AN254">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AO254">
-        <v>1.04</v>
+        <v>0.57</v>
       </c>
       <c r="AP254">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ254">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR254">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AS254">
-        <v>1.22</v>
+        <v>0.98</v>
       </c>
       <c r="AT254">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AU254">
         <v>5</v>
@@ -54216,25 +54216,25 @@
         <v>2.9</v>
       </c>
       <c r="AN255">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AO255">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="AP255">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ255">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR255">
-        <v>2.47</v>
+        <v>2.61</v>
       </c>
       <c r="AS255">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AT255">
-        <v>4.07</v>
+        <v>4.12</v>
       </c>
       <c r="AU255">
         <v>9</v>
@@ -54422,25 +54422,25 @@
         <v>1.7</v>
       </c>
       <c r="AN256">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO256">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="AP256">
         <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR256">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AS256">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AT256">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="AU256">
         <v>12</v>
@@ -54628,25 +54628,25 @@
         <v>3.4</v>
       </c>
       <c r="AN257">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="AO257">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP257">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ257">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR257">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="AS257">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="AT257">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="AU257">
         <v>9</v>
@@ -54834,25 +54834,25 @@
         <v>1.4</v>
       </c>
       <c r="AN258">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="AO258">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
       <c r="AP258">
         <v>0.71</v>
       </c>
       <c r="AQ258">
+        <v>1.47</v>
+      </c>
+      <c r="AR258">
         <v>1.51</v>
       </c>
-      <c r="AR258">
-        <v>1.35</v>
-      </c>
       <c r="AS258">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AT258">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -55043,22 +55043,22 @@
         <v>2.36</v>
       </c>
       <c r="AO259">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AP259">
         <v>2.47</v>
       </c>
       <c r="AQ259">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR259">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="AS259">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT259">
-        <v>3.96</v>
+        <v>4.13</v>
       </c>
       <c r="AU259">
         <v>16</v>
@@ -55246,25 +55246,25 @@
         <v>2.1</v>
       </c>
       <c r="AN260">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AO260">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AP260">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ260">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR260">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="AS260">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AT260">
-        <v>2.85</v>
+        <v>3.18</v>
       </c>
       <c r="AU260">
         <v>5</v>
@@ -55455,22 +55455,22 @@
         <v>0.57</v>
       </c>
       <c r="AO261">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="AP261">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ261">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR261">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS261">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AT261">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU261">
         <v>9</v>
@@ -55658,25 +55658,25 @@
         <v>1.52</v>
       </c>
       <c r="AN262">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AO262">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AP262">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ262">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR262">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AS262">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AT262">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="AU262">
         <v>6</v>
@@ -55864,25 +55864,25 @@
         <v>2.1</v>
       </c>
       <c r="AN263">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="AO263">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="AP263">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ263">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR263">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AS263">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT263">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU263">
         <v>16</v>
@@ -56070,25 +56070,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AN264">
-        <v>2.69</v>
+        <v>2.86</v>
       </c>
       <c r="AO264">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="AP264">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ264">
         <v>0.71</v>
       </c>
       <c r="AR264">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="AS264">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AT264">
-        <v>3.82</v>
+        <v>3.77</v>
       </c>
       <c r="AU264">
         <v>13</v>
@@ -56276,25 +56276,25 @@
         <v>3.35</v>
       </c>
       <c r="AN265">
-        <v>1.79</v>
+        <v>2.07</v>
       </c>
       <c r="AO265">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="AP265">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ265">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AS265">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AT265">
-        <v>2.91</v>
+        <v>3.09</v>
       </c>
       <c r="AU265">
         <v>8</v>
@@ -56482,25 +56482,25 @@
         <v>1.37</v>
       </c>
       <c r="AN266">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AO266">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AP266">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ266">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR266">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS266">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AT266">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -56688,25 +56688,25 @@
         <v>1.45</v>
       </c>
       <c r="AN267">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO267">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AP267">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ267">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR267">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AS267">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AT267">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="AU267">
         <v>4</v>
@@ -56894,25 +56894,25 @@
         <v>1.05</v>
       </c>
       <c r="AN268">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="AO268">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AP268">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ268">
         <v>2.47</v>
       </c>
       <c r="AR268">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="AS268">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="AT268">
-        <v>3.7</v>
+        <v>3.77</v>
       </c>
       <c r="AU268">
         <v>4</v>
@@ -57100,25 +57100,25 @@
         <v>2.1</v>
       </c>
       <c r="AN269">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AO269">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="AP269">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ269">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR269">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AS269">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="AT269">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="AU269">
         <v>7</v>
@@ -57306,25 +57306,25 @@
         <v>1.5</v>
       </c>
       <c r="AN270">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="AO270">
-        <v>2.07</v>
+        <v>1.64</v>
       </c>
       <c r="AP270">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ270">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR270">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS270">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AT270">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="AU270">
         <v>5</v>
@@ -57512,25 +57512,25 @@
         <v>2.5</v>
       </c>
       <c r="AN271">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="AO271">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AP271">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ271">
         <v>1.06</v>
       </c>
       <c r="AR271">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AS271">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AT271">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU271">
         <v>10</v>
@@ -57718,25 +57718,25 @@
         <v>3.6</v>
       </c>
       <c r="AN272">
-        <v>2</v>
+        <v>2.47</v>
       </c>
       <c r="AO272">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AP272">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ272">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR272">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AS272">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AT272">
-        <v>2.89</v>
+        <v>3.06</v>
       </c>
       <c r="AU272">
         <v>9</v>
@@ -57924,25 +57924,25 @@
         <v>3.35</v>
       </c>
       <c r="AN273">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="AO273">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="AP273">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AQ273">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR273">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AS273">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="AT273">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AU273">
         <v>6</v>
@@ -58130,22 +58130,22 @@
         <v>1.09</v>
       </c>
       <c r="AN274">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO274">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="AP274">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ274">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR274">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AS274">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="AT274">
         <v>3.97</v>
@@ -58336,25 +58336,25 @@
         <v>1.15</v>
       </c>
       <c r="AN275">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AO275">
         <v>2.4</v>
       </c>
       <c r="AP275">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ275">
         <v>2.47</v>
       </c>
       <c r="AR275">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="AS275">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="AT275">
-        <v>3.73</v>
+        <v>3.79</v>
       </c>
       <c r="AU275">
         <v>7</v>
@@ -58542,25 +58542,25 @@
         <v>1.7</v>
       </c>
       <c r="AN276">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO276">
-        <v>1.07</v>
+        <v>0.73</v>
       </c>
       <c r="AP276">
         <v>1.06</v>
       </c>
       <c r="AQ276">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR276">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AS276">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="AT276">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU276">
         <v>7</v>
@@ -58748,25 +58748,25 @@
         <v>1.23</v>
       </c>
       <c r="AN277">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AO277">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="AP277">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ277">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR277">
+        <v>1.65</v>
+      </c>
+      <c r="AS277">
         <v>1.5</v>
       </c>
-      <c r="AS277">
-        <v>1.61</v>
-      </c>
       <c r="AT277">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="AU277">
         <v>7</v>
@@ -58954,25 +58954,25 @@
         <v>2.93</v>
       </c>
       <c r="AN278">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AO278">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="AP278">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ278">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR278">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AS278">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT278">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
       <c r="AU278">
         <v>4</v>
@@ -59160,25 +59160,25 @@
         <v>1.4</v>
       </c>
       <c r="AN279">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="AO279">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AP279">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ279">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR279">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AS279">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AT279">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="AU279">
         <v>7</v>
@@ -59366,25 +59366,25 @@
         <v>1.2</v>
       </c>
       <c r="AN280">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AO280">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP280">
         <v>0.71</v>
       </c>
       <c r="AQ280">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR280">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="AS280">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AT280">
-        <v>2.84</v>
+        <v>2.71</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59572,25 +59572,25 @@
         <v>1.6</v>
       </c>
       <c r="AN281">
+        <v>1.67</v>
+      </c>
+      <c r="AO281">
         <v>1.13</v>
       </c>
-      <c r="AO281">
-        <v>1.35</v>
-      </c>
       <c r="AP281">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ281">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR281">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AS281">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="AT281">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="AU281">
         <v>6</v>
@@ -59778,25 +59778,25 @@
         <v>1.48</v>
       </c>
       <c r="AN282">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AO282">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP282">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ282">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR282">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS282">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AT282">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59984,25 +59984,25 @@
         <v>1.62</v>
       </c>
       <c r="AN283">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="AO283">
-        <v>0.8100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AP283">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ283">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR283">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AS283">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AT283">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="AU283">
         <v>6</v>
@@ -60190,25 +60190,25 @@
         <v>6</v>
       </c>
       <c r="AN284">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AO284">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AP284">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ284">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR284">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="AS284">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AT284">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="AU284">
         <v>8</v>
@@ -60396,25 +60396,25 @@
         <v>2.95</v>
       </c>
       <c r="AN285">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AO285">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="AP285">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ285">
         <v>0.71</v>
       </c>
       <c r="AR285">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="AS285">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="AT285">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU285">
         <v>7</v>
@@ -60602,25 +60602,25 @@
         <v>1.08</v>
       </c>
       <c r="AN286">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="AO286">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="AP286">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ286">
+        <v>1.35</v>
+      </c>
+      <c r="AR286">
+        <v>1.31</v>
+      </c>
+      <c r="AS286">
         <v>1.65</v>
       </c>
-      <c r="AR286">
-        <v>1.2</v>
-      </c>
-      <c r="AS286">
-        <v>1.73</v>
-      </c>
       <c r="AT286">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU286">
         <v>3</v>
@@ -60808,25 +60808,25 @@
         <v>1.62</v>
       </c>
       <c r="AN287">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AO287">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AP287">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ287">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR287">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AS287">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AT287">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="AU287">
         <v>5</v>
@@ -61014,7 +61014,7 @@
         <v>7.4</v>
       </c>
       <c r="AN288">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AO288">
         <v>1.13</v>
@@ -61026,13 +61026,13 @@
         <v>1.06</v>
       </c>
       <c r="AR288">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="AS288">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT288">
-        <v>3.52</v>
+        <v>3.66</v>
       </c>
       <c r="AU288">
         <v>18</v>
@@ -61220,25 +61220,25 @@
         <v>1.4</v>
       </c>
       <c r="AN289">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="AO289">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="AP289">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ289">
+        <v>1.47</v>
+      </c>
+      <c r="AR289">
         <v>1.51</v>
       </c>
-      <c r="AR289">
-        <v>1.26</v>
-      </c>
       <c r="AS289">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AT289">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="AU289">
         <v>2</v>
@@ -61426,25 +61426,25 @@
         <v>1.23</v>
       </c>
       <c r="AN290">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="AO290">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AP290">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AQ290">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AR290">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="AS290">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT290">
-        <v>3.14</v>
+        <v>3.41</v>
       </c>
       <c r="AU290">
         <v>5</v>
@@ -61632,25 +61632,25 @@
         <v>2.11</v>
       </c>
       <c r="AN291">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO291">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP291">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AQ291">
         <v>1.06</v>
       </c>
       <c r="AR291">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AS291">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AT291">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU291">
         <v>6</v>
@@ -61838,25 +61838,25 @@
         <v>1.15</v>
       </c>
       <c r="AN292">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AO292">
         <v>2.44</v>
       </c>
       <c r="AP292">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AQ292">
         <v>2.47</v>
       </c>
       <c r="AR292">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AS292">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="AT292">
-        <v>3.68</v>
+        <v>3.48</v>
       </c>
       <c r="AU292">
         <v>7</v>
@@ -62044,25 +62044,25 @@
         <v>2.4</v>
       </c>
       <c r="AN293">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AO293">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP293">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AQ293">
         <v>0.71</v>
       </c>
       <c r="AR293">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AS293">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AT293">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="AU293">
         <v>6</v>
@@ -62250,25 +62250,25 @@
         <v>2.06</v>
       </c>
       <c r="AN294">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AO294">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AP294">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AQ294">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR294">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AS294">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT294">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU294">
         <v>6</v>
@@ -62456,25 +62456,25 @@
         <v>10</v>
       </c>
       <c r="AN295">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="AO295">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="AP295">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AQ295">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="AR295">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AS295">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AT295">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="AU295">
         <v>11</v>
@@ -62662,25 +62662,25 @@
         <v>1.85</v>
       </c>
       <c r="AN296">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO296">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP296">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AQ296">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="AR296">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AS296">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AT296">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="AU296">
         <v>10</v>
@@ -62868,25 +62868,25 @@
         <v>3.6</v>
       </c>
       <c r="AN297">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AO297">
+        <v>1.13</v>
+      </c>
+      <c r="AP297">
+        <v>1.94</v>
+      </c>
+      <c r="AQ297">
         <v>1.06</v>
       </c>
-      <c r="AP297">
-        <v>1.65</v>
-      </c>
-      <c r="AQ297">
-        <v>1</v>
-      </c>
       <c r="AR297">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AS297">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT297">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="AU297">
         <v>5</v>
@@ -63074,25 +63074,25 @@
         <v>1.01</v>
       </c>
       <c r="AN298">
-        <v>1.13</v>
+        <v>1.63</v>
       </c>
       <c r="AO298">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="AP298">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="AQ298">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="AR298">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="AS298">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="AT298">
-        <v>4.01</v>
+        <v>4.19</v>
       </c>
       <c r="AU298">
         <v>7</v>
@@ -63280,25 +63280,25 @@
         <v>1.33</v>
       </c>
       <c r="AN299">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AO299">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AP299">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ299">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AR299">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AS299">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AT299">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AU299">
         <v>5</v>
@@ -63486,25 +63486,25 @@
         <v>2.75</v>
       </c>
       <c r="AN300">
-        <v>1.94</v>
+        <v>2.19</v>
       </c>
       <c r="AO300">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AP300">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AQ300">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AR300">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AS300">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AT300">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="AU300">
         <v>5</v>
@@ -63692,25 +63692,25 @@
         <v>1.17</v>
       </c>
       <c r="AN301">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO301">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="AP301">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AQ301">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR301">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AS301">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="AT301">
-        <v>2.71</v>
+        <v>2.47</v>
       </c>
       <c r="AU301">
         <v>5</v>
@@ -63898,25 +63898,25 @@
         <v>3.95</v>
       </c>
       <c r="AN302">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AO302">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AP302">
         <v>2.47</v>
       </c>
       <c r="AQ302">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AR302">
-        <v>2.18</v>
+        <v>2.51</v>
       </c>
       <c r="AS302">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="AT302">
-        <v>3.46</v>
+        <v>3.53</v>
       </c>
       <c r="AU302">
         <v>8</v>
@@ -64104,25 +64104,25 @@
         <v>1.55</v>
       </c>
       <c r="AN303">
-        <v>0.97</v>
+        <v>1.31</v>
       </c>
       <c r="AO303">
-        <v>1.12</v>
+        <v>0.63</v>
       </c>
       <c r="AP303">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AQ303">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AR303">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AS303">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AT303">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU303">
         <v>4</v>
@@ -64310,25 +64310,25 @@
         <v>1.04</v>
       </c>
       <c r="AN304">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AO304">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AP304">
         <v>1.06</v>
       </c>
       <c r="AQ304">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="AR304">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AS304">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="AT304">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="AU304">
         <v>4</v>
@@ -64516,25 +64516,25 @@
         <v>4.5</v>
       </c>
       <c r="AN305">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="AO305">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP305">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AQ305">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR305">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="AS305">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AT305">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="AU305">
         <v>10</v>
@@ -64722,25 +64722,25 @@
         <v>1.8</v>
       </c>
       <c r="AN306">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AO306">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP306">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ306">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR306">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AS306">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT306">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
       <c r="AU306">
         <v>5</v>
@@ -64928,25 +64928,25 @@
         <v>1.18</v>
       </c>
       <c r="AN307">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO307">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AP307">
         <v>0.71</v>
       </c>
       <c r="AQ307">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AR307">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS307">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT307">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="AU307">
         <v>7</v>
